--- a/Controle BTC.xlsx
+++ b/Controle BTC.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T-800\Desktop\inestBTC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fjunger\Desktop\inestBTC\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195" tabRatio="601" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195" tabRatio="601" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Plan4" sheetId="11" state="hidden" r:id="rId1"/>
@@ -21,7 +21,6 @@
     <sheet name="AWS" sheetId="2" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="101">
   <si>
     <t>Tipo</t>
   </si>
@@ -332,21 +331,24 @@
   <si>
     <t>Mining Bonus - Mining contract #27569 - 0.400 CMP - 2018-05-20</t>
   </si>
+  <si>
+    <t>Mining Bonus - Mining contract #27569 - 0.400 CMP - 2018-05-22</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="9">
-    <numFmt numFmtId="8" formatCode="&quot;R$&quot;#,##0.00;[Red]\-&quot;R$&quot;#,##0.00"/>
-    <numFmt numFmtId="164" formatCode="[$$-409]#,##0.00"/>
-    <numFmt numFmtId="165" formatCode="&quot;R$&quot;#,##0.00"/>
-    <numFmt numFmtId="166" formatCode="[$$-540A]#,##0.00"/>
-    <numFmt numFmtId="167" formatCode="0.00000000"/>
-    <numFmt numFmtId="168" formatCode="mm/yyyy"/>
-    <numFmt numFmtId="169" formatCode="#,##0.0"/>
-    <numFmt numFmtId="170" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
-    <numFmt numFmtId="171" formatCode="&quot;R$&quot;#,##0.00000000000000000000"/>
+    <numFmt numFmtId="164" formatCode="&quot;R$&quot;#,##0.00;[Red]\-&quot;R$&quot;#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00"/>
+    <numFmt numFmtId="166" formatCode="&quot;R$&quot;#,##0.00"/>
+    <numFmt numFmtId="167" formatCode="[$$-540A]#,##0.00"/>
+    <numFmt numFmtId="168" formatCode="0.00000000"/>
+    <numFmt numFmtId="169" formatCode="mm/yyyy"/>
+    <numFmt numFmtId="170" formatCode="#,##0.0"/>
+    <numFmt numFmtId="171" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
+    <numFmt numFmtId="172" formatCode="&quot;R$&quot;#,##0.00000000000000000000"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -973,16 +975,16 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -994,11 +996,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1041,59 +1043,59 @@
     <xf numFmtId="10" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1124,7 +1126,7 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1133,69 +1135,69 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="26" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="26" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1204,19 +1206,19 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1224,46 +1226,46 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="3" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="3" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="3" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="31" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="32" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="31" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="32" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="12" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="12" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="8" fontId="12" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="16" fillId="6" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="16" fillId="6" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="166" fontId="16" fillId="6" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1272,10 +1274,10 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1293,7 +1295,7 @@
     <xf numFmtId="14" fontId="7" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="7" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1320,28 +1322,28 @@
     <xf numFmtId="14" fontId="8" fillId="2" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="8" fillId="2" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="8" fillId="2" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="8" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="8" fillId="2" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="8" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="8" fillId="2" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1356,7 +1358,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="8" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1382,10 +1384,10 @@
     </xf>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="Bom" xfId="4" builtinId="26"/>
+    <cellStyle name="Good" xfId="4" builtinId="26"/>
+    <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
+    <cellStyle name="Heading 4" xfId="2" builtinId="19"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Título 1" xfId="1" builtinId="16"/>
-    <cellStyle name="Título 4" xfId="2" builtinId="19"/>
     <cellStyle name="Total" xfId="3" builtinId="25"/>
   </cellStyles>
   <dxfs count="51">
@@ -1423,17 +1425,17 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="169" formatCode="#,##0.0"/>
+      <numFmt numFmtId="170" formatCode="#,##0.0"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;R$&quot;#,##0.00"/>
+      <numFmt numFmtId="166" formatCode="&quot;R$&quot;#,##0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="[$$-409]#,##0.00"/>
+      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="[$$-409]#,##0.00"/>
+      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
@@ -1480,7 +1482,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="[$$-409]#,##0.00"/>
+      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1499,7 +1501,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="165" formatCode="&quot;R$&quot;#,##0.00"/>
+      <numFmt numFmtId="166" formatCode="&quot;R$&quot;#,##0.00"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1518,11 +1520,11 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="165" formatCode="&quot;R$&quot;#,##0.00"/>
+      <numFmt numFmtId="166" formatCode="&quot;R$&quot;#,##0.00"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="[$$-540A]#,##0.00"/>
+      <numFmt numFmtId="167" formatCode="[$$-540A]#,##0.00"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1590,7 +1592,7 @@
       <font>
         <b val="0"/>
       </font>
-      <numFmt numFmtId="165" formatCode="&quot;R$&quot;#,##0.00"/>
+      <numFmt numFmtId="166" formatCode="&quot;R$&quot;#,##0.00"/>
       <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1628,28 +1630,28 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="165" formatCode="&quot;R$&quot;#,##0.00"/>
+      <numFmt numFmtId="166" formatCode="&quot;R$&quot;#,##0.00"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
         <b val="0"/>
       </font>
-      <numFmt numFmtId="165" formatCode="&quot;R$&quot;#,##0.00"/>
+      <numFmt numFmtId="166" formatCode="&quot;R$&quot;#,##0.00"/>
       <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
         <b val="0"/>
       </font>
-      <numFmt numFmtId="165" formatCode="&quot;R$&quot;#,##0.00"/>
+      <numFmt numFmtId="166" formatCode="&quot;R$&quot;#,##0.00"/>
       <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
         <b val="0"/>
       </font>
-      <numFmt numFmtId="168" formatCode="mm/yyyy"/>
+      <numFmt numFmtId="169" formatCode="mm/yyyy"/>
       <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1694,23 +1696,23 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;R$&quot;#,##0.00"/>
+      <numFmt numFmtId="166" formatCode="&quot;R$&quot;#,##0.00"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;R$&quot;#,##0.00"/>
+      <numFmt numFmtId="166" formatCode="&quot;R$&quot;#,##0.00"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;R$&quot;#,##0.00"/>
+      <numFmt numFmtId="166" formatCode="&quot;R$&quot;#,##0.00"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;R$&quot;#,##0.00"/>
+      <numFmt numFmtId="166" formatCode="&quot;R$&quot;#,##0.00"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;R$&quot;#,##0.00"/>
+      <numFmt numFmtId="166" formatCode="&quot;R$&quot;#,##0.00"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1749,27 +1751,27 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;R$&quot;#,##0.00"/>
+      <numFmt numFmtId="166" formatCode="&quot;R$&quot;#,##0.00"/>
       <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;R$&quot;#,##0.00"/>
+      <numFmt numFmtId="166" formatCode="&quot;R$&quot;#,##0.00"/>
       <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;R$&quot;#,##0.00"/>
+      <numFmt numFmtId="166" formatCode="&quot;R$&quot;#,##0.00"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;R$&quot;#,##0.00"/>
+      <numFmt numFmtId="166" formatCode="&quot;R$&quot;#,##0.00"/>
       <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="[$$-409]#,##0.00"/>
+      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="[$$-409]#,##0.00"/>
+      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00"/>
       <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1798,7 +1800,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2107,11 +2109,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1195365840"/>
-        <c:axId val="1195370736"/>
+        <c:axId val="1833178928"/>
+        <c:axId val="1833189264"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="1195365840"/>
+        <c:axId val="1833178928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2153,14 +2155,14 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1195370736"/>
+        <c:crossAx val="1833189264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="1195370736"/>
+        <c:axId val="1833189264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2210,7 +2212,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1195365840"/>
+        <c:crossAx val="1833178928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2273,7 +2275,7 @@
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2285,7 +2287,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2496,11 +2497,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1365577712"/>
-        <c:axId val="1365569008"/>
+        <c:axId val="1833176208"/>
+        <c:axId val="1833179472"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="1365577712"/>
+        <c:axId val="1833176208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2543,14 +2544,14 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1365569008"/>
+        <c:crossAx val="1833179472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="1365569008"/>
+        <c:axId val="1833179472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2601,7 +2602,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1365577712"/>
+        <c:crossAx val="1833176208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2653,7 +2654,7 @@
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2665,7 +2666,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2876,11 +2876,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1365578256"/>
-        <c:axId val="1365579888"/>
+        <c:axId val="1833176752"/>
+        <c:axId val="1833185456"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="1365578256"/>
+        <c:axId val="1833176752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2923,14 +2923,14 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1365579888"/>
+        <c:crossAx val="1833185456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="1365579888"/>
+        <c:axId val="1833185456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2981,7 +2981,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1365578256"/>
+        <c:crossAx val="1833176752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3033,7 +3033,7 @@
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3292,11 +3292,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1365580976"/>
-        <c:axId val="1195034208"/>
+        <c:axId val="1664066016"/>
+        <c:axId val="1664067648"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="1365580976"/>
+        <c:axId val="1664066016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3339,14 +3339,14 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1195034208"/>
+        <c:crossAx val="1664067648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="1195034208"/>
+        <c:axId val="1664067648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3397,7 +3397,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1365580976"/>
+        <c:crossAx val="1664066016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3449,7 +3449,7 @@
 <file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3675,11 +3675,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1195032576"/>
-        <c:axId val="1433877104"/>
+        <c:axId val="1664070368"/>
+        <c:axId val="1643964976"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1195032576"/>
+        <c:axId val="1664070368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3722,7 +3722,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1433877104"/>
+        <c:crossAx val="1643964976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3730,7 +3730,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1433877104"/>
+        <c:axId val="1643964976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3781,7 +3781,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1195032576"/>
+        <c:crossAx val="1664070368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3833,7 +3833,7 @@
 <file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4092,11 +4092,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1433883088"/>
-        <c:axId val="1433873296"/>
+        <c:axId val="1643967152"/>
+        <c:axId val="1859468880"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="1433883088"/>
+        <c:axId val="1643967152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4139,14 +4139,14 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1433873296"/>
+        <c:crossAx val="1859468880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="1433873296"/>
+        <c:axId val="1859468880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4197,7 +4197,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1433883088"/>
+        <c:crossAx val="1643967152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4249,7 +4249,7 @@
 <file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4325,10 +4325,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>AWS!$A$21:$A$48</c:f>
+              <c:f>AWS!$A$21:$A$50</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43215.853043981479</c:v>
                 </c:pt>
@@ -4412,16 +4412,22 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>43240.859884259262</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43242.025092592594</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43242.709641203706</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>AWS!$D$21:$D$48</c:f>
+              <c:f>AWS!$D$21:$D$50</c:f>
               <c:numCache>
                 <c:formatCode>[$$-409]#,##0.00</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>0.84</c:v>
                 </c:pt>
@@ -4505,6 +4511,12 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>21.839999999999996</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>22.679999999999996</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>23.529999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4520,11 +4532,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1433881456"/>
-        <c:axId val="1433877648"/>
+        <c:axId val="1859462896"/>
+        <c:axId val="1859469424"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="1433881456"/>
+        <c:axId val="1859462896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4567,14 +4579,14 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1433877648"/>
+        <c:crossAx val="1859469424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="1433877648"/>
+        <c:axId val="1859469424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4625,7 +4637,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1433881456"/>
+        <c:crossAx val="1859462896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4677,7 +4689,7 @@
 <file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4753,10 +4765,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>AWS!$A$21:$A$48</c:f>
+              <c:f>AWS!$A$21:$A$50</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43215.853043981479</c:v>
                 </c:pt>
@@ -4840,16 +4852,22 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>43240.859884259262</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43242.025092592594</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43242.709641203706</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>AWS!$C$21:$C$48</c:f>
+              <c:f>AWS!$C$21:$C$50</c:f>
               <c:numCache>
                 <c:formatCode>[$$-409]#,##0.00</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>0.84</c:v>
                 </c:pt>
@@ -4933,6 +4951,12 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.85</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4948,11 +4972,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1433878736"/>
-        <c:axId val="1433882000"/>
+        <c:axId val="1859458000"/>
+        <c:axId val="1859455824"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="1433878736"/>
+        <c:axId val="1859458000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4995,14 +5019,14 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1433882000"/>
+        <c:crossAx val="1859455824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="1433882000"/>
+        <c:axId val="1859455824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5053,7 +5077,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1433878736"/>
+        <c:crossAx val="1859458000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5105,7 +5129,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5223,10 +5247,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>AWS!$A$21:$A$48</c:f>
+              <c:f>AWS!$A$21:$A$50</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43215.853043981479</c:v>
                 </c:pt>
@@ -5310,16 +5334,22 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>43240.859884259262</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43242.025092592594</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43242.709641203706</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>AWS!$D$21:$D$48</c:f>
+              <c:f>AWS!$D$21:$D$50</c:f>
               <c:numCache>
                 <c:formatCode>[$$-409]#,##0.00</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>0.84</c:v>
                 </c:pt>
@@ -5403,6 +5433,12 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>21.839999999999996</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>22.679999999999996</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>23.529999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5418,11 +5454,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1195358224"/>
-        <c:axId val="1195362576"/>
+        <c:axId val="1833184368"/>
+        <c:axId val="1833182192"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="1195358224"/>
+        <c:axId val="1833184368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5464,14 +5500,14 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1195362576"/>
+        <c:crossAx val="1833182192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="1195362576"/>
+        <c:axId val="1833182192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5521,7 +5557,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1195358224"/>
+        <c:crossAx val="1833184368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5584,7 +5620,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5858,11 +5894,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1195363120"/>
-        <c:axId val="1365573360"/>
+        <c:axId val="1833183824"/>
+        <c:axId val="1833183280"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="1195363120"/>
+        <c:axId val="1833183824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5904,14 +5940,14 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1365573360"/>
+        <c:crossAx val="1833183280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="1365573360"/>
+        <c:axId val="1833183280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5961,7 +5997,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1195363120"/>
+        <c:crossAx val="1833183824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6024,7 +6060,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6206,7 +6242,7 @@
                 <c:formatCode>"R$"#,##0.00</c:formatCode>
                 <c:ptCount val="27"/>
                 <c:pt idx="0">
-                  <c:v>58.610631076923077</c:v>
+                  <c:v>58.612591555555554</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>126.75359499999999</c:v>
@@ -6300,11 +6336,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1365583696"/>
-        <c:axId val="1365570640"/>
+        <c:axId val="1833181104"/>
+        <c:axId val="1833174576"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="1365583696"/>
+        <c:axId val="1833181104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6346,14 +6382,14 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1365570640"/>
+        <c:crossAx val="1833174576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="1365570640"/>
+        <c:axId val="1833174576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6403,7 +6439,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1365583696"/>
+        <c:crossAx val="1833181104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6466,7 +6502,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6554,10 +6590,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Cotação!$A$3:$A$28</c:f>
+              <c:f>Cotação!$A$3:$A$29</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>43216</c:v>
                 </c:pt>
@@ -6635,16 +6671,19 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>43241</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43242</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Cotação!$D$3:$D$28</c:f>
+              <c:f>Cotação!$D$3:$D$29</c:f>
               <c:numCache>
                 <c:formatCode>"R$"#,##0.00</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>32640</c:v>
                 </c:pt>
@@ -6722,6 +6761,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>31636</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>30448</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6737,11 +6779,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1365583152"/>
-        <c:axId val="1365576080"/>
+        <c:axId val="1833186544"/>
+        <c:axId val="1833188176"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="1365583152"/>
+        <c:axId val="1833186544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6783,14 +6825,14 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1365576080"/>
+        <c:crossAx val="1833188176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="1365576080"/>
+        <c:axId val="1833188176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6840,7 +6882,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1365583152"/>
+        <c:crossAx val="1833186544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6903,7 +6945,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6991,10 +7033,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Cotação!$A$3:$A$28</c:f>
+              <c:f>Cotação!$A$3:$A$29</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>43216</c:v>
                 </c:pt>
@@ -7072,16 +7114,19 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>43241</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43242</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Cotação!$F$3:$F$28</c:f>
+              <c:f>Cotação!$F$3:$F$29</c:f>
               <c:numCache>
                 <c:formatCode>"R$"#,##0.00</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>3.4754999999999998</c:v>
                 </c:pt>
@@ -7159,6 +7204,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>3.6941000000000002</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.6471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7174,11 +7222,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1365574448"/>
-        <c:axId val="1365580432"/>
+        <c:axId val="1833175120"/>
+        <c:axId val="1833175664"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="1365574448"/>
+        <c:axId val="1833175120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7220,14 +7268,14 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1365580432"/>
+        <c:crossAx val="1833175664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="1365580432"/>
+        <c:axId val="1833175664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7277,7 +7325,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1365574448"/>
+        <c:crossAx val="1833175120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7340,7 +7388,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -7428,10 +7476,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Cotação!$A$3:$A$28</c:f>
+              <c:f>Cotação!$A$3:$A$29</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>43216</c:v>
                 </c:pt>
@@ -7509,16 +7557,19 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>43241</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43242</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Cotação!$B$3:$B$28</c:f>
+              <c:f>Cotação!$B$3:$B$29</c:f>
               <c:numCache>
                 <c:formatCode>[$$-409]#,##0.00</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>9279.2999999999993</c:v>
                 </c:pt>
@@ -7596,6 +7647,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>8378.6</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8057.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7611,11 +7665,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1365568464"/>
-        <c:axId val="1365571184"/>
+        <c:axId val="1833181648"/>
+        <c:axId val="1833180016"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="1365568464"/>
+        <c:axId val="1833181648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7657,14 +7711,14 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1365571184"/>
+        <c:crossAx val="1833180016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="1365571184"/>
+        <c:axId val="1833180016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7714,7 +7768,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1365568464"/>
+        <c:crossAx val="1833181648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7777,7 +7831,7 @@
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -7789,7 +7843,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7948,7 +8001,7 @@
                 <c:formatCode>"R$"#,##0.00</c:formatCode>
                 <c:ptCount val="27"/>
                 <c:pt idx="0">
-                  <c:v>58.610631076923077</c:v>
+                  <c:v>58.612591555555554</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>126.75359499999999</c:v>
@@ -8042,11 +8095,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1365579344"/>
-        <c:axId val="1365571728"/>
+        <c:axId val="1833187088"/>
+        <c:axId val="1833180560"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="1365579344"/>
+        <c:axId val="1833187088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8089,14 +8142,14 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1365571728"/>
+        <c:crossAx val="1833180560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="1365571728"/>
+        <c:axId val="1833180560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8147,7 +8200,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1365579344"/>
+        <c:crossAx val="1833187088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8199,7 +8252,7 @@
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -8211,7 +8264,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8385,7 +8437,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>68.142963923076906</c:v>
+                  <c:v>68.141003444444436</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>3.1866181360000212</c:v>
@@ -8477,11 +8529,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1365574992"/>
-        <c:axId val="1365573904"/>
+        <c:axId val="1833182736"/>
+        <c:axId val="1833189808"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="1365574992"/>
+        <c:axId val="1833182736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8524,14 +8576,14 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1365573904"/>
+        <c:crossAx val="1833189808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="1365573904"/>
+        <c:axId val="1833189808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8582,7 +8634,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1365574992"/>
+        <c:crossAx val="1833182736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -17918,8 +17970,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabela25" displayName="Tabela25" ref="A2:G28" totalsRowShown="0" headerRowDxfId="50" dataDxfId="49">
-  <autoFilter ref="A2:G28"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabela25" displayName="Tabela25" ref="A2:G29" totalsRowShown="0" headerRowDxfId="50" dataDxfId="49">
+  <autoFilter ref="A2:G29"/>
   <tableColumns count="7">
     <tableColumn id="1" name="Data" dataDxfId="48"/>
     <tableColumn id="2" name="BTC/USD" dataDxfId="47"/>
@@ -18030,8 +18082,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela3" displayName="Tabela3" ref="A20:G48" totalsRowShown="0">
-  <autoFilter ref="A20:G48"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela3" displayName="Tabela3" ref="A20:G50" totalsRowShown="0">
+  <autoFilter ref="A20:G50"/>
   <tableColumns count="7">
     <tableColumn id="1" name="Data" dataDxfId="8"/>
     <tableColumn id="2" name="Descrição"/>
@@ -18052,9 +18104,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -18092,7 +18144,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -18164,7 +18216,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -18533,7 +18585,7 @@
       <c r="Q1" s="121"/>
       <c r="R1" s="120">
         <f>SUM(Atlas!A7,AWS!K1,Easy!L22)</f>
-        <v>202.58713399999999</v>
+        <v>206.80042099999997</v>
       </c>
       <c r="S1" s="120"/>
       <c r="T1" s="120"/>
@@ -18575,7 +18627,7 @@
   <dimension ref="A1:AB33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18653,7 +18705,7 @@
       </c>
       <c r="J2" s="38">
         <f>AVERAGE(Tabela25[USD/BRL])</f>
-        <v>3.584084615384616</v>
+        <v>3.5864185185185189</v>
       </c>
       <c r="L2" s="27"/>
       <c r="M2" s="27"/>
@@ -18704,7 +18756,7 @@
       </c>
       <c r="J3" s="117">
         <f>AVERAGE(Tabela25[BTC/BRL])</f>
-        <v>32525.703846153847</v>
+        <v>32448.751851851852</v>
       </c>
       <c r="L3" s="27"/>
       <c r="M3" s="27"/>
@@ -18755,7 +18807,7 @@
       </c>
       <c r="J4" s="118">
         <f>AVERAGE(Tabela25[BTC/USD])</f>
-        <v>8944.2961538461532</v>
+        <v>8911.4518518518507</v>
       </c>
       <c r="L4" s="27"/>
       <c r="M4" s="27"/>
@@ -19872,6 +19924,30 @@
       <c r="AB28" s="27"/>
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A29" s="8">
+        <v>43242</v>
+      </c>
+      <c r="B29" s="4">
+        <v>8057.5</v>
+      </c>
+      <c r="C29" s="4" t="str">
+        <f>IF(Tabela25[[#This Row],[BTC/USD]]&lt;B28,"▼",IF(Tabela25[[#This Row],[BTC/USD]]&gt;B28,"▲","-"))</f>
+        <v>▼</v>
+      </c>
+      <c r="D29" s="5">
+        <v>30448</v>
+      </c>
+      <c r="E29" s="5" t="str">
+        <f>IF(Tabela25[[#This Row],[BTC/BRL]]&lt;D28,"▼",IF(Tabela25[[#This Row],[BTC/BRL]]&gt;D28,"▲","-"))</f>
+        <v>▼</v>
+      </c>
+      <c r="F29" s="5">
+        <v>3.6471</v>
+      </c>
+      <c r="G29" s="5" t="str">
+        <f>IF(Tabela25[[#This Row],[USD/BRL]]&lt;F28,"▼",IF(Tabela25[[#This Row],[USD/BRL]]&gt;F28,"▲","-"))</f>
+        <v>▼</v>
+      </c>
       <c r="L29" s="27"/>
       <c r="M29" s="27"/>
       <c r="N29" s="27"/>
@@ -20071,7 +20147,7 @@
       </c>
       <c r="J20" s="5">
         <f>IFERROR(VLOOKUP(Tabela6[[#This Row],[Data]]+1,Tabela3[[Data]:[Saldo BRL]],5),0)</f>
-        <v>3.0106310769230773</v>
+        <v>3.0125915555555558</v>
       </c>
       <c r="K20" s="5">
         <f>VLOOKUP(Tabela6[[#This Row],[Data]]+1,Tabela16[#All],3)</f>
@@ -20079,7 +20155,7 @@
       </c>
       <c r="L20" s="5">
         <f>SUM(Tabela6[[#This Row],[Atlas]:[Easy]])</f>
-        <v>58.610631076923077</v>
+        <v>58.612591555555554</v>
       </c>
       <c r="M20" s="5">
         <f>IFERROR(Tabela6[[#This Row],[Total]]-L19,0)</f>
@@ -20118,19 +20194,19 @@
       </c>
       <c r="M21" s="5">
         <f>IFERROR(Tabela6[[#This Row],[Total]]-L20,0)</f>
-        <v>68.142963923076906</v>
+        <v>68.141003444444436</v>
       </c>
       <c r="N21" s="3">
         <f>Tabela6[[#This Row],[Variação]]/Tabela6[[#This Row],[Total]]</f>
-        <v>0.53760182441434434</v>
+        <v>0.53758635756598805</v>
       </c>
       <c r="Q21" s="99">
         <f>AVERAGE(Tabela6[Variação %])</f>
-        <v>3.7040879379939592E-2</v>
+        <v>3.7040306533704173E-2</v>
       </c>
       <c r="R21" s="71">
         <f>AVERAGE(Tabela6[Variação])</f>
-        <v>5.3324630712250709</v>
+        <v>5.3323904609053496</v>
       </c>
     </row>
     <row r="22" spans="8:18" x14ac:dyDescent="0.25">
@@ -21597,7 +21673,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="L61" sqref="L61"/>
     </sheetView>
   </sheetViews>
@@ -23679,10 +23755,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M48"/>
+  <dimension ref="A1:M50"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I49" sqref="I49"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23706,7 +23782,7 @@
       <c r="C1" s="150"/>
       <c r="D1" s="155">
         <f ca="1">TODAY()+(40-K3)/J6</f>
-        <v>43262.619047619046</v>
+        <v>43261.607142857145</v>
       </c>
       <c r="E1" s="158" t="str">
         <f>I6</f>
@@ -23718,7 +23794,7 @@
       <c r="J1" s="137"/>
       <c r="K1" s="148">
         <f>INDEX(Tabela3[Saldo BRL],MATCH(9.99999999999999+307,Tabela3[Saldo BRL]))</f>
-        <v>81.602975999999984</v>
+        <v>85.816262999999992</v>
       </c>
       <c r="L1" s="148"/>
       <c r="M1" s="148"/>
@@ -23739,7 +23815,7 @@
       <c r="C3" s="150"/>
       <c r="D3" s="157">
         <f ca="1">TODAY()+(40-K3)/J7</f>
-        <v>43264.282051282054</v>
+        <v>43262.998725031874</v>
       </c>
       <c r="E3" s="160" t="str">
         <f>I7</f>
@@ -23749,7 +23825,7 @@
       <c r="J3" s="137"/>
       <c r="K3" s="153">
         <f>INDEX(Tabela3[Saldo disponível para saque],MATCH(9.99999999999999+307,Tabela3[Saldo disponível para saque]))</f>
-        <v>21.839999999999996</v>
+        <v>23.529999999999998</v>
       </c>
       <c r="L3" s="153"/>
       <c r="M3" s="153"/>
@@ -23776,7 +23852,7 @@
       </c>
       <c r="K6" s="95">
         <f ca="1">J6*VLOOKUP(TODAY(),Tabela25[],6)</f>
-        <v>3.1030440000000001</v>
+        <v>3.063564</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
@@ -23785,11 +23861,11 @@
       </c>
       <c r="J7" s="108">
         <f>SUM(Tabela3[Valor])/COUNT(Tabela3[Valor])</f>
-        <v>0.77999999999999992</v>
+        <v>0.78433333333333322</v>
       </c>
       <c r="K7" s="96">
         <f ca="1">J7*VLOOKUP(TODAY(),Tabela25[],6)</f>
-        <v>2.8813979999999999</v>
+        <v>2.8605420999999995</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
@@ -23798,11 +23874,11 @@
       </c>
       <c r="J8" s="108">
         <f>J7*30</f>
-        <v>23.4</v>
+        <v>23.529999999999998</v>
       </c>
       <c r="K8" s="96">
         <f ca="1">J8*VLOOKUP(TODAY(),Tabela25[],6)</f>
-        <v>86.441940000000002</v>
+        <v>85.816262999999992</v>
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
@@ -23811,11 +23887,11 @@
       </c>
       <c r="J9" s="108">
         <f>J8*12</f>
-        <v>280.79999999999995</v>
+        <v>282.35999999999996</v>
       </c>
       <c r="K9" s="96">
         <f ca="1">J9*VLOOKUP(TODAY(),Tabela25[],6)</f>
-        <v>1037.3032799999999</v>
+        <v>1029.7951559999999</v>
       </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
@@ -23828,7 +23904,7 @@
       </c>
       <c r="K10" s="96">
         <f ca="1">J10*VLOOKUP(TODAY(),Tabela25[],6)</f>
-        <v>3.1769259999999999</v>
+        <v>3.1365059999999998</v>
       </c>
     </row>
     <row r="11" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -23863,7 +23939,7 @@
       </c>
       <c r="K13" s="95">
         <f ca="1">J13*VLOOKUP(TODAY(),Tabela25[],6)</f>
-        <v>147.76400000000001</v>
+        <v>145.88400000000001</v>
       </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.25">
@@ -23876,7 +23952,7 @@
       </c>
       <c r="K14" s="96">
         <f ca="1">J14*VLOOKUP(TODAY(),Tabela25[],6)</f>
-        <v>591.05600000000004</v>
+        <v>583.53600000000006</v>
       </c>
     </row>
     <row r="15" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -23885,11 +23961,11 @@
       </c>
       <c r="J15" s="107">
         <f>SUM(Tabela3[Valor])</f>
-        <v>21.839999999999996</v>
+        <v>23.529999999999998</v>
       </c>
       <c r="K15" s="97">
         <f ca="1">J15*VLOOKUP(TODAY(),Tabela25[],6)</f>
-        <v>80.679143999999994</v>
+        <v>85.816262999999992</v>
       </c>
     </row>
     <row r="16" spans="2:13" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -23898,11 +23974,11 @@
       </c>
       <c r="J16" s="112">
         <f>J15-J14</f>
-        <v>-138.16</v>
+        <v>-136.47</v>
       </c>
       <c r="K16" s="113">
         <f ca="1">J16*VLOOKUP(TODAY(),Tabela25[],6)</f>
-        <v>-510.37685600000003</v>
+        <v>-497.71973700000001</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -23943,7 +24019,7 @@
       </c>
       <c r="E21" s="13">
         <f>IFERROR(Tabela3[[#This Row],[Saldo disponível para saque]]*VLOOKUP(Tabela3[[#This Row],[Data]],Tabela25[],6),Tabela3[[#This Row],[Saldo disponível para saque]]*Cotação!J2)</f>
-        <v>3.0106310769230773</v>
+        <v>3.0125915555555558</v>
       </c>
       <c r="F21" s="93">
         <v>0.4</v>
@@ -24650,6 +24726,58 @@
         <v>0.4</v>
       </c>
       <c r="G48" s="57" t="str">
+        <f>IF(Tabela3[[#This Row],[Saldo disponível para saque]]&gt;=40,"Comprar","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="8">
+        <v>43242.025092592594</v>
+      </c>
+      <c r="B49" t="s">
+        <v>100</v>
+      </c>
+      <c r="C49" s="11">
+        <v>0.84</v>
+      </c>
+      <c r="D49" s="11">
+        <f t="shared" ref="D49" si="6">C49+D48</f>
+        <v>22.679999999999996</v>
+      </c>
+      <c r="E49" s="13">
+        <f>IFERROR(Tabela3[[#This Row],[Saldo disponível para saque]]*VLOOKUP(Tabela3[[#This Row],[Data]],Tabela25[],6),Tabela3[[#This Row],[Saldo disponível para saque]]*Cotação!I30)</f>
+        <v>82.716227999999987</v>
+      </c>
+      <c r="F49" s="93">
+        <v>0.4</v>
+      </c>
+      <c r="G49" s="57" t="str">
+        <f>IF(Tabela3[[#This Row],[Saldo disponível para saque]]&gt;=40,"Comprar","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="8">
+        <v>43242.709641203706</v>
+      </c>
+      <c r="B50" t="s">
+        <v>100</v>
+      </c>
+      <c r="C50" s="11">
+        <v>0.85</v>
+      </c>
+      <c r="D50" s="11">
+        <f t="shared" ref="D50" si="7">C50+D49</f>
+        <v>23.529999999999998</v>
+      </c>
+      <c r="E50" s="13">
+        <f>IFERROR(Tabela3[[#This Row],[Saldo disponível para saque]]*VLOOKUP(Tabela3[[#This Row],[Data]],Tabela25[],6),Tabela3[[#This Row],[Saldo disponível para saque]]*Cotação!I31)</f>
+        <v>85.816262999999992</v>
+      </c>
+      <c r="F50" s="93">
+        <v>0.4</v>
+      </c>
+      <c r="G50" s="57" t="str">
         <f>IF(Tabela3[[#This Row],[Saldo disponível para saque]]&gt;=40,"Comprar","")</f>
         <v/>
       </c>

--- a/Controle BTC.xlsx
+++ b/Controle BTC.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fjunger\Desktop\inestBTC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T-800\Desktop\inestBTC\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="101">
   <si>
     <t>Tipo</t>
   </si>
@@ -340,15 +340,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="9">
-    <numFmt numFmtId="164" formatCode="&quot;R$&quot;#,##0.00;[Red]\-&quot;R$&quot;#,##0.00"/>
-    <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00"/>
-    <numFmt numFmtId="166" formatCode="&quot;R$&quot;#,##0.00"/>
-    <numFmt numFmtId="167" formatCode="[$$-540A]#,##0.00"/>
-    <numFmt numFmtId="168" formatCode="0.00000000"/>
-    <numFmt numFmtId="169" formatCode="mm/yyyy"/>
-    <numFmt numFmtId="170" formatCode="#,##0.0"/>
-    <numFmt numFmtId="171" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
-    <numFmt numFmtId="172" formatCode="&quot;R$&quot;#,##0.00000000000000000000"/>
+    <numFmt numFmtId="8" formatCode="&quot;R$&quot;#,##0.00;[Red]\-&quot;R$&quot;#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="[$$-409]#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="&quot;R$&quot;#,##0.00"/>
+    <numFmt numFmtId="166" formatCode="[$$-540A]#,##0.00"/>
+    <numFmt numFmtId="167" formatCode="0.00000000"/>
+    <numFmt numFmtId="168" formatCode="mm/yyyy"/>
+    <numFmt numFmtId="169" formatCode="#,##0.0"/>
+    <numFmt numFmtId="170" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
+    <numFmt numFmtId="171" formatCode="&quot;R$&quot;#,##0.00000000000000000000"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -975,16 +975,16 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -996,11 +996,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1043,59 +1043,59 @@
     <xf numFmtId="10" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1126,7 +1126,7 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1135,69 +1135,69 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="26" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="26" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1206,19 +1206,19 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1226,46 +1226,46 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="3" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="3" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="3" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="31" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="32" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="31" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="32" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="12" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="12" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="12" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="16" fillId="6" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="165" fontId="16" fillId="6" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="16" fillId="6" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1274,10 +1274,10 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1295,7 +1295,7 @@
     <xf numFmtId="14" fontId="7" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1322,28 +1322,28 @@
     <xf numFmtId="14" fontId="8" fillId="2" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="2" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="2" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="2" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="2" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="2" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="2" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="8" fillId="2" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1358,7 +1358,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="8" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1384,10 +1384,10 @@
     </xf>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="Good" xfId="4" builtinId="26"/>
-    <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
-    <cellStyle name="Heading 4" xfId="2" builtinId="19"/>
+    <cellStyle name="Bom" xfId="4" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Título 1" xfId="1" builtinId="16"/>
+    <cellStyle name="Título 4" xfId="2" builtinId="19"/>
     <cellStyle name="Total" xfId="3" builtinId="25"/>
   </cellStyles>
   <dxfs count="51">
@@ -1425,17 +1425,17 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="170" formatCode="#,##0.0"/>
+      <numFmt numFmtId="169" formatCode="#,##0.0"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;R$&quot;#,##0.00"/>
+      <numFmt numFmtId="165" formatCode="&quot;R$&quot;#,##0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00"/>
+      <numFmt numFmtId="164" formatCode="[$$-409]#,##0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00"/>
+      <numFmt numFmtId="164" formatCode="[$$-409]#,##0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
@@ -1482,7 +1482,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00"/>
+      <numFmt numFmtId="164" formatCode="[$$-409]#,##0.00"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1501,7 +1501,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="166" formatCode="&quot;R$&quot;#,##0.00"/>
+      <numFmt numFmtId="165" formatCode="&quot;R$&quot;#,##0.00"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1520,11 +1520,11 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="166" formatCode="&quot;R$&quot;#,##0.00"/>
+      <numFmt numFmtId="165" formatCode="&quot;R$&quot;#,##0.00"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="[$$-540A]#,##0.00"/>
+      <numFmt numFmtId="166" formatCode="[$$-540A]#,##0.00"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1592,7 +1592,7 @@
       <font>
         <b val="0"/>
       </font>
-      <numFmt numFmtId="166" formatCode="&quot;R$&quot;#,##0.00"/>
+      <numFmt numFmtId="165" formatCode="&quot;R$&quot;#,##0.00"/>
       <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1630,28 +1630,28 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="166" formatCode="&quot;R$&quot;#,##0.00"/>
+      <numFmt numFmtId="165" formatCode="&quot;R$&quot;#,##0.00"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
         <b val="0"/>
       </font>
-      <numFmt numFmtId="166" formatCode="&quot;R$&quot;#,##0.00"/>
+      <numFmt numFmtId="165" formatCode="&quot;R$&quot;#,##0.00"/>
       <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
         <b val="0"/>
       </font>
-      <numFmt numFmtId="166" formatCode="&quot;R$&quot;#,##0.00"/>
+      <numFmt numFmtId="165" formatCode="&quot;R$&quot;#,##0.00"/>
       <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
         <b val="0"/>
       </font>
-      <numFmt numFmtId="169" formatCode="mm/yyyy"/>
+      <numFmt numFmtId="168" formatCode="mm/yyyy"/>
       <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1696,23 +1696,23 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;R$&quot;#,##0.00"/>
+      <numFmt numFmtId="165" formatCode="&quot;R$&quot;#,##0.00"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;R$&quot;#,##0.00"/>
+      <numFmt numFmtId="165" formatCode="&quot;R$&quot;#,##0.00"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;R$&quot;#,##0.00"/>
+      <numFmt numFmtId="165" formatCode="&quot;R$&quot;#,##0.00"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;R$&quot;#,##0.00"/>
+      <numFmt numFmtId="165" formatCode="&quot;R$&quot;#,##0.00"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;R$&quot;#,##0.00"/>
+      <numFmt numFmtId="165" formatCode="&quot;R$&quot;#,##0.00"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1751,27 +1751,27 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;R$&quot;#,##0.00"/>
+      <numFmt numFmtId="165" formatCode="&quot;R$&quot;#,##0.00"/>
       <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;R$&quot;#,##0.00"/>
+      <numFmt numFmtId="165" formatCode="&quot;R$&quot;#,##0.00"/>
       <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;R$&quot;#,##0.00"/>
+      <numFmt numFmtId="165" formatCode="&quot;R$&quot;#,##0.00"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;R$&quot;#,##0.00"/>
+      <numFmt numFmtId="165" formatCode="&quot;R$&quot;#,##0.00"/>
       <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00"/>
+      <numFmt numFmtId="164" formatCode="[$$-409]#,##0.00"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00"/>
+      <numFmt numFmtId="164" formatCode="[$$-409]#,##0.00"/>
       <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1800,7 +1800,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1926,10 +1926,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Atlas!$A$33:$A$58</c:f>
+              <c:f>Atlas!$A$33:$A$59</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>43216.500694444447</c:v>
                 </c:pt>
@@ -2007,16 +2007,19 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>43241.419444444444</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43243.419444444444</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Atlas!$F$33:$F$58</c:f>
+              <c:f>Atlas!$F$33:$F$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>2E-3</c:v>
                 </c:pt>
@@ -2094,6 +2097,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>2.0655000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.0689599999999999E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2109,11 +2115,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1833178928"/>
-        <c:axId val="1833189264"/>
+        <c:axId val="-212656768"/>
+        <c:axId val="-212656224"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="1833178928"/>
+        <c:axId val="-212656768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2155,14 +2161,14 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1833189264"/>
+        <c:crossAx val="-212656224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="1833189264"/>
+        <c:axId val="-212656224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2212,7 +2218,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1833178928"/>
+        <c:crossAx val="-212656768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2275,7 +2281,7 @@
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2497,11 +2503,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1833176208"/>
-        <c:axId val="1833179472"/>
+        <c:axId val="-194215520"/>
+        <c:axId val="-194220416"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="1833176208"/>
+        <c:axId val="-194215520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2544,14 +2550,14 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1833179472"/>
+        <c:crossAx val="-194220416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="1833179472"/>
+        <c:axId val="-194220416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2602,7 +2608,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1833176208"/>
+        <c:crossAx val="-194215520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2654,7 +2660,7 @@
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2876,11 +2882,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1833176752"/>
-        <c:axId val="1833185456"/>
+        <c:axId val="-176717056"/>
+        <c:axId val="-176717600"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="1833176752"/>
+        <c:axId val="-176717056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2923,14 +2929,14 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1833185456"/>
+        <c:crossAx val="-176717600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="1833185456"/>
+        <c:axId val="-176717600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2981,7 +2987,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1833176752"/>
+        <c:crossAx val="-176717056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3033,7 +3039,7 @@
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3109,10 +3115,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Atlas!$A$33:$A$58</c:f>
+              <c:f>Atlas!$A$33:$A$59</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>43216.500694444447</c:v>
                 </c:pt>
@@ -3190,16 +3196,19 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>43241.419444444444</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43243.419444444444</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Atlas!$F$33:$F$58</c:f>
+              <c:f>Atlas!$F$33:$F$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>2E-3</c:v>
                 </c:pt>
@@ -3277,6 +3286,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>2.0655000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.0689599999999999E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3292,11 +3304,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1664066016"/>
-        <c:axId val="1664067648"/>
+        <c:axId val="-176712704"/>
+        <c:axId val="-176718688"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="1664066016"/>
+        <c:axId val="-176712704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3339,14 +3351,14 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1664067648"/>
+        <c:crossAx val="-176718688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="1664067648"/>
+        <c:axId val="-176718688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3397,7 +3409,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1664066016"/>
+        <c:crossAx val="-176712704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3449,7 +3461,7 @@
 <file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3538,7 +3550,7 @@
                   <c:v>0.24225165700000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.34085438500000004</c:v>
+                  <c:v>0.35326293500000006</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -3638,7 +3650,7 @@
                   <c:v>0.859536144</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.2645187099999999</c:v>
+                  <c:v>1.3114086299999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -3675,11 +3687,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1664070368"/>
-        <c:axId val="1643964976"/>
+        <c:axId val="-176714336"/>
+        <c:axId val="-176713248"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1664070368"/>
+        <c:axId val="-176714336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3722,7 +3734,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1643964976"/>
+        <c:crossAx val="-176713248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3730,7 +3742,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1643964976"/>
+        <c:axId val="-176713248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3781,7 +3793,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1664070368"/>
+        <c:crossAx val="-176714336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3833,7 +3845,7 @@
 <file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3909,10 +3921,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Atlas!$A$33:$A$58</c:f>
+              <c:f>Atlas!$A$33:$A$59</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>43216.500694444447</c:v>
                 </c:pt>
@@ -3990,16 +4002,19 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>43241.419444444444</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43243.419444444444</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Atlas!$L$33:$L$58</c:f>
+              <c:f>Atlas!$L$33:$L$59</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4077,6 +4092,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>8.5282060724703695E-4</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7.4488976598852683E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4092,11 +4110,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1643967152"/>
-        <c:axId val="1859468880"/>
+        <c:axId val="-176716512"/>
+        <c:axId val="-176713792"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="1643967152"/>
+        <c:axId val="-176716512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4139,14 +4157,14 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1859468880"/>
+        <c:crossAx val="-176713792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="1859468880"/>
+        <c:axId val="-176713792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4197,7 +4215,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1643967152"/>
+        <c:crossAx val="-176716512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4249,7 +4267,7 @@
 <file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4532,11 +4550,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1859462896"/>
-        <c:axId val="1859469424"/>
+        <c:axId val="-176715968"/>
+        <c:axId val="-176715424"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="1859462896"/>
+        <c:axId val="-176715968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4579,14 +4597,14 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1859469424"/>
+        <c:crossAx val="-176715424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="1859469424"/>
+        <c:axId val="-176715424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4637,7 +4655,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1859462896"/>
+        <c:crossAx val="-176715968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4689,7 +4707,7 @@
 <file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4972,11 +4990,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1859458000"/>
-        <c:axId val="1859455824"/>
+        <c:axId val="-176712160"/>
+        <c:axId val="-176711616"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="1859458000"/>
+        <c:axId val="-176712160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5019,14 +5037,14 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1859455824"/>
+        <c:crossAx val="-176711616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="1859455824"/>
+        <c:axId val="-176711616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5077,7 +5095,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1859458000"/>
+        <c:crossAx val="-176712160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5129,7 +5147,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5454,11 +5472,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1833184368"/>
-        <c:axId val="1833182192"/>
+        <c:axId val="-212655680"/>
+        <c:axId val="-409367600"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="1833184368"/>
+        <c:axId val="-212655680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5500,14 +5518,14 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1833182192"/>
+        <c:crossAx val="-409367600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="1833182192"/>
+        <c:axId val="-409367600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5557,7 +5575,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1833184368"/>
+        <c:crossAx val="-212655680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5620,7 +5638,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5894,11 +5912,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1833183824"/>
-        <c:axId val="1833183280"/>
+        <c:axId val="-409357808"/>
+        <c:axId val="-410234368"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="1833183824"/>
+        <c:axId val="-409357808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5940,14 +5958,14 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1833183280"/>
+        <c:crossAx val="-410234368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="1833183280"/>
+        <c:axId val="-410234368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5997,7 +6015,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1833183824"/>
+        <c:crossAx val="-409357808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6060,7 +6078,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6336,11 +6354,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1833181104"/>
-        <c:axId val="1833174576"/>
+        <c:axId val="-194219872"/>
+        <c:axId val="-194220960"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="1833181104"/>
+        <c:axId val="-194219872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6382,14 +6400,14 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1833174576"/>
+        <c:crossAx val="-194220960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="1833174576"/>
+        <c:axId val="-194220960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6439,7 +6457,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1833181104"/>
+        <c:crossAx val="-194219872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6502,7 +6520,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6514,7 +6532,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6779,11 +6796,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1833186544"/>
-        <c:axId val="1833188176"/>
+        <c:axId val="-194217152"/>
+        <c:axId val="-194222048"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="1833186544"/>
+        <c:axId val="-194217152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6825,14 +6842,14 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1833188176"/>
+        <c:crossAx val="-194222048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="1833188176"/>
+        <c:axId val="-194222048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6882,7 +6899,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1833186544"/>
+        <c:crossAx val="-194217152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6945,7 +6962,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6957,7 +6974,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7222,11 +7238,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1833175120"/>
-        <c:axId val="1833175664"/>
+        <c:axId val="-194218240"/>
+        <c:axId val="-194222592"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="1833175120"/>
+        <c:axId val="-194218240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7268,14 +7284,14 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1833175664"/>
+        <c:crossAx val="-194222592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="1833175664"/>
+        <c:axId val="-194222592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7325,7 +7341,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1833175120"/>
+        <c:crossAx val="-194218240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7388,7 +7404,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -7400,7 +7416,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7665,11 +7680,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1833181648"/>
-        <c:axId val="1833180016"/>
+        <c:axId val="-194219328"/>
+        <c:axId val="-194221504"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="1833181648"/>
+        <c:axId val="-194219328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7711,14 +7726,14 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1833180016"/>
+        <c:crossAx val="-194221504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="1833180016"/>
+        <c:axId val="-194221504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7768,7 +7783,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1833181648"/>
+        <c:crossAx val="-194219328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7831,7 +7846,7 @@
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -8095,11 +8110,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1833187088"/>
-        <c:axId val="1833180560"/>
+        <c:axId val="-194217696"/>
+        <c:axId val="-194218784"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="1833187088"/>
+        <c:axId val="-194217696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8142,14 +8157,14 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1833180560"/>
+        <c:crossAx val="-194218784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="1833180560"/>
+        <c:axId val="-194218784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8200,7 +8215,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1833187088"/>
+        <c:crossAx val="-194217696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8252,7 +8267,7 @@
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -8529,11 +8544,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1833182736"/>
-        <c:axId val="1833189808"/>
+        <c:axId val="-194216608"/>
+        <c:axId val="-194216064"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="1833182736"/>
+        <c:axId val="-194216608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8576,14 +8591,14 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1833189808"/>
+        <c:crossAx val="-194216064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="1833189808"/>
+        <c:axId val="-194216064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8634,7 +8649,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1833182736"/>
+        <c:crossAx val="-194216608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -18043,8 +18058,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A32:N58" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
-  <autoFilter ref="A32:N58"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A32:N59" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
+  <autoFilter ref="A32:N59"/>
   <tableColumns count="14">
     <tableColumn id="1" name="Data " dataDxfId="22"/>
     <tableColumn id="13" name="Mês" dataDxfId="21">
@@ -18104,9 +18119,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Escritório">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -18144,7 +18159,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Escritório">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -18216,7 +18231,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Escritório">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -18585,7 +18600,7 @@
       <c r="Q1" s="121"/>
       <c r="R1" s="120">
         <f>SUM(Atlas!A7,AWS!K1,Easy!L22)</f>
-        <v>206.80042099999997</v>
+        <v>204.45195708</v>
       </c>
       <c r="S1" s="120"/>
       <c r="T1" s="120"/>
@@ -21671,10 +21686,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y58"/>
+  <dimension ref="A1:Y59"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L61" sqref="L61"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="Q34" sqref="Q34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21891,15 +21906,15 @@
       </c>
       <c r="J6" s="43">
         <f>IF((SUMIFS(Tabela1[Bruto USD],Tabela1[Mês],Plan4!A5,Tabela1[Ano],L$1))=0,"SR",SUMIFS(Tabela1[Bruto USD],Tabela1[Mês],Plan4!A5,Tabela1[Ano],L$1))</f>
-        <v>0.34085438500000004</v>
+        <v>0.35326293500000006</v>
       </c>
       <c r="K6" s="38">
         <f>IF((SUMIFS(Tabela1[Bruto BRL],Tabela1[Mês],Plan4!A5,Tabela1[Ano],L$1))=0,"SR",SUMIFS(Tabela1[Bruto BRL],Tabela1[Mês],Plan4!A5,Tabela1[Ano],L$1))</f>
-        <v>1.2645187099999999</v>
+        <v>1.3114086299999999</v>
       </c>
       <c r="L6" s="39">
         <f>IF((SUMIFS(Tabela1[porcentagem],Tabela1[Mês],Plan4!A5,Tabela1[Ano],L$1))=0,"SR",SUMIFS(Tabela1[porcentagem],Tabela1[Mês],Plan4!A5,Tabela1[Ano],L$1))</f>
-        <v>1.9301970690612277E-2</v>
+        <v>2.0046860456600805E-2</v>
       </c>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
@@ -21914,7 +21929,7 @@
     <row r="7" spans="1:22" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="141">
         <f>INDEX(Tabela1[BRL],MATCH(9.99999999999999+307,Tabela1[BRL]))</f>
-        <v>65.344158000000007</v>
+        <v>62.99569408</v>
       </c>
       <c r="B7" s="141"/>
       <c r="C7" s="141"/>
@@ -21922,11 +21937,11 @@
       <c r="E7" s="142"/>
       <c r="F7" s="60">
         <f>AVERAGE(Tabela1[porcentagem])</f>
-        <v>1.2922538608547973E-3</v>
+        <v>1.2712013956676332E-3</v>
       </c>
       <c r="G7" s="61">
         <f>AVERAGE(Tabela1[Bruto BRL])</f>
-        <v>8.4962194160000004E-2</v>
+        <v>8.349787592307692E-2</v>
       </c>
       <c r="H7" s="7"/>
       <c r="I7" s="20" t="s">
@@ -22076,13 +22091,13 @@
     <row r="11" spans="1:22" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="149" t="str">
         <f>SUM(Tabela1[Variação])&amp;" BTC"</f>
-        <v>0,0000655 BTC</v>
+        <v>0,00006704 BTC</v>
       </c>
       <c r="B11" s="149"/>
       <c r="C11" s="149"/>
       <c r="D11" s="148">
         <f>SUM(Tabela1[Bruto BRL])</f>
-        <v>2.1240548540000002</v>
+        <v>2.1709447740000001</v>
       </c>
       <c r="E11" s="148"/>
       <c r="F11" s="68">
@@ -23715,6 +23730,57 @@
         <v>0.30701541860893333</v>
       </c>
     </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A59" s="8">
+        <v>43243.419444444444</v>
+      </c>
+      <c r="B59" s="12">
+        <v>5</v>
+      </c>
+      <c r="C59" s="12">
+        <v>2018</v>
+      </c>
+      <c r="D59" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E59" s="6">
+        <v>2.0674199999999999E-3</v>
+      </c>
+      <c r="F59" s="6">
+        <v>2.0689599999999999E-3</v>
+      </c>
+      <c r="G59" s="6">
+        <v>1.5400000000000001E-6</v>
+      </c>
+      <c r="H59" s="72">
+        <f>Tabela1[[#This Row],[Posterior]]*VLOOKUP(Tabela1[[#This Row],[Data ]],Tabela25[],2)</f>
+        <v>16.670645199999999</v>
+      </c>
+      <c r="I59" s="73">
+        <f>Tabela1[[#This Row],[Posterior]]*VLOOKUP(Tabela1[[#This Row],[Data ]],Tabela25[],4)</f>
+        <v>62.99569408</v>
+      </c>
+      <c r="J59" s="73">
+        <f>IF(Tabela1[[#This Row],[Tipo]]="Depósito (BTC)","N/A",Tabela1[[#This Row],[Variação]]*VLOOKUP(Tabela1[[#This Row],[Data ]],Tabela25[],4))</f>
+        <v>4.6889920000000002E-2</v>
+      </c>
+      <c r="K59" s="74">
+        <f>IF(Tabela1[[#This Row],[Tipo]]="Depósito (BTC)","N/A",Tabela1[[#This Row],[Variação]]*VLOOKUP(Tabela1[[#This Row],[Data ]],Tabela25[],2))</f>
+        <v>1.2408550000000001E-2</v>
+      </c>
+      <c r="L59" s="75">
+        <f>G59/E59</f>
+        <v>7.4488976598852683E-4</v>
+      </c>
+      <c r="M59" s="3">
+        <f>L59*30</f>
+        <v>2.2346692979655806E-2</v>
+      </c>
+      <c r="N59" s="3">
+        <f>M59*12</f>
+        <v>0.26816031575586968</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="M31:N31"/>
@@ -23758,7 +23824,7 @@
   <dimension ref="A1:M50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23782,7 +23848,7 @@
       <c r="C1" s="150"/>
       <c r="D1" s="155">
         <f ca="1">TODAY()+(40-K3)/J6</f>
-        <v>43261.607142857145</v>
+        <v>43262.607142857145</v>
       </c>
       <c r="E1" s="158" t="str">
         <f>I6</f>
@@ -23815,7 +23881,7 @@
       <c r="C3" s="150"/>
       <c r="D3" s="157">
         <f ca="1">TODAY()+(40-K3)/J7</f>
-        <v>43262.998725031874</v>
+        <v>43263.998725031874</v>
       </c>
       <c r="E3" s="160" t="str">
         <f>I7</f>

--- a/Controle BTC.xlsx
+++ b/Controle BTC.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="101">
   <si>
     <t>Tipo</t>
   </si>
@@ -2115,11 +2115,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-212656768"/>
-        <c:axId val="-212656224"/>
+        <c:axId val="147073696"/>
+        <c:axId val="147080768"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="-212656768"/>
+        <c:axId val="147073696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2161,14 +2161,14 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-212656224"/>
+        <c:crossAx val="147080768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-212656224"/>
+        <c:axId val="147080768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2218,7 +2218,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-212656768"/>
+        <c:crossAx val="147073696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2293,6 +2293,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2503,11 +2504,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-194215520"/>
-        <c:axId val="-194220416"/>
+        <c:axId val="381470992"/>
+        <c:axId val="381481872"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="-194215520"/>
+        <c:axId val="381470992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2550,14 +2551,14 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-194220416"/>
+        <c:crossAx val="381481872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-194220416"/>
+        <c:axId val="381481872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2608,7 +2609,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-194215520"/>
+        <c:crossAx val="381470992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2672,6 +2673,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2882,11 +2884,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-176717056"/>
-        <c:axId val="-176717600"/>
+        <c:axId val="381469360"/>
+        <c:axId val="381482960"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="-176717056"/>
+        <c:axId val="381469360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2929,14 +2931,14 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-176717600"/>
+        <c:crossAx val="381482960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-176717600"/>
+        <c:axId val="381482960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2987,7 +2989,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-176717056"/>
+        <c:crossAx val="381469360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3304,11 +3306,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-176712704"/>
-        <c:axId val="-176718688"/>
+        <c:axId val="381468816"/>
+        <c:axId val="381475344"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="-176712704"/>
+        <c:axId val="381468816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3351,14 +3353,14 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-176718688"/>
+        <c:crossAx val="381475344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-176718688"/>
+        <c:axId val="381475344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3409,7 +3411,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-176712704"/>
+        <c:crossAx val="381468816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3550,7 +3552,7 @@
                   <c:v>0.24225165700000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.35326293500000006</c:v>
+                  <c:v>0.35253405300000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -3650,7 +3652,7 @@
                   <c:v>0.859536144</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.3114086299999999</c:v>
+                  <c:v>1.30900931</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -3687,11 +3689,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-176714336"/>
-        <c:axId val="-176713248"/>
+        <c:axId val="381480240"/>
+        <c:axId val="381478608"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-176714336"/>
+        <c:axId val="381480240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3734,7 +3736,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-176713248"/>
+        <c:crossAx val="381478608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3742,7 +3744,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-176713248"/>
+        <c:axId val="381478608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3793,7 +3795,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-176714336"/>
+        <c:crossAx val="381480240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4110,11 +4112,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-176716512"/>
-        <c:axId val="-176713792"/>
+        <c:axId val="381479152"/>
+        <c:axId val="381480784"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="-176716512"/>
+        <c:axId val="381479152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4157,14 +4159,14 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-176713792"/>
+        <c:crossAx val="381480784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-176713792"/>
+        <c:axId val="381480784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4215,7 +4217,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-176716512"/>
+        <c:crossAx val="381479152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4550,11 +4552,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-176715968"/>
-        <c:axId val="-176715424"/>
+        <c:axId val="381482416"/>
+        <c:axId val="381481328"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="-176715968"/>
+        <c:axId val="381482416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4597,14 +4599,14 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-176715424"/>
+        <c:crossAx val="381481328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-176715424"/>
+        <c:axId val="381481328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4655,7 +4657,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-176715968"/>
+        <c:crossAx val="381482416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4990,11 +4992,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-176712160"/>
-        <c:axId val="-176711616"/>
+        <c:axId val="381473712"/>
+        <c:axId val="381473168"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="-176712160"/>
+        <c:axId val="381473712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5037,14 +5039,14 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-176711616"/>
+        <c:crossAx val="381473168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-176711616"/>
+        <c:axId val="381473168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5095,7 +5097,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-176712160"/>
+        <c:crossAx val="381473712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5190,6 +5192,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5472,11 +5475,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-212655680"/>
-        <c:axId val="-409367600"/>
+        <c:axId val="147074240"/>
+        <c:axId val="147074784"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="-212655680"/>
+        <c:axId val="147074240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5518,14 +5521,14 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-409367600"/>
+        <c:crossAx val="147074784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-409367600"/>
+        <c:axId val="147074784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5575,7 +5578,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-212655680"/>
+        <c:crossAx val="147074240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5690,6 +5693,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5912,11 +5916,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-409357808"/>
-        <c:axId val="-410234368"/>
+        <c:axId val="147075328"/>
+        <c:axId val="147075872"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="-409357808"/>
+        <c:axId val="147075328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5958,14 +5962,14 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-410234368"/>
+        <c:crossAx val="147075872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-410234368"/>
+        <c:axId val="147075872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6015,7 +6019,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-409357808"/>
+        <c:crossAx val="147075328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6090,6 +6094,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6165,10 +6170,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Total!$H$20:$H$46</c:f>
+              <c:f>Total!$H$20:$H$48</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>43215</c:v>
                 </c:pt>
@@ -6249,18 +6254,24 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>43241</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43242</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43243</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Total!$L$20:$L$46</c:f>
+              <c:f>Total!$L$20:$L$48</c:f>
               <c:numCache>
                 <c:formatCode>"R$"#,##0.00</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>58.612591555555554</c:v>
+                  <c:v>58.613854000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>126.75359499999999</c:v>
@@ -6339,6 +6350,12 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>202.58713399999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>206.80042099999997</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>201.22851739999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6354,11 +6371,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-194219872"/>
-        <c:axId val="-194220960"/>
+        <c:axId val="147078592"/>
+        <c:axId val="147079136"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="-194219872"/>
+        <c:axId val="147078592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6400,14 +6417,14 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-194220960"/>
+        <c:crossAx val="147079136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-194220960"/>
+        <c:axId val="147079136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6457,7 +6474,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-194219872"/>
+        <c:crossAx val="147078592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6532,6 +6549,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6607,10 +6625,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Cotação!$A$3:$A$29</c:f>
+              <c:f>Cotação!$A$3:$A$30</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>43216</c:v>
                 </c:pt>
@@ -6691,16 +6709,19 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>43242</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43243</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Cotação!$D$3:$D$29</c:f>
+              <c:f>Cotação!$D$3:$D$30</c:f>
               <c:numCache>
                 <c:formatCode>"R$"#,##0.00</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>32640</c:v>
                 </c:pt>
@@ -6781,6 +6802,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>30448</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28890</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6796,11 +6820,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-194217152"/>
-        <c:axId val="-194222048"/>
+        <c:axId val="147081856"/>
+        <c:axId val="147082400"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="-194217152"/>
+        <c:axId val="147081856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6842,14 +6866,14 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-194222048"/>
+        <c:crossAx val="147082400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-194222048"/>
+        <c:axId val="147082400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6899,7 +6923,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-194217152"/>
+        <c:crossAx val="147081856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6974,6 +6998,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7049,10 +7074,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Cotação!$A$3:$A$29</c:f>
+              <c:f>Cotação!$A$3:$A$30</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>43216</c:v>
                 </c:pt>
@@ -7133,16 +7158,19 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>43242</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43243</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Cotação!$F$3:$F$29</c:f>
+              <c:f>Cotação!$F$3:$F$30</c:f>
               <c:numCache>
                 <c:formatCode>"R$"#,##0.00</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>3.4754999999999998</c:v>
                 </c:pt>
@@ -7223,6 +7251,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>3.6471</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.6284999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7238,11 +7269,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-194218240"/>
-        <c:axId val="-194222592"/>
+        <c:axId val="147083488"/>
+        <c:axId val="147084032"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="-194218240"/>
+        <c:axId val="147083488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7284,14 +7315,14 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-194222592"/>
+        <c:crossAx val="147084032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-194222592"/>
+        <c:axId val="147084032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7341,7 +7372,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-194218240"/>
+        <c:crossAx val="147083488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7416,6 +7447,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7491,10 +7523,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Cotação!$A$3:$A$29</c:f>
+              <c:f>Cotação!$A$3:$A$30</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>43216</c:v>
                 </c:pt>
@@ -7575,16 +7607,19 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>43242</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43243</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Cotação!$B$3:$B$29</c:f>
+              <c:f>Cotação!$B$3:$B$30</c:f>
               <c:numCache>
                 <c:formatCode>[$$-409]#,##0.00</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>9279.2999999999993</c:v>
                 </c:pt>
@@ -7665,6 +7700,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>8057.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7584.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7680,11 +7718,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-194219328"/>
-        <c:axId val="-194221504"/>
+        <c:axId val="146106176"/>
+        <c:axId val="146113248"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="-194219328"/>
+        <c:axId val="146106176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7726,14 +7764,14 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-194221504"/>
+        <c:crossAx val="146113248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-194221504"/>
+        <c:axId val="146113248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7783,7 +7821,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-194219328"/>
+        <c:crossAx val="146106176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7921,10 +7959,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Total!$H$20:$H$46</c:f>
+              <c:f>Total!$H$20:$H$48</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>43215</c:v>
                 </c:pt>
@@ -8005,18 +8043,24 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>43241</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43242</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43243</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Total!$L$20:$L$46</c:f>
+              <c:f>Total!$L$20:$L$48</c:f>
               <c:numCache>
                 <c:formatCode>"R$"#,##0.00</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>58.612591555555554</c:v>
+                  <c:v>58.613854000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>126.75359499999999</c:v>
@@ -8095,6 +8139,12 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>202.58713399999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>206.80042099999997</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>201.22851739999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8110,11 +8160,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-194217696"/>
-        <c:axId val="-194218784"/>
+        <c:axId val="146118144"/>
+        <c:axId val="146109984"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="-194217696"/>
+        <c:axId val="146118144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8157,14 +8207,14 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-194218784"/>
+        <c:crossAx val="146109984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-194218784"/>
+        <c:axId val="146109984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8215,7 +8265,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-194217696"/>
+        <c:crossAx val="146118144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8354,10 +8404,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Total!$H$20:$H$46</c:f>
+              <c:f>Total!$H$20:$H$48</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>43215</c:v>
                 </c:pt>
@@ -8438,21 +8488,27 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>43241</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43242</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43243</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Total!$M$20:$M$46</c:f>
+              <c:f>Total!$M$20:$M$48</c:f>
               <c:numCache>
                 <c:formatCode>"R$"#,##0.00</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>68.141003444444436</c:v>
+                  <c:v>68.139740999999987</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>3.1866181360000212</c:v>
@@ -8528,6 +8584,12 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>-0.48914800000000014</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.2132869999999798</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-5.5719035999999846</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8544,11 +8606,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-194216608"/>
-        <c:axId val="-194216064"/>
+        <c:axId val="381470448"/>
+        <c:axId val="381476432"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="-194216608"/>
+        <c:axId val="381470448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8591,14 +8653,14 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-194216064"/>
+        <c:crossAx val="381476432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-194216064"/>
+        <c:axId val="381476432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8649,7 +8711,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-194216608"/>
+        <c:crossAx val="381470448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -17985,8 +18047,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabela25" displayName="Tabela25" ref="A2:G29" totalsRowShown="0" headerRowDxfId="50" dataDxfId="49">
-  <autoFilter ref="A2:G29"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabela25" displayName="Tabela25" ref="A2:G30" totalsRowShown="0" headerRowDxfId="50" dataDxfId="49">
+  <autoFilter ref="A2:G30"/>
   <tableColumns count="7">
     <tableColumn id="1" name="Data" dataDxfId="48"/>
     <tableColumn id="2" name="BTC/USD" dataDxfId="47"/>
@@ -18007,8 +18069,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabela6" displayName="Tabela6" ref="H19:N46" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40">
-  <autoFilter ref="H19:N46"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabela6" displayName="Tabela6" ref="H19:N48" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40">
+  <autoFilter ref="H19:N48"/>
   <tableColumns count="7">
     <tableColumn id="1" name="Data" dataDxfId="39"/>
     <tableColumn id="2" name="Atlas" dataDxfId="38">
@@ -18600,7 +18662,7 @@
       <c r="Q1" s="121"/>
       <c r="R1" s="120">
         <f>SUM(Atlas!A7,AWS!K1,Easy!L22)</f>
-        <v>204.45195708</v>
+        <v>201.22851739999999</v>
       </c>
       <c r="S1" s="120"/>
       <c r="T1" s="120"/>
@@ -18642,7 +18704,7 @@
   <dimension ref="A1:AB33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18720,7 +18782,7 @@
       </c>
       <c r="J2" s="38">
         <f>AVERAGE(Tabela25[USD/BRL])</f>
-        <v>3.5864185185185189</v>
+        <v>3.5879214285714291</v>
       </c>
       <c r="L2" s="27"/>
       <c r="M2" s="27"/>
@@ -18771,7 +18833,7 @@
       </c>
       <c r="J3" s="117">
         <f>AVERAGE(Tabela25[BTC/BRL])</f>
-        <v>32448.751851851852</v>
+        <v>32321.653571428575</v>
       </c>
       <c r="L3" s="27"/>
       <c r="M3" s="27"/>
@@ -18822,7 +18884,7 @@
       </c>
       <c r="J4" s="118">
         <f>AVERAGE(Tabela25[BTC/USD])</f>
-        <v>8911.4518518518507</v>
+        <v>8864.0499999999993</v>
       </c>
       <c r="L4" s="27"/>
       <c r="M4" s="27"/>
@@ -19255,7 +19317,7 @@
       </c>
       <c r="J13" s="117">
         <f>SMALL(Tabela25[BTC/BRL],1)</f>
-        <v>30383</v>
+        <v>28890</v>
       </c>
       <c r="L13" s="27"/>
       <c r="M13" s="27"/>
@@ -19305,7 +19367,7 @@
       </c>
       <c r="J14" s="118">
         <f>SMALL(Tabela25[BTC/USD],1)</f>
-        <v>8001.4</v>
+        <v>7584.2</v>
       </c>
       <c r="L14" s="27"/>
       <c r="M14" s="27"/>
@@ -19982,6 +20044,30 @@
       <c r="AB29" s="27"/>
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A30" s="8">
+        <v>43243</v>
+      </c>
+      <c r="B30" s="4">
+        <v>7584.2</v>
+      </c>
+      <c r="C30" s="4" t="str">
+        <f>IF(Tabela25[[#This Row],[BTC/USD]]&lt;B29,"▼",IF(Tabela25[[#This Row],[BTC/USD]]&gt;B29,"▲","-"))</f>
+        <v>▼</v>
+      </c>
+      <c r="D30" s="5">
+        <v>28890</v>
+      </c>
+      <c r="E30" s="5" t="str">
+        <f>IF(Tabela25[[#This Row],[BTC/BRL]]&lt;D29,"▼",IF(Tabela25[[#This Row],[BTC/BRL]]&gt;D29,"▲","-"))</f>
+        <v>▼</v>
+      </c>
+      <c r="F30" s="5">
+        <v>3.6284999999999998</v>
+      </c>
+      <c r="G30" s="5" t="str">
+        <f>IF(Tabela25[[#This Row],[USD/BRL]]&lt;F29,"▼",IF(Tabela25[[#This Row],[USD/BRL]]&gt;F29,"▲","-"))</f>
+        <v>▼</v>
+      </c>
       <c r="L30" s="27"/>
       <c r="M30" s="27"/>
       <c r="N30" s="27"/>
@@ -20103,10 +20189,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A18:R46"/>
+  <dimension ref="A18:R48"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="T43" sqref="T43"/>
+      <selection activeCell="J53" sqref="J53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20162,7 +20248,7 @@
       </c>
       <c r="J20" s="5">
         <f>IFERROR(VLOOKUP(Tabela6[[#This Row],[Data]]+1,Tabela3[[Data]:[Saldo BRL]],5),0)</f>
-        <v>3.0125915555555558</v>
+        <v>3.0138540000000003</v>
       </c>
       <c r="K20" s="5">
         <f>VLOOKUP(Tabela6[[#This Row],[Data]]+1,Tabela16[#All],3)</f>
@@ -20170,7 +20256,7 @@
       </c>
       <c r="L20" s="5">
         <f>SUM(Tabela6[[#This Row],[Atlas]:[Easy]])</f>
-        <v>58.612591555555554</v>
+        <v>58.613854000000003</v>
       </c>
       <c r="M20" s="5">
         <f>IFERROR(Tabela6[[#This Row],[Total]]-L19,0)</f>
@@ -20209,19 +20295,19 @@
       </c>
       <c r="M21" s="5">
         <f>IFERROR(Tabela6[[#This Row],[Total]]-L20,0)</f>
-        <v>68.141003444444436</v>
+        <v>68.139740999999987</v>
       </c>
       <c r="N21" s="3">
         <f>Tabela6[[#This Row],[Variação]]/Tabela6[[#This Row],[Total]]</f>
-        <v>0.53758635756598805</v>
+        <v>0.53757639773451782</v>
       </c>
       <c r="Q21" s="99">
         <f>AVERAGE(Tabela6[Variação %])</f>
-        <v>3.7040306533704173E-2</v>
+        <v>3.4233192072230252E-2</v>
       </c>
       <c r="R21" s="71">
         <f>AVERAGE(Tabela6[Variação])</f>
-        <v>5.3323904609053496</v>
+        <v>4.917747013793103</v>
       </c>
     </row>
     <row r="22" spans="8:18" x14ac:dyDescent="0.25">
@@ -20947,6 +21033,64 @@
       <c r="N46" s="3">
         <f>Tabela6[[#This Row],[Variação]]/Tabela6[[#This Row],[Total]]</f>
         <v>-2.4145067376292522E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H47" s="90">
+        <v>43242</v>
+      </c>
+      <c r="I47" s="5">
+        <f>IFERROR(VLOOKUP(Tabela6[[#This Row],[Data]]+1,Tabela1[[Data ]:[BRL]],9),0)</f>
+        <v>65.344158000000007</v>
+      </c>
+      <c r="J47" s="5">
+        <f>IFERROR(VLOOKUP(Tabela6[[#This Row],[Data]]+1,Tabela3[[Data]:[Saldo BRL]],5),0)</f>
+        <v>85.816262999999992</v>
+      </c>
+      <c r="K47" s="5">
+        <f>VLOOKUP(Tabela6[[#This Row],[Data]]+1,Tabela16[#All],3)</f>
+        <v>55.64</v>
+      </c>
+      <c r="L47" s="5">
+        <f>SUM(Tabela6[[#This Row],[Atlas]:[Easy]])</f>
+        <v>206.80042099999997</v>
+      </c>
+      <c r="M47" s="5">
+        <f>IFERROR(Tabela6[[#This Row],[Total]]-L46,0)</f>
+        <v>4.2132869999999798</v>
+      </c>
+      <c r="N47" s="3">
+        <f>Tabela6[[#This Row],[Variação]]/Tabela6[[#This Row],[Total]]</f>
+        <v>2.0373686763432559E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H48" s="90">
+        <v>43243</v>
+      </c>
+      <c r="I48" s="5">
+        <f>IFERROR(VLOOKUP(Tabela6[[#This Row],[Data]]+1,Tabela1[[Data ]:[BRL]],9),0)</f>
+        <v>59.772254399999994</v>
+      </c>
+      <c r="J48" s="5">
+        <f>IFERROR(VLOOKUP(Tabela6[[#This Row],[Data]]+1,Tabela3[[Data]:[Saldo BRL]],5),0)</f>
+        <v>85.816262999999992</v>
+      </c>
+      <c r="K48" s="5">
+        <f>VLOOKUP(Tabela6[[#This Row],[Data]]+1,Tabela16[#All],3)</f>
+        <v>55.64</v>
+      </c>
+      <c r="L48" s="5">
+        <f>SUM(Tabela6[[#This Row],[Atlas]:[Easy]])</f>
+        <v>201.22851739999999</v>
+      </c>
+      <c r="M48" s="5">
+        <f>IFERROR(Tabela6[[#This Row],[Total]]-L47,0)</f>
+        <v>-5.5719035999999846</v>
+      </c>
+      <c r="N48" s="3">
+        <f>Tabela6[[#This Row],[Variação]]/Tabela6[[#This Row],[Total]]</f>
+        <v>-2.7689433247297706E-2</v>
       </c>
     </row>
   </sheetData>
@@ -21688,8 +21832,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y59"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="Q34" sqref="Q34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I59" sqref="I59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21906,11 +22050,11 @@
       </c>
       <c r="J6" s="43">
         <f>IF((SUMIFS(Tabela1[Bruto USD],Tabela1[Mês],Plan4!A5,Tabela1[Ano],L$1))=0,"SR",SUMIFS(Tabela1[Bruto USD],Tabela1[Mês],Plan4!A5,Tabela1[Ano],L$1))</f>
-        <v>0.35326293500000006</v>
+        <v>0.35253405300000001</v>
       </c>
       <c r="K6" s="38">
         <f>IF((SUMIFS(Tabela1[Bruto BRL],Tabela1[Mês],Plan4!A5,Tabela1[Ano],L$1))=0,"SR",SUMIFS(Tabela1[Bruto BRL],Tabela1[Mês],Plan4!A5,Tabela1[Ano],L$1))</f>
-        <v>1.3114086299999999</v>
+        <v>1.30900931</v>
       </c>
       <c r="L6" s="39">
         <f>IF((SUMIFS(Tabela1[porcentagem],Tabela1[Mês],Plan4!A5,Tabela1[Ano],L$1))=0,"SR",SUMIFS(Tabela1[porcentagem],Tabela1[Mês],Plan4!A5,Tabela1[Ano],L$1))</f>
@@ -21929,7 +22073,7 @@
     <row r="7" spans="1:22" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="141">
         <f>INDEX(Tabela1[BRL],MATCH(9.99999999999999+307,Tabela1[BRL]))</f>
-        <v>62.99569408</v>
+        <v>59.772254399999994</v>
       </c>
       <c r="B7" s="141"/>
       <c r="C7" s="141"/>
@@ -21941,7 +22085,7 @@
       </c>
       <c r="G7" s="61">
         <f>AVERAGE(Tabela1[Bruto BRL])</f>
-        <v>8.349787592307692E-2</v>
+        <v>8.3405594384615395E-2</v>
       </c>
       <c r="H7" s="7"/>
       <c r="I7" s="20" t="s">
@@ -22060,7 +22204,7 @@
       </c>
       <c r="G10" s="67">
         <f>SMALL(Tabela1[USD],1)</f>
-        <v>16.467361283999999</v>
+        <v>15.691406431999999</v>
       </c>
       <c r="H10" s="7"/>
       <c r="I10" s="21" t="s">
@@ -22097,7 +22241,7 @@
       <c r="C11" s="149"/>
       <c r="D11" s="148">
         <f>SUM(Tabela1[Bruto BRL])</f>
-        <v>2.1709447740000001</v>
+        <v>2.1685454540000002</v>
       </c>
       <c r="E11" s="148"/>
       <c r="F11" s="68">
@@ -23754,19 +23898,19 @@
       </c>
       <c r="H59" s="72">
         <f>Tabela1[[#This Row],[Posterior]]*VLOOKUP(Tabela1[[#This Row],[Data ]],Tabela25[],2)</f>
-        <v>16.670645199999999</v>
+        <v>15.691406431999999</v>
       </c>
       <c r="I59" s="73">
         <f>Tabela1[[#This Row],[Posterior]]*VLOOKUP(Tabela1[[#This Row],[Data ]],Tabela25[],4)</f>
-        <v>62.99569408</v>
+        <v>59.772254399999994</v>
       </c>
       <c r="J59" s="73">
         <f>IF(Tabela1[[#This Row],[Tipo]]="Depósito (BTC)","N/A",Tabela1[[#This Row],[Variação]]*VLOOKUP(Tabela1[[#This Row],[Data ]],Tabela25[],4))</f>
-        <v>4.6889920000000002E-2</v>
+        <v>4.4490600000000005E-2</v>
       </c>
       <c r="K59" s="74">
         <f>IF(Tabela1[[#This Row],[Tipo]]="Depósito (BTC)","N/A",Tabela1[[#This Row],[Variação]]*VLOOKUP(Tabela1[[#This Row],[Data ]],Tabela25[],2))</f>
-        <v>1.2408550000000001E-2</v>
+        <v>1.1679668000000001E-2</v>
       </c>
       <c r="L59" s="75">
         <f>G59/E59</f>
@@ -23823,8 +23967,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23918,7 +24062,7 @@
       </c>
       <c r="K6" s="95">
         <f ca="1">J6*VLOOKUP(TODAY(),Tabela25[],6)</f>
-        <v>3.063564</v>
+        <v>3.0479399999999996</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
@@ -23931,7 +24075,7 @@
       </c>
       <c r="K7" s="96">
         <f ca="1">J7*VLOOKUP(TODAY(),Tabela25[],6)</f>
-        <v>2.8605420999999995</v>
+        <v>2.8459534999999994</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
@@ -23944,7 +24088,7 @@
       </c>
       <c r="K8" s="96">
         <f ca="1">J8*VLOOKUP(TODAY(),Tabela25[],6)</f>
-        <v>85.816262999999992</v>
+        <v>85.378604999999993</v>
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
@@ -23957,7 +24101,7 @@
       </c>
       <c r="K9" s="96">
         <f ca="1">J9*VLOOKUP(TODAY(),Tabela25[],6)</f>
-        <v>1029.7951559999999</v>
+        <v>1024.5432599999997</v>
       </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
@@ -23970,7 +24114,7 @@
       </c>
       <c r="K10" s="96">
         <f ca="1">J10*VLOOKUP(TODAY(),Tabela25[],6)</f>
-        <v>3.1365059999999998</v>
+        <v>3.1205099999999999</v>
       </c>
     </row>
     <row r="11" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -24005,7 +24149,7 @@
       </c>
       <c r="K13" s="95">
         <f ca="1">J13*VLOOKUP(TODAY(),Tabela25[],6)</f>
-        <v>145.88400000000001</v>
+        <v>145.13999999999999</v>
       </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.25">
@@ -24018,7 +24162,7 @@
       </c>
       <c r="K14" s="96">
         <f ca="1">J14*VLOOKUP(TODAY(),Tabela25[],6)</f>
-        <v>583.53600000000006</v>
+        <v>580.55999999999995</v>
       </c>
     </row>
     <row r="15" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -24031,7 +24175,7 @@
       </c>
       <c r="K15" s="97">
         <f ca="1">J15*VLOOKUP(TODAY(),Tabela25[],6)</f>
-        <v>85.816262999999992</v>
+        <v>85.378604999999993</v>
       </c>
     </row>
     <row r="16" spans="2:13" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -24044,7 +24188,7 @@
       </c>
       <c r="K16" s="113">
         <f ca="1">J16*VLOOKUP(TODAY(),Tabela25[],6)</f>
-        <v>-497.71973700000001</v>
+        <v>-495.18139499999995</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -24085,7 +24229,7 @@
       </c>
       <c r="E21" s="13">
         <f>IFERROR(Tabela3[[#This Row],[Saldo disponível para saque]]*VLOOKUP(Tabela3[[#This Row],[Data]],Tabela25[],6),Tabela3[[#This Row],[Saldo disponível para saque]]*Cotação!J2)</f>
-        <v>3.0125915555555558</v>
+        <v>3.0138540000000003</v>
       </c>
       <c r="F21" s="93">
         <v>0.4</v>
@@ -24698,6 +24842,9 @@
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="8">
         <v>43238</v>
+      </c>
+      <c r="B45" t="s">
+        <v>6</v>
       </c>
       <c r="C45" s="11">
         <v>0</v>

--- a/Controle BTC.xlsx
+++ b/Controle BTC.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="102">
   <si>
     <t>Tipo</t>
   </si>
@@ -333,6 +333,9 @@
   </si>
   <si>
     <t>Mining Bonus - Mining contract #27569 - 0.400 CMP - 2018-05-22</t>
+  </si>
+  <si>
+    <t>Mining Bonus - Mining contract #27569 - 0.400 CMP - 2018-05-23</t>
   </si>
 </sst>
 </file>
@@ -1926,10 +1929,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Atlas!$A$33:$A$59</c:f>
+              <c:f>Atlas!$A$33:$A$60</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>43216.500694444447</c:v>
                 </c:pt>
@@ -2010,16 +2013,19 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>43243.419444444444</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43244.419444444444</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Atlas!$F$33:$F$59</c:f>
+              <c:f>Atlas!$F$33:$F$60</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>2E-3</c:v>
                 </c:pt>
@@ -2100,6 +2106,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>2.0689599999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.0725000000000001E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2115,11 +2124,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="147073696"/>
-        <c:axId val="147080768"/>
+        <c:axId val="1244493648"/>
+        <c:axId val="1244482768"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="147073696"/>
+        <c:axId val="1244493648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2161,14 +2170,14 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="147080768"/>
+        <c:crossAx val="1244482768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="147080768"/>
+        <c:axId val="1244482768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2218,7 +2227,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="147073696"/>
+        <c:crossAx val="1244493648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2504,11 +2513,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="381470992"/>
-        <c:axId val="381481872"/>
+        <c:axId val="1244487120"/>
+        <c:axId val="1244492016"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="381470992"/>
+        <c:axId val="1244487120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2551,14 +2560,14 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="381481872"/>
+        <c:crossAx val="1244492016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="381481872"/>
+        <c:axId val="1244492016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2609,7 +2618,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="381470992"/>
+        <c:crossAx val="1244487120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2884,11 +2893,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="381469360"/>
-        <c:axId val="381482960"/>
+        <c:axId val="1244490384"/>
+        <c:axId val="1244491472"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="381469360"/>
+        <c:axId val="1244490384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2931,14 +2940,14 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="381482960"/>
+        <c:crossAx val="1244491472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="381482960"/>
+        <c:axId val="1244491472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2989,7 +2998,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="381469360"/>
+        <c:crossAx val="1244490384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3117,10 +3126,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Atlas!$A$33:$A$59</c:f>
+              <c:f>Atlas!$A$33:$A$60</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>43216.500694444447</c:v>
                 </c:pt>
@@ -3201,16 +3210,19 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>43243.419444444444</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43244.419444444444</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Atlas!$F$33:$F$59</c:f>
+              <c:f>Atlas!$F$33:$F$60</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>2E-3</c:v>
                 </c:pt>
@@ -3291,6 +3303,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>2.0689599999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.0725000000000001E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3306,11 +3321,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="381468816"/>
-        <c:axId val="381475344"/>
+        <c:axId val="1267230128"/>
+        <c:axId val="1267237200"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="381468816"/>
+        <c:axId val="1267230128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3353,14 +3368,14 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="381475344"/>
+        <c:crossAx val="1267237200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="381475344"/>
+        <c:axId val="1267237200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3411,7 +3426,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="381468816"/>
+        <c:crossAx val="1267230128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3552,7 +3567,7 @@
                   <c:v>0.24225165700000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.35253405300000001</c:v>
+                  <c:v>0.37925577300000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -3652,7 +3667,7 @@
                   <c:v>0.859536144</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.30900931</c:v>
+                  <c:v>1.4081716499999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -3689,11 +3704,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="381480240"/>
-        <c:axId val="381478608"/>
+        <c:axId val="1267231760"/>
+        <c:axId val="1267238288"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="381480240"/>
+        <c:axId val="1267231760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3736,7 +3751,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="381478608"/>
+        <c:crossAx val="1267238288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3744,7 +3759,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="381478608"/>
+        <c:axId val="1267238288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3795,7 +3810,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="381480240"/>
+        <c:crossAx val="1267231760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3923,10 +3938,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Atlas!$A$33:$A$59</c:f>
+              <c:f>Atlas!$A$33:$A$60</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>43216.500694444447</c:v>
                 </c:pt>
@@ -4007,16 +4022,19 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>43243.419444444444</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43244.419444444444</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Atlas!$L$33:$L$59</c:f>
+              <c:f>Atlas!$L$33:$L$60</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4097,6 +4115,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>7.4488976598852683E-4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.711004562678834E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4112,11 +4133,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="381479152"/>
-        <c:axId val="381480784"/>
+        <c:axId val="1267235024"/>
+        <c:axId val="1267230672"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="381479152"/>
+        <c:axId val="1267235024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4159,14 +4180,14 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="381480784"/>
+        <c:crossAx val="1267230672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="381480784"/>
+        <c:axId val="1267230672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4217,7 +4238,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="381479152"/>
+        <c:crossAx val="1267235024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4345,10 +4366,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>AWS!$A$21:$A$50</c:f>
+              <c:f>AWS!$A$21:$A$51</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43215.853043981479</c:v>
                 </c:pt>
@@ -4438,16 +4459,19 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>43242.709641203706</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43243.899236111109</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>AWS!$D$21:$D$50</c:f>
+              <c:f>AWS!$D$21:$D$51</c:f>
               <c:numCache>
                 <c:formatCode>[$$-409]#,##0.00</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0.84</c:v>
                 </c:pt>
@@ -4537,6 +4561,9 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>23.529999999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>24.359999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4552,11 +4579,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="381482416"/>
-        <c:axId val="381481328"/>
+        <c:axId val="1267225232"/>
+        <c:axId val="1267231216"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="381482416"/>
+        <c:axId val="1267225232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4599,14 +4626,14 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="381481328"/>
+        <c:crossAx val="1267231216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="381481328"/>
+        <c:axId val="1267231216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4657,7 +4684,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="381482416"/>
+        <c:crossAx val="1267225232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4785,10 +4812,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>AWS!$A$21:$A$50</c:f>
+              <c:f>AWS!$A$21:$A$51</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43215.853043981479</c:v>
                 </c:pt>
@@ -4878,16 +4905,19 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>43242.709641203706</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43243.899236111109</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>AWS!$C$21:$C$50</c:f>
+              <c:f>AWS!$C$21:$C$51</c:f>
               <c:numCache>
                 <c:formatCode>[$$-409]#,##0.00</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0.84</c:v>
                 </c:pt>
@@ -4977,6 +5007,9 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.83</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4992,11 +5025,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="381473712"/>
-        <c:axId val="381473168"/>
+        <c:axId val="1267228496"/>
+        <c:axId val="1267225776"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="381473712"/>
+        <c:axId val="1267228496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5039,14 +5072,14 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="381473168"/>
+        <c:crossAx val="1267225776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="381473168"/>
+        <c:axId val="1267225776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5097,7 +5130,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="381473712"/>
+        <c:crossAx val="1267228496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5268,10 +5301,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>AWS!$A$21:$A$50</c:f>
+              <c:f>AWS!$A$21:$A$51</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43215.853043981479</c:v>
                 </c:pt>
@@ -5361,16 +5394,19 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>43242.709641203706</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43243.899236111109</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>AWS!$D$21:$D$50</c:f>
+              <c:f>AWS!$D$21:$D$51</c:f>
               <c:numCache>
                 <c:formatCode>[$$-409]#,##0.00</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0.84</c:v>
                 </c:pt>
@@ -5460,6 +5496,9 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>23.529999999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>24.359999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5475,11 +5514,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="147074240"/>
-        <c:axId val="147074784"/>
+        <c:axId val="1244483856"/>
+        <c:axId val="1244480048"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="147074240"/>
+        <c:axId val="1244483856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5521,14 +5560,14 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="147074784"/>
+        <c:crossAx val="1244480048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="147074784"/>
+        <c:axId val="1244480048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5578,7 +5617,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="147074240"/>
+        <c:crossAx val="1244483856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5916,11 +5955,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="147075328"/>
-        <c:axId val="147075872"/>
+        <c:axId val="1244484400"/>
+        <c:axId val="1244494192"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="147075328"/>
+        <c:axId val="1244484400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5962,14 +6001,14 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="147075872"/>
+        <c:crossAx val="1244494192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="147075872"/>
+        <c:axId val="1244494192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6019,7 +6058,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="147075328"/>
+        <c:crossAx val="1244484400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6170,10 +6209,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Total!$H$20:$H$48</c:f>
+              <c:f>Total!$H$20:$H$49</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43215</c:v>
                 </c:pt>
@@ -6260,18 +6299,21 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>43243</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43244</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Total!$L$20:$L$48</c:f>
+              <c:f>Total!$L$20:$L$49</c:f>
               <c:numCache>
                 <c:formatCode>"R$"#,##0.00</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>58.613854000000003</c:v>
+                  <c:v>58.615605793103448</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>126.75359499999999</c:v>
@@ -6355,7 +6397,10 @@
                   <c:v>206.80042099999997</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>201.22851739999999</c:v>
+                  <c:v>201.97048415999996</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>202.834431</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6371,11 +6416,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="147078592"/>
-        <c:axId val="147079136"/>
+        <c:axId val="1244494736"/>
+        <c:axId val="1244486032"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="147078592"/>
+        <c:axId val="1244494736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6417,14 +6462,14 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="147079136"/>
+        <c:crossAx val="1244486032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="147079136"/>
+        <c:axId val="1244486032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6474,7 +6519,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="147078592"/>
+        <c:crossAx val="1244494736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6625,10 +6670,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Cotação!$A$3:$A$30</c:f>
+              <c:f>Cotação!$A$3:$A$31</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>43216</c:v>
                 </c:pt>
@@ -6712,16 +6757,19 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>43243</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43244</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Cotação!$D$3:$D$30</c:f>
+              <c:f>Cotação!$D$3:$D$31</c:f>
               <c:numCache>
                 <c:formatCode>"R$"#,##0.00</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>32640</c:v>
                 </c:pt>
@@ -6804,7 +6852,10 @@
                   <c:v>30448</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>28890</c:v>
+                  <c:v>28021</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28390</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6820,11 +6871,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="147081856"/>
-        <c:axId val="147082400"/>
+        <c:axId val="1244488208"/>
+        <c:axId val="1244484944"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="147081856"/>
+        <c:axId val="1244488208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6866,14 +6917,14 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="147082400"/>
+        <c:crossAx val="1244484944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="147082400"/>
+        <c:axId val="1244484944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6923,7 +6974,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="147081856"/>
+        <c:crossAx val="1244488208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7074,10 +7125,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Cotação!$A$3:$A$30</c:f>
+              <c:f>Cotação!$A$3:$A$31</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>43216</c:v>
                 </c:pt>
@@ -7161,16 +7212,19 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>43243</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43244</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Cotação!$F$3:$F$30</c:f>
+              <c:f>Cotação!$F$3:$F$31</c:f>
               <c:numCache>
                 <c:formatCode>"R$"#,##0.00</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>3.4754999999999998</c:v>
                 </c:pt>
@@ -7253,7 +7307,10 @@
                   <c:v>3.6471</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3.6284999999999998</c:v>
+                  <c:v>3.6271</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.6497999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7269,11 +7326,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="147083488"/>
-        <c:axId val="147084032"/>
+        <c:axId val="1244485488"/>
+        <c:axId val="1244480592"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="147083488"/>
+        <c:axId val="1244485488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7315,14 +7372,14 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="147084032"/>
+        <c:crossAx val="1244480592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="147084032"/>
+        <c:axId val="1244480592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7372,7 +7429,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="147083488"/>
+        <c:crossAx val="1244485488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7523,10 +7580,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Cotação!$A$3:$A$30</c:f>
+              <c:f>Cotação!$A$3:$A$31</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>43216</c:v>
                 </c:pt>
@@ -7610,16 +7667,19 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>43243</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43244</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Cotação!$B$3:$B$30</c:f>
+              <c:f>Cotação!$B$3:$B$31</c:f>
               <c:numCache>
                 <c:formatCode>[$$-409]#,##0.00</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>9279.2999999999993</c:v>
                 </c:pt>
@@ -7702,7 +7762,10 @@
                   <c:v>8057.5</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>7584.2</c:v>
+                  <c:v>7494.8</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7587.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7718,11 +7781,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="146106176"/>
-        <c:axId val="146113248"/>
+        <c:axId val="1244488752"/>
+        <c:axId val="1244490928"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="146106176"/>
+        <c:axId val="1244488752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7764,14 +7827,14 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="146113248"/>
+        <c:crossAx val="1244490928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="146113248"/>
+        <c:axId val="1244490928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7821,7 +7884,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="146106176"/>
+        <c:crossAx val="1244488752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7959,10 +8022,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Total!$H$20:$H$48</c:f>
+              <c:f>Total!$H$20:$H$49</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43215</c:v>
                 </c:pt>
@@ -8049,18 +8112,21 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>43243</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43244</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Total!$L$20:$L$48</c:f>
+              <c:f>Total!$L$20:$L$49</c:f>
               <c:numCache>
                 <c:formatCode>"R$"#,##0.00</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>58.613854000000003</c:v>
+                  <c:v>58.615605793103448</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>126.75359499999999</c:v>
@@ -8144,7 +8210,10 @@
                   <c:v>206.80042099999997</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>201.22851739999999</c:v>
+                  <c:v>201.97048415999996</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>202.834431</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8160,11 +8229,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="146118144"/>
-        <c:axId val="146109984"/>
+        <c:axId val="1244481136"/>
+        <c:axId val="1244489296"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="146118144"/>
+        <c:axId val="1244481136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8207,14 +8276,14 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="146109984"/>
+        <c:crossAx val="1244489296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="146109984"/>
+        <c:axId val="1244489296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8265,7 +8334,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="146118144"/>
+        <c:crossAx val="1244481136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8404,10 +8473,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Total!$H$20:$H$48</c:f>
+              <c:f>Total!$H$20:$H$49</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43215</c:v>
                 </c:pt>
@@ -8494,21 +8563,24 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>43243</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43244</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Total!$M$20:$M$48</c:f>
+              <c:f>Total!$M$20:$M$49</c:f>
               <c:numCache>
                 <c:formatCode>"R$"#,##0.00</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>68.139740999999987</c:v>
+                  <c:v>68.137989206896549</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>3.1866181360000212</c:v>
@@ -8589,7 +8661,10 @@
                   <c:v>4.2132869999999798</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-5.5719035999999846</c:v>
+                  <c:v>-4.8299368400000162</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.86394684000003963</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8606,11 +8681,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="381470448"/>
-        <c:axId val="381476432"/>
+        <c:axId val="1244489840"/>
+        <c:axId val="1244486576"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="381470448"/>
+        <c:axId val="1244489840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8653,14 +8728,14 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="381476432"/>
+        <c:crossAx val="1244486576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="381476432"/>
+        <c:axId val="1244486576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8711,7 +8786,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="381470448"/>
+        <c:crossAx val="1244489840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -18047,8 +18122,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabela25" displayName="Tabela25" ref="A2:G30" totalsRowShown="0" headerRowDxfId="50" dataDxfId="49">
-  <autoFilter ref="A2:G30"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabela25" displayName="Tabela25" ref="A2:G31" totalsRowShown="0" headerRowDxfId="50" dataDxfId="49">
+  <autoFilter ref="A2:G31"/>
   <tableColumns count="7">
     <tableColumn id="1" name="Data" dataDxfId="48"/>
     <tableColumn id="2" name="BTC/USD" dataDxfId="47"/>
@@ -18069,8 +18144,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabela6" displayName="Tabela6" ref="H19:N48" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40">
-  <autoFilter ref="H19:N48"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabela6" displayName="Tabela6" ref="H19:N49" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40">
+  <autoFilter ref="H19:N49"/>
   <tableColumns count="7">
     <tableColumn id="1" name="Data" dataDxfId="39"/>
     <tableColumn id="2" name="Atlas" dataDxfId="38">
@@ -18120,8 +18195,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A32:N59" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
-  <autoFilter ref="A32:N59"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A32:N60" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
+  <autoFilter ref="A32:N60"/>
   <tableColumns count="14">
     <tableColumn id="1" name="Data " dataDxfId="22"/>
     <tableColumn id="13" name="Mês" dataDxfId="21">
@@ -18159,14 +18234,14 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela3" displayName="Tabela3" ref="A20:G50" totalsRowShown="0">
-  <autoFilter ref="A20:G50"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela3" displayName="Tabela3" ref="A20:G51" totalsRowShown="0">
+  <autoFilter ref="A20:G51"/>
   <tableColumns count="7">
     <tableColumn id="1" name="Data" dataDxfId="8"/>
     <tableColumn id="2" name="Descrição"/>
     <tableColumn id="3" name="Valor" dataDxfId="7"/>
     <tableColumn id="4" name="Saldo disponível para saque" dataDxfId="6">
-      <calculatedColumnFormula>C22+D21</calculatedColumnFormula>
+      <calculatedColumnFormula>IFERROR(C21+D20,Tabela3[[#This Row],[Valor]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" name="Saldo BRL" dataDxfId="5">
       <calculatedColumnFormula>IFERROR(Tabela3[[#This Row],[Saldo disponível para saque]]*VLOOKUP(Tabela3[[#This Row],[Data]],Tabela25[],6),Tabela3[[#This Row],[Saldo disponível para saque]]*Cotação!J2)</calculatedColumnFormula>
@@ -18662,7 +18737,7 @@
       <c r="Q1" s="121"/>
       <c r="R1" s="120">
         <f>SUM(Atlas!A7,AWS!K1,Easy!L22)</f>
-        <v>201.22851739999999</v>
+        <v>202.834431</v>
       </c>
       <c r="S1" s="120"/>
       <c r="T1" s="120"/>
@@ -18704,7 +18779,7 @@
   <dimension ref="A1:AB33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18782,7 +18857,7 @@
       </c>
       <c r="J2" s="38">
         <f>AVERAGE(Tabela25[USD/BRL])</f>
-        <v>3.5879214285714291</v>
+        <v>3.5900068965517242</v>
       </c>
       <c r="L2" s="27"/>
       <c r="M2" s="27"/>
@@ -18833,7 +18908,7 @@
       </c>
       <c r="J3" s="117">
         <f>AVERAGE(Tabela25[BTC/BRL])</f>
-        <v>32321.653571428575</v>
+        <v>32156.11379310345</v>
       </c>
       <c r="L3" s="27"/>
       <c r="M3" s="27"/>
@@ -18884,7 +18959,7 @@
       </c>
       <c r="J4" s="118">
         <f>AVERAGE(Tabela25[BTC/USD])</f>
-        <v>8864.0499999999993</v>
+        <v>8816.9448275862051</v>
       </c>
       <c r="L4" s="27"/>
       <c r="M4" s="27"/>
@@ -19317,7 +19392,7 @@
       </c>
       <c r="J13" s="117">
         <f>SMALL(Tabela25[BTC/BRL],1)</f>
-        <v>28890</v>
+        <v>28021</v>
       </c>
       <c r="L13" s="27"/>
       <c r="M13" s="27"/>
@@ -19367,7 +19442,7 @@
       </c>
       <c r="J14" s="118">
         <f>SMALL(Tabela25[BTC/USD],1)</f>
-        <v>7584.2</v>
+        <v>7494.8</v>
       </c>
       <c r="L14" s="27"/>
       <c r="M14" s="27"/>
@@ -20048,21 +20123,21 @@
         <v>43243</v>
       </c>
       <c r="B30" s="4">
-        <v>7584.2</v>
+        <v>7494.8</v>
       </c>
       <c r="C30" s="4" t="str">
         <f>IF(Tabela25[[#This Row],[BTC/USD]]&lt;B29,"▼",IF(Tabela25[[#This Row],[BTC/USD]]&gt;B29,"▲","-"))</f>
         <v>▼</v>
       </c>
       <c r="D30" s="5">
-        <v>28890</v>
+        <v>28021</v>
       </c>
       <c r="E30" s="5" t="str">
         <f>IF(Tabela25[[#This Row],[BTC/BRL]]&lt;D29,"▼",IF(Tabela25[[#This Row],[BTC/BRL]]&gt;D29,"▲","-"))</f>
         <v>▼</v>
       </c>
       <c r="F30" s="5">
-        <v>3.6284999999999998</v>
+        <v>3.6271</v>
       </c>
       <c r="G30" s="5" t="str">
         <f>IF(Tabela25[[#This Row],[USD/BRL]]&lt;F29,"▼",IF(Tabela25[[#This Row],[USD/BRL]]&gt;F29,"▲","-"))</f>
@@ -20087,6 +20162,30 @@
       <c r="AB30" s="27"/>
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A31" s="8">
+        <v>43244</v>
+      </c>
+      <c r="B31" s="4">
+        <v>7587.4</v>
+      </c>
+      <c r="C31" s="4" t="str">
+        <f>IF(Tabela25[[#This Row],[BTC/USD]]&lt;B30,"▼",IF(Tabela25[[#This Row],[BTC/USD]]&gt;B30,"▲","-"))</f>
+        <v>▲</v>
+      </c>
+      <c r="D31" s="5">
+        <v>28390</v>
+      </c>
+      <c r="E31" s="5" t="str">
+        <f>IF(Tabela25[[#This Row],[BTC/BRL]]&lt;D30,"▼",IF(Tabela25[[#This Row],[BTC/BRL]]&gt;D30,"▲","-"))</f>
+        <v>▲</v>
+      </c>
+      <c r="F31" s="5">
+        <v>3.6497999999999999</v>
+      </c>
+      <c r="G31" s="5" t="str">
+        <f>IF(Tabela25[[#This Row],[USD/BRL]]&lt;F30,"▼",IF(Tabela25[[#This Row],[USD/BRL]]&gt;F30,"▲","-"))</f>
+        <v>▲</v>
+      </c>
       <c r="L31" s="27"/>
       <c r="M31" s="27"/>
       <c r="N31" s="27"/>
@@ -20189,10 +20288,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A18:R48"/>
+  <dimension ref="A18:R49"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="J53" sqref="J53"/>
+      <selection activeCell="O55" sqref="O55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20248,7 +20347,7 @@
       </c>
       <c r="J20" s="5">
         <f>IFERROR(VLOOKUP(Tabela6[[#This Row],[Data]]+1,Tabela3[[Data]:[Saldo BRL]],5),0)</f>
-        <v>3.0138540000000003</v>
+        <v>3.0156057931034481</v>
       </c>
       <c r="K20" s="5">
         <f>VLOOKUP(Tabela6[[#This Row],[Data]]+1,Tabela16[#All],3)</f>
@@ -20256,7 +20355,7 @@
       </c>
       <c r="L20" s="5">
         <f>SUM(Tabela6[[#This Row],[Atlas]:[Easy]])</f>
-        <v>58.613854000000003</v>
+        <v>58.615605793103448</v>
       </c>
       <c r="M20" s="5">
         <f>IFERROR(Tabela6[[#This Row],[Total]]-L19,0)</f>
@@ -20295,19 +20394,19 @@
       </c>
       <c r="M21" s="5">
         <f>IFERROR(Tabela6[[#This Row],[Total]]-L20,0)</f>
-        <v>68.139740999999987</v>
+        <v>68.137989206896549</v>
       </c>
       <c r="N21" s="3">
         <f>Tabela6[[#This Row],[Variação]]/Tabela6[[#This Row],[Total]]</f>
-        <v>0.53757639773451782</v>
+        <v>0.53756257727361934</v>
       </c>
       <c r="Q21" s="99">
         <f>AVERAGE(Tabela6[Variação %])</f>
-        <v>3.4233192072230252E-2</v>
+        <v>3.3359449331332162E-2</v>
       </c>
       <c r="R21" s="71">
         <f>AVERAGE(Tabela6[Variação])</f>
-        <v>4.917747013793103</v>
+        <v>4.8072941735632186</v>
       </c>
     </row>
     <row r="22" spans="8:18" x14ac:dyDescent="0.25">
@@ -21070,11 +21169,11 @@
       </c>
       <c r="I48" s="5">
         <f>IFERROR(VLOOKUP(Tabela6[[#This Row],[Data]]+1,Tabela1[[Data ]:[BRL]],9),0)</f>
-        <v>59.772254399999994</v>
+        <v>57.974328159999999</v>
       </c>
       <c r="J48" s="5">
         <f>IFERROR(VLOOKUP(Tabela6[[#This Row],[Data]]+1,Tabela3[[Data]:[Saldo BRL]],5),0)</f>
-        <v>85.816262999999992</v>
+        <v>88.356155999999984</v>
       </c>
       <c r="K48" s="5">
         <f>VLOOKUP(Tabela6[[#This Row],[Data]]+1,Tabela16[#All],3)</f>
@@ -21082,15 +21181,44 @@
       </c>
       <c r="L48" s="5">
         <f>SUM(Tabela6[[#This Row],[Atlas]:[Easy]])</f>
-        <v>201.22851739999999</v>
+        <v>201.97048415999996</v>
       </c>
       <c r="M48" s="5">
         <f>IFERROR(Tabela6[[#This Row],[Total]]-L47,0)</f>
-        <v>-5.5719035999999846</v>
+        <v>-4.8299368400000162</v>
       </c>
       <c r="N48" s="3">
         <f>Tabela6[[#This Row],[Variação]]/Tabela6[[#This Row],[Total]]</f>
-        <v>-2.7689433247297706E-2</v>
+        <v>-2.3914072692788942E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H49" s="90">
+        <v>43244</v>
+      </c>
+      <c r="I49" s="5">
+        <f>IFERROR(VLOOKUP(Tabela6[[#This Row],[Data]]+1,Tabela1[[Data ]:[BRL]],9),0)</f>
+        <v>58.838275000000003</v>
+      </c>
+      <c r="J49" s="5">
+        <f>IFERROR(VLOOKUP(Tabela6[[#This Row],[Data]]+1,Tabela3[[Data]:[Saldo BRL]],5),0)</f>
+        <v>88.356155999999984</v>
+      </c>
+      <c r="K49" s="5">
+        <f>VLOOKUP(Tabela6[[#This Row],[Data]]+1,Tabela16[#All],3)</f>
+        <v>55.64</v>
+      </c>
+      <c r="L49" s="5">
+        <f>SUM(Tabela6[[#This Row],[Atlas]:[Easy]])</f>
+        <v>202.834431</v>
+      </c>
+      <c r="M49" s="5">
+        <f>IFERROR(Tabela6[[#This Row],[Total]]-L48,0)</f>
+        <v>0.86394684000003963</v>
+      </c>
+      <c r="N49" s="3">
+        <f>Tabela6[[#This Row],[Variação]]/Tabela6[[#This Row],[Total]]</f>
+        <v>4.2593697516771188E-3</v>
       </c>
     </row>
   </sheetData>
@@ -21830,10 +21958,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y59"/>
+  <dimension ref="A1:Y60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I59" sqref="I59"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21851,7 +21979,7 @@
     <col min="11" max="11" width="14.5703125" style="6" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="6.7109375" style="6" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="6.140625" style="8" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="6.5703125" style="4" bestFit="1" customWidth="1"/>
@@ -22050,15 +22178,15 @@
       </c>
       <c r="J6" s="43">
         <f>IF((SUMIFS(Tabela1[Bruto USD],Tabela1[Mês],Plan4!A5,Tabela1[Ano],L$1))=0,"SR",SUMIFS(Tabela1[Bruto USD],Tabela1[Mês],Plan4!A5,Tabela1[Ano],L$1))</f>
-        <v>0.35253405300000001</v>
+        <v>0.37925577300000002</v>
       </c>
       <c r="K6" s="38">
         <f>IF((SUMIFS(Tabela1[Bruto BRL],Tabela1[Mês],Plan4!A5,Tabela1[Ano],L$1))=0,"SR",SUMIFS(Tabela1[Bruto BRL],Tabela1[Mês],Plan4!A5,Tabela1[Ano],L$1))</f>
-        <v>1.30900931</v>
+        <v>1.4081716499999999</v>
       </c>
       <c r="L6" s="39">
         <f>IF((SUMIFS(Tabela1[porcentagem],Tabela1[Mês],Plan4!A5,Tabela1[Ano],L$1))=0,"SR",SUMIFS(Tabela1[porcentagem],Tabela1[Mês],Plan4!A5,Tabela1[Ano],L$1))</f>
-        <v>2.0046860456600805E-2</v>
+        <v>2.1757865019279638E-2</v>
       </c>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
@@ -22073,7 +22201,7 @@
     <row r="7" spans="1:22" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="141">
         <f>INDEX(Tabela1[BRL],MATCH(9.99999999999999+307,Tabela1[BRL]))</f>
-        <v>59.772254399999994</v>
+        <v>58.838275000000003</v>
       </c>
       <c r="B7" s="141"/>
       <c r="C7" s="141"/>
@@ -22081,11 +22209,11 @@
       <c r="E7" s="142"/>
       <c r="F7" s="60">
         <f>AVERAGE(Tabela1[porcentagem])</f>
-        <v>1.2712013956676332E-3</v>
+        <v>1.2874904018532333E-3</v>
       </c>
       <c r="G7" s="61">
         <f>AVERAGE(Tabela1[Bruto BRL])</f>
-        <v>8.3405594384615395E-2</v>
+        <v>8.3989177555555558E-2</v>
       </c>
       <c r="H7" s="7"/>
       <c r="I7" s="20" t="s">
@@ -22142,7 +22270,10 @@
         <v>SR</v>
       </c>
       <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
+      <c r="N8" s="5">
+        <f>INDEX(Tabela25[BTC/BRL],MATCH(999999999999999+307,Tabela25[BTC/BRL]))</f>
+        <v>28390</v>
+      </c>
       <c r="P8" s="8"/>
       <c r="Q8" s="4"/>
       <c r="R8" s="5"/>
@@ -22204,7 +22335,7 @@
       </c>
       <c r="G10" s="67">
         <f>SMALL(Tabela1[USD],1)</f>
-        <v>15.691406431999999</v>
+        <v>15.506441407999999</v>
       </c>
       <c r="H10" s="7"/>
       <c r="I10" s="21" t="s">
@@ -22235,13 +22366,13 @@
     <row r="11" spans="1:22" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="149" t="str">
         <f>SUM(Tabela1[Variação])&amp;" BTC"</f>
-        <v>0,00006704 BTC</v>
+        <v>0,00007058 BTC</v>
       </c>
       <c r="B11" s="149"/>
       <c r="C11" s="149"/>
       <c r="D11" s="148">
-        <f>SUM(Tabela1[Bruto BRL])</f>
-        <v>2.1685454540000002</v>
+        <f>SUM(Tabela1[Variação])*INDEX(Tabela25[BTC/BRL],MATCH(999999999999999+307,Tabela25[BTC/BRL]))</f>
+        <v>2.0037662000000007</v>
       </c>
       <c r="E11" s="148"/>
       <c r="F11" s="68">
@@ -23898,19 +24029,19 @@
       </c>
       <c r="H59" s="72">
         <f>Tabela1[[#This Row],[Posterior]]*VLOOKUP(Tabela1[[#This Row],[Data ]],Tabela25[],2)</f>
-        <v>15.691406431999999</v>
+        <v>15.506441407999999</v>
       </c>
       <c r="I59" s="73">
         <f>Tabela1[[#This Row],[Posterior]]*VLOOKUP(Tabela1[[#This Row],[Data ]],Tabela25[],4)</f>
-        <v>59.772254399999994</v>
+        <v>57.974328159999999</v>
       </c>
       <c r="J59" s="73">
         <f>IF(Tabela1[[#This Row],[Tipo]]="Depósito (BTC)","N/A",Tabela1[[#This Row],[Variação]]*VLOOKUP(Tabela1[[#This Row],[Data ]],Tabela25[],4))</f>
-        <v>4.4490600000000005E-2</v>
+        <v>4.3152340000000004E-2</v>
       </c>
       <c r="K59" s="74">
         <f>IF(Tabela1[[#This Row],[Tipo]]="Depósito (BTC)","N/A",Tabela1[[#This Row],[Variação]]*VLOOKUP(Tabela1[[#This Row],[Data ]],Tabela25[],2))</f>
-        <v>1.1679668000000001E-2</v>
+        <v>1.1541992000000001E-2</v>
       </c>
       <c r="L59" s="75">
         <f>G59/E59</f>
@@ -23923,6 +24054,57 @@
       <c r="N59" s="3">
         <f>M59*12</f>
         <v>0.26816031575586968</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A60" s="8">
+        <v>43244.419444444444</v>
+      </c>
+      <c r="B60" s="12">
+        <v>5</v>
+      </c>
+      <c r="C60" s="12">
+        <v>2018</v>
+      </c>
+      <c r="D60" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E60" s="6">
+        <v>2.0689599999999999E-3</v>
+      </c>
+      <c r="F60" s="6">
+        <v>2.0725000000000001E-3</v>
+      </c>
+      <c r="G60" s="6">
+        <v>3.54E-6</v>
+      </c>
+      <c r="H60" s="72">
+        <f>Tabela1[[#This Row],[Posterior]]*VLOOKUP(Tabela1[[#This Row],[Data ]],Tabela25[],2)</f>
+        <v>15.7248865</v>
+      </c>
+      <c r="I60" s="73">
+        <f>Tabela1[[#This Row],[Posterior]]*VLOOKUP(Tabela1[[#This Row],[Data ]],Tabela25[],4)</f>
+        <v>58.838275000000003</v>
+      </c>
+      <c r="J60" s="73">
+        <f>IF(Tabela1[[#This Row],[Tipo]]="Depósito (BTC)","N/A",Tabela1[[#This Row],[Variação]]*VLOOKUP(Tabela1[[#This Row],[Data ]],Tabela25[],4))</f>
+        <v>0.1005006</v>
+      </c>
+      <c r="K60" s="74">
+        <f>IF(Tabela1[[#This Row],[Tipo]]="Depósito (BTC)","N/A",Tabela1[[#This Row],[Variação]]*VLOOKUP(Tabela1[[#This Row],[Data ]],Tabela25[],2))</f>
+        <v>2.6859395999999997E-2</v>
+      </c>
+      <c r="L60" s="75">
+        <f>G60/E60</f>
+        <v>1.711004562678834E-3</v>
+      </c>
+      <c r="M60" s="3">
+        <f>L60*30</f>
+        <v>5.1330136880365022E-2</v>
+      </c>
+      <c r="N60" s="3">
+        <f>M60*12</f>
+        <v>0.61596164256438024</v>
       </c>
     </row>
   </sheetData>
@@ -23965,10 +24147,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M50"/>
+  <dimension ref="A1:M51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23992,7 +24174,7 @@
       <c r="C1" s="150"/>
       <c r="D1" s="155">
         <f ca="1">TODAY()+(40-K3)/J6</f>
-        <v>43262.607142857145</v>
+        <v>43262.619047619046</v>
       </c>
       <c r="E1" s="158" t="str">
         <f>I6</f>
@@ -24004,7 +24186,7 @@
       <c r="J1" s="137"/>
       <c r="K1" s="148">
         <f>INDEX(Tabela3[Saldo BRL],MATCH(9.99999999999999+307,Tabela3[Saldo BRL]))</f>
-        <v>85.816262999999992</v>
+        <v>88.356155999999984</v>
       </c>
       <c r="L1" s="148"/>
       <c r="M1" s="148"/>
@@ -24025,7 +24207,7 @@
       <c r="C3" s="150"/>
       <c r="D3" s="157">
         <f ca="1">TODAY()+(40-K3)/J7</f>
-        <v>43263.998725031874</v>
+        <v>43263.903119868635</v>
       </c>
       <c r="E3" s="160" t="str">
         <f>I7</f>
@@ -24035,7 +24217,7 @@
       <c r="J3" s="137"/>
       <c r="K3" s="153">
         <f>INDEX(Tabela3[Saldo disponível para saque],MATCH(9.99999999999999+307,Tabela3[Saldo disponível para saque]))</f>
-        <v>23.529999999999998</v>
+        <v>24.359999999999996</v>
       </c>
       <c r="L3" s="153"/>
       <c r="M3" s="153"/>
@@ -24062,7 +24244,7 @@
       </c>
       <c r="K6" s="95">
         <f ca="1">J6*VLOOKUP(TODAY(),Tabela25[],6)</f>
-        <v>3.0479399999999996</v>
+        <v>3.0658319999999999</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
@@ -24071,11 +24253,11 @@
       </c>
       <c r="J7" s="108">
         <f>SUM(Tabela3[Valor])/COUNT(Tabela3[Valor])</f>
-        <v>0.78433333333333322</v>
+        <v>0.78580645161290308</v>
       </c>
       <c r="K7" s="96">
         <f ca="1">J7*VLOOKUP(TODAY(),Tabela25[],6)</f>
-        <v>2.8459534999999994</v>
+        <v>2.8680363870967738</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
@@ -24084,11 +24266,11 @@
       </c>
       <c r="J8" s="108">
         <f>J7*30</f>
-        <v>23.529999999999998</v>
+        <v>23.574193548387093</v>
       </c>
       <c r="K8" s="96">
         <f ca="1">J8*VLOOKUP(TODAY(),Tabela25[],6)</f>
-        <v>85.378604999999993</v>
+        <v>86.041091612903216</v>
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
@@ -24097,11 +24279,11 @@
       </c>
       <c r="J9" s="108">
         <f>J8*12</f>
-        <v>282.35999999999996</v>
+        <v>282.89032258064515</v>
       </c>
       <c r="K9" s="96">
         <f ca="1">J9*VLOOKUP(TODAY(),Tabela25[],6)</f>
-        <v>1024.5432599999997</v>
+        <v>1032.4930993548387</v>
       </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
@@ -24114,7 +24296,7 @@
       </c>
       <c r="K10" s="96">
         <f ca="1">J10*VLOOKUP(TODAY(),Tabela25[],6)</f>
-        <v>3.1205099999999999</v>
+        <v>3.1388279999999997</v>
       </c>
     </row>
     <row r="11" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -24149,7 +24331,7 @@
       </c>
       <c r="K13" s="95">
         <f ca="1">J13*VLOOKUP(TODAY(),Tabela25[],6)</f>
-        <v>145.13999999999999</v>
+        <v>145.99199999999999</v>
       </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.25">
@@ -24162,7 +24344,7 @@
       </c>
       <c r="K14" s="96">
         <f ca="1">J14*VLOOKUP(TODAY(),Tabela25[],6)</f>
-        <v>580.55999999999995</v>
+        <v>583.96799999999996</v>
       </c>
     </row>
     <row r="15" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -24171,11 +24353,11 @@
       </c>
       <c r="J15" s="107">
         <f>SUM(Tabela3[Valor])</f>
-        <v>23.529999999999998</v>
+        <v>24.359999999999996</v>
       </c>
       <c r="K15" s="97">
         <f ca="1">J15*VLOOKUP(TODAY(),Tabela25[],6)</f>
-        <v>85.378604999999993</v>
+        <v>88.909127999999981</v>
       </c>
     </row>
     <row r="16" spans="2:13" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -24184,11 +24366,11 @@
       </c>
       <c r="J16" s="112">
         <f>J15-J14</f>
-        <v>-136.47</v>
+        <v>-135.64000000000001</v>
       </c>
       <c r="K16" s="113">
         <f ca="1">J16*VLOOKUP(TODAY(),Tabela25[],6)</f>
-        <v>-495.18139499999995</v>
+        <v>-495.05887200000006</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -24225,11 +24407,12 @@
         <v>0.84</v>
       </c>
       <c r="D21" s="11">
+        <f>IFERROR(C21+D20,Tabela3[[#This Row],[Valor]])</f>
         <v>0.84</v>
       </c>
       <c r="E21" s="13">
         <f>IFERROR(Tabela3[[#This Row],[Saldo disponível para saque]]*VLOOKUP(Tabela3[[#This Row],[Data]],Tabela25[],6),Tabela3[[#This Row],[Saldo disponível para saque]]*Cotação!J2)</f>
-        <v>3.0138540000000003</v>
+        <v>3.0156057931034481</v>
       </c>
       <c r="F21" s="93">
         <v>0.4</v>
@@ -24250,11 +24433,11 @@
         <v>0.85</v>
       </c>
       <c r="D22" s="11">
-        <f>C22+D21</f>
+        <f>IFERROR(C22+D21,Tabela3[[#This Row],[Valor]])</f>
         <v>1.69</v>
       </c>
       <c r="E22" s="13">
-        <f>IFERROR(Tabela3[[#This Row],[Saldo disponível para saque]]*VLOOKUP(Tabela3[[#This Row],[Data]],Tabela25[],6),Tabela3[[#This Row],[Saldo disponível para saque]]*Cotação!I3)</f>
+        <f>IFERROR(Tabela3[[#This Row],[Saldo disponível para saque]]*VLOOKUP(Tabela3[[#This Row],[Data]],Tabela25[],6),Tabela3[[#This Row],[Saldo disponível para saque]]*Cotação!J3)</f>
         <v>5.8735949999999999</v>
       </c>
       <c r="F22" s="93">
@@ -24276,11 +24459,11 @@
         <v>0.83</v>
       </c>
       <c r="D23" s="11">
-        <f t="shared" ref="D23:D34" si="0">C23+D22</f>
+        <f>IFERROR(C23+D22,Tabela3[[#This Row],[Valor]])</f>
         <v>2.52</v>
       </c>
       <c r="E23" s="13">
-        <f>IFERROR(Tabela3[[#This Row],[Saldo disponível para saque]]*VLOOKUP(Tabela3[[#This Row],[Data]],Tabela25[],6),Tabela3[[#This Row],[Saldo disponível para saque]]*Cotação!I4)</f>
+        <f>IFERROR(Tabela3[[#This Row],[Saldo disponível para saque]]*VLOOKUP(Tabela3[[#This Row],[Data]],Tabela25[],6),Tabela3[[#This Row],[Saldo disponível para saque]]*Cotação!J4)</f>
         <v>8.7192000000000007</v>
       </c>
       <c r="F23" s="93">
@@ -24302,11 +24485,11 @@
         <v>0.84</v>
       </c>
       <c r="D24" s="11">
-        <f t="shared" si="0"/>
+        <f>IFERROR(C24+D23,Tabela3[[#This Row],[Valor]])</f>
         <v>3.36</v>
       </c>
       <c r="E24" s="13">
-        <f>IFERROR(Tabela3[[#This Row],[Saldo disponível para saque]]*VLOOKUP(Tabela3[[#This Row],[Data]],Tabela25[],6),Tabela3[[#This Row],[Saldo disponível para saque]]*Cotação!I5)</f>
+        <f>IFERROR(Tabela3[[#This Row],[Saldo disponível para saque]]*VLOOKUP(Tabela3[[#This Row],[Data]],Tabela25[],6),Tabela3[[#This Row],[Saldo disponível para saque]]*Cotação!J5)</f>
         <v>11.616864</v>
       </c>
       <c r="F24" s="93">
@@ -24328,11 +24511,11 @@
         <v>0.8</v>
       </c>
       <c r="D25" s="11">
-        <f t="shared" si="0"/>
+        <f>IFERROR(C25+D24,Tabela3[[#This Row],[Valor]])</f>
         <v>4.16</v>
       </c>
       <c r="E25" s="13">
-        <f>IFERROR(Tabela3[[#This Row],[Saldo disponível para saque]]*VLOOKUP(Tabela3[[#This Row],[Data]],Tabela25[],6),Tabela3[[#This Row],[Saldo disponível para saque]]*Cotação!I6)</f>
+        <f>IFERROR(Tabela3[[#This Row],[Saldo disponível para saque]]*VLOOKUP(Tabela3[[#This Row],[Data]],Tabela25[],6),Tabela3[[#This Row],[Saldo disponível para saque]]*Cotação!J6)</f>
         <v>14.382783999999999</v>
       </c>
       <c r="F25" s="93">
@@ -24354,11 +24537,11 @@
         <v>0.83</v>
       </c>
       <c r="D26" s="11">
-        <f t="shared" si="0"/>
+        <f>IFERROR(C26+D25,Tabela3[[#This Row],[Valor]])</f>
         <v>4.99</v>
       </c>
       <c r="E26" s="13">
-        <f>IFERROR(Tabela3[[#This Row],[Saldo disponível para saque]]*VLOOKUP(Tabela3[[#This Row],[Data]],Tabela25[],6),Tabela3[[#This Row],[Saldo disponível para saque]]*Cotação!I7)</f>
+        <f>IFERROR(Tabela3[[#This Row],[Saldo disponível para saque]]*VLOOKUP(Tabela3[[#This Row],[Data]],Tabela25[],6),Tabela3[[#This Row],[Saldo disponível para saque]]*Cotação!J7)</f>
         <v>17.397136000000003</v>
       </c>
       <c r="F26" s="93">
@@ -24380,11 +24563,11 @@
         <v>0.86</v>
       </c>
       <c r="D27" s="11">
-        <f t="shared" si="0"/>
+        <f>IFERROR(C27+D26,Tabela3[[#This Row],[Valor]])</f>
         <v>5.8500000000000005</v>
       </c>
       <c r="E27" s="13">
-        <f>IFERROR(Tabela3[[#This Row],[Saldo disponível para saque]]*VLOOKUP(Tabela3[[#This Row],[Data]],Tabela25[],6),Tabela3[[#This Row],[Saldo disponível para saque]]*Cotação!I8)</f>
+        <f>IFERROR(Tabela3[[#This Row],[Saldo disponível para saque]]*VLOOKUP(Tabela3[[#This Row],[Data]],Tabela25[],6),Tabela3[[#This Row],[Saldo disponível para saque]]*Cotação!J8)</f>
         <v>20.519460000000002</v>
       </c>
       <c r="F27" s="93">
@@ -24406,11 +24589,11 @@
         <v>0.84</v>
       </c>
       <c r="D28" s="11">
-        <f t="shared" si="0"/>
+        <f>IFERROR(C28+D27,Tabela3[[#This Row],[Valor]])</f>
         <v>6.69</v>
       </c>
       <c r="E28" s="13">
-        <f>IFERROR(Tabela3[[#This Row],[Saldo disponível para saque]]*VLOOKUP(Tabela3[[#This Row],[Data]],Tabela25[],6),Tabela3[[#This Row],[Saldo disponível para saque]]*Cotação!I9)</f>
+        <f>IFERROR(Tabela3[[#This Row],[Saldo disponível para saque]]*VLOOKUP(Tabela3[[#This Row],[Data]],Tabela25[],6),Tabela3[[#This Row],[Saldo disponível para saque]]*Cotação!J9)</f>
         <v>23.728092000000004</v>
       </c>
       <c r="F28" s="93">
@@ -24432,11 +24615,11 @@
         <v>0.85</v>
       </c>
       <c r="D29" s="11">
-        <f t="shared" si="0"/>
+        <f>IFERROR(C29+D28,Tabela3[[#This Row],[Valor]])</f>
         <v>7.54</v>
       </c>
       <c r="E29" s="13">
-        <f>IFERROR(Tabela3[[#This Row],[Saldo disponível para saque]]*VLOOKUP(Tabela3[[#This Row],[Data]],Tabela25[],6),Tabela3[[#This Row],[Saldo disponível para saque]]*Cotação!I10)</f>
+        <f>IFERROR(Tabela3[[#This Row],[Saldo disponível para saque]]*VLOOKUP(Tabela3[[#This Row],[Data]],Tabela25[],6),Tabela3[[#This Row],[Saldo disponível para saque]]*Cotação!J10)</f>
         <v>26.829582000000002</v>
       </c>
       <c r="F29" s="93">
@@ -24458,11 +24641,11 @@
         <v>0.85</v>
       </c>
       <c r="D30" s="11">
-        <f t="shared" si="0"/>
+        <f>IFERROR(C30+D29,Tabela3[[#This Row],[Valor]])</f>
         <v>8.39</v>
       </c>
       <c r="E30" s="13">
-        <f>IFERROR(Tabela3[[#This Row],[Saldo disponível para saque]]*VLOOKUP(Tabela3[[#This Row],[Data]],Tabela25[],6),Tabela3[[#This Row],[Saldo disponível para saque]]*Cotação!I11)</f>
+        <f>IFERROR(Tabela3[[#This Row],[Saldo disponível para saque]]*VLOOKUP(Tabela3[[#This Row],[Data]],Tabela25[],6),Tabela3[[#This Row],[Saldo disponível para saque]]*Cotação!J11)</f>
         <v>29.729126000000004</v>
       </c>
       <c r="F30" s="93">
@@ -24484,11 +24667,11 @@
         <v>0.85</v>
       </c>
       <c r="D31" s="11">
-        <f t="shared" si="0"/>
+        <f>IFERROR(C31+D30,Tabela3[[#This Row],[Valor]])</f>
         <v>9.24</v>
       </c>
       <c r="E31" s="13">
-        <f>IFERROR(Tabela3[[#This Row],[Saldo disponível para saque]]*VLOOKUP(Tabela3[[#This Row],[Data]],Tabela25[],6),Tabela3[[#This Row],[Saldo disponível para saque]]*Cotação!I12)</f>
+        <f>IFERROR(Tabela3[[#This Row],[Saldo disponível para saque]]*VLOOKUP(Tabela3[[#This Row],[Data]],Tabela25[],6),Tabela3[[#This Row],[Saldo disponível para saque]]*Cotação!J12)</f>
         <v>32.600568000000003</v>
       </c>
       <c r="F31" s="93">
@@ -24512,11 +24695,11 @@
         <v>0.83</v>
       </c>
       <c r="D32" s="11">
-        <f t="shared" si="0"/>
+        <f>IFERROR(C32+D31,Tabela3[[#This Row],[Valor]])</f>
         <v>10.07</v>
       </c>
       <c r="E32" s="13">
-        <f>IFERROR(Tabela3[[#This Row],[Saldo disponível para saque]]*VLOOKUP(Tabela3[[#This Row],[Data]],Tabela25[],6),Tabela3[[#This Row],[Saldo disponível para saque]]*Cotação!I13)</f>
+        <f>IFERROR(Tabela3[[#This Row],[Saldo disponível para saque]]*VLOOKUP(Tabela3[[#This Row],[Data]],Tabela25[],6),Tabela3[[#This Row],[Saldo disponível para saque]]*Cotação!J13)</f>
         <v>35.528973999999998</v>
       </c>
       <c r="F32" s="93">
@@ -24538,11 +24721,11 @@
         <v>0.86</v>
       </c>
       <c r="D33" s="11">
-        <f t="shared" si="0"/>
+        <f>IFERROR(C33+D32,Tabela3[[#This Row],[Valor]])</f>
         <v>10.93</v>
       </c>
       <c r="E33" s="13">
-        <f>IFERROR(Tabela3[[#This Row],[Saldo disponível para saque]]*VLOOKUP(Tabela3[[#This Row],[Data]],Tabela25[],6),Tabela3[[#This Row],[Saldo disponível para saque]]*Cotação!I14)</f>
+        <f>IFERROR(Tabela3[[#This Row],[Saldo disponível para saque]]*VLOOKUP(Tabela3[[#This Row],[Data]],Tabela25[],6),Tabela3[[#This Row],[Saldo disponível para saque]]*Cotação!J14)</f>
         <v>38.769802999999996</v>
       </c>
       <c r="F33" s="93">
@@ -24564,11 +24747,11 @@
         <v>0.84</v>
       </c>
       <c r="D34" s="11">
-        <f t="shared" si="0"/>
+        <f>IFERROR(C34+D33,Tabela3[[#This Row],[Valor]])</f>
         <v>11.77</v>
       </c>
       <c r="E34" s="13">
-        <f>IFERROR(Tabela3[[#This Row],[Saldo disponível para saque]]*VLOOKUP(Tabela3[[#This Row],[Data]],Tabela25[],6),Tabela3[[#This Row],[Saldo disponível para saque]]*Cotação!I15)</f>
+        <f>IFERROR(Tabela3[[#This Row],[Saldo disponível para saque]]*VLOOKUP(Tabela3[[#This Row],[Data]],Tabela25[],6),Tabela3[[#This Row],[Saldo disponível para saque]]*Cotação!J15)</f>
         <v>42.101289999999999</v>
       </c>
       <c r="F34" s="93">
@@ -24590,11 +24773,11 @@
         <v>0.86</v>
       </c>
       <c r="D35" s="11">
-        <f t="shared" ref="D35:D42" si="1">C35+D34</f>
+        <f>IFERROR(C35+D34,Tabela3[[#This Row],[Valor]])</f>
         <v>12.629999999999999</v>
       </c>
       <c r="E35" s="13">
-        <f>IFERROR(Tabela3[[#This Row],[Saldo disponível para saque]]*VLOOKUP(Tabela3[[#This Row],[Data]],Tabela25[],6),Tabela3[[#This Row],[Saldo disponível para saque]]*Cotação!I16)</f>
+        <f>IFERROR(Tabela3[[#This Row],[Saldo disponível para saque]]*VLOOKUP(Tabela3[[#This Row],[Data]],Tabela25[],6),Tabela3[[#This Row],[Saldo disponível para saque]]*Cotação!J16)</f>
         <v>45.382115999999996</v>
       </c>
       <c r="F35" s="93">
@@ -24616,11 +24799,11 @@
         <v>0.82</v>
       </c>
       <c r="D36" s="11">
-        <f t="shared" si="1"/>
+        <f>IFERROR(C36+D35,Tabela3[[#This Row],[Valor]])</f>
         <v>13.45</v>
       </c>
       <c r="E36" s="13">
-        <f>IFERROR(Tabela3[[#This Row],[Saldo disponível para saque]]*VLOOKUP(Tabela3[[#This Row],[Data]],Tabela25[],6),Tabela3[[#This Row],[Saldo disponível para saque]]*Cotação!I17)</f>
+        <f>IFERROR(Tabela3[[#This Row],[Saldo disponível para saque]]*VLOOKUP(Tabela3[[#This Row],[Data]],Tabela25[],6),Tabela3[[#This Row],[Saldo disponível para saque]]*Cotação!J17)</f>
         <v>47.764984999999996</v>
       </c>
       <c r="F36" s="93">
@@ -24642,11 +24825,11 @@
         <v>0.82</v>
       </c>
       <c r="D37" s="11">
-        <f t="shared" si="1"/>
+        <f>IFERROR(C37+D36,Tabela3[[#This Row],[Valor]])</f>
         <v>14.27</v>
       </c>
       <c r="E37" s="13">
-        <f>IFERROR(Tabela3[[#This Row],[Saldo disponível para saque]]*VLOOKUP(Tabela3[[#This Row],[Data]],Tabela25[],6),Tabela3[[#This Row],[Saldo disponível para saque]]*Cotação!I18)</f>
+        <f>IFERROR(Tabela3[[#This Row],[Saldo disponível para saque]]*VLOOKUP(Tabela3[[#This Row],[Data]],Tabela25[],6),Tabela3[[#This Row],[Saldo disponível para saque]]*Cotação!J18)</f>
         <v>51.362010999999995</v>
       </c>
       <c r="F37" s="93">
@@ -24668,11 +24851,11 @@
         <v>0.83</v>
       </c>
       <c r="D38" s="11">
-        <f t="shared" si="1"/>
+        <f>IFERROR(C38+D37,Tabela3[[#This Row],[Valor]])</f>
         <v>15.1</v>
       </c>
       <c r="E38" s="13">
-        <f>IFERROR(Tabela3[[#This Row],[Saldo disponível para saque]]*VLOOKUP(Tabela3[[#This Row],[Data]],Tabela25[],6),Tabela3[[#This Row],[Saldo disponível para saque]]*Cotação!I19)</f>
+        <f>IFERROR(Tabela3[[#This Row],[Saldo disponível para saque]]*VLOOKUP(Tabela3[[#This Row],[Data]],Tabela25[],6),Tabela3[[#This Row],[Saldo disponível para saque]]*Cotação!J19)</f>
         <v>54.349429999999998</v>
       </c>
       <c r="F38" s="93">
@@ -24694,11 +24877,11 @@
         <v>0.83</v>
       </c>
       <c r="D39" s="11">
-        <f t="shared" si="1"/>
+        <f>IFERROR(C39+D38,Tabela3[[#This Row],[Valor]])</f>
         <v>15.93</v>
       </c>
       <c r="E39" s="13">
-        <f>IFERROR(Tabela3[[#This Row],[Saldo disponível para saque]]*VLOOKUP(Tabela3[[#This Row],[Data]],Tabela25[],6),Tabela3[[#This Row],[Saldo disponível para saque]]*Cotação!I20)</f>
+        <f>IFERROR(Tabela3[[#This Row],[Saldo disponível para saque]]*VLOOKUP(Tabela3[[#This Row],[Data]],Tabela25[],6),Tabela3[[#This Row],[Saldo disponível para saque]]*Cotação!J20)</f>
         <v>57.336849000000001</v>
       </c>
       <c r="F39" s="93">
@@ -24720,11 +24903,11 @@
         <v>0.84</v>
       </c>
       <c r="D40" s="11">
-        <f t="shared" si="1"/>
+        <f>IFERROR(C40+D39,Tabela3[[#This Row],[Valor]])</f>
         <v>16.77</v>
       </c>
       <c r="E40" s="13">
-        <f>IFERROR(Tabela3[[#This Row],[Saldo disponível para saque]]*VLOOKUP(Tabela3[[#This Row],[Data]],Tabela25[],6),Tabela3[[#This Row],[Saldo disponível para saque]]*Cotação!I21)</f>
+        <f>IFERROR(Tabela3[[#This Row],[Saldo disponível para saque]]*VLOOKUP(Tabela3[[#This Row],[Data]],Tabela25[],6),Tabela3[[#This Row],[Saldo disponível para saque]]*Cotação!J21)</f>
         <v>60.811373999999994</v>
       </c>
       <c r="F40" s="93">
@@ -24746,11 +24929,11 @@
         <v>0</v>
       </c>
       <c r="D41" s="11">
-        <f t="shared" si="1"/>
+        <f>IFERROR(C41+D40,Tabela3[[#This Row],[Valor]])</f>
         <v>16.77</v>
       </c>
       <c r="E41" s="13">
-        <f>IFERROR(Tabela3[[#This Row],[Saldo disponível para saque]]*VLOOKUP(Tabela3[[#This Row],[Data]],Tabela25[],6),Tabela3[[#This Row],[Saldo disponível para saque]]*Cotação!I22)</f>
+        <f>IFERROR(Tabela3[[#This Row],[Saldo disponível para saque]]*VLOOKUP(Tabela3[[#This Row],[Data]],Tabela25[],6),Tabela3[[#This Row],[Saldo disponível para saque]]*Cotação!J22)</f>
         <v>61.287641999999998</v>
       </c>
       <c r="F41" s="93">
@@ -24772,11 +24955,11 @@
         <v>0.83</v>
       </c>
       <c r="D42" s="11">
-        <f t="shared" si="1"/>
+        <f>IFERROR(C42+D41,Tabela3[[#This Row],[Valor]])</f>
         <v>17.599999999999998</v>
       </c>
       <c r="E42" s="13">
-        <f>IFERROR(Tabela3[[#This Row],[Saldo disponível para saque]]*VLOOKUP(Tabela3[[#This Row],[Data]],Tabela25[],6),Tabela3[[#This Row],[Saldo disponível para saque]]*Cotação!I23)</f>
+        <f>IFERROR(Tabela3[[#This Row],[Saldo disponível para saque]]*VLOOKUP(Tabela3[[#This Row],[Data]],Tabela25[],6),Tabela3[[#This Row],[Saldo disponível para saque]]*Cotação!J23)</f>
         <v>64.715199999999996</v>
       </c>
       <c r="F42" s="93">
@@ -24798,11 +24981,11 @@
         <v>0.86</v>
       </c>
       <c r="D43" s="11">
-        <f t="shared" ref="D43" si="2">C43+D42</f>
+        <f>IFERROR(C43+D42,Tabela3[[#This Row],[Valor]])</f>
         <v>18.459999999999997</v>
       </c>
       <c r="E43" s="13">
-        <f>IFERROR(Tabela3[[#This Row],[Saldo disponível para saque]]*VLOOKUP(Tabela3[[#This Row],[Data]],Tabela25[],6),Tabela3[[#This Row],[Saldo disponível para saque]]*Cotação!I24)</f>
+        <f>IFERROR(Tabela3[[#This Row],[Saldo disponível para saque]]*VLOOKUP(Tabela3[[#This Row],[Data]],Tabela25[],6),Tabela3[[#This Row],[Saldo disponível para saque]]*Cotação!J24)</f>
         <v>67.877419999999987</v>
       </c>
       <c r="F43" s="93">
@@ -24824,11 +25007,11 @@
         <v>0.86</v>
       </c>
       <c r="D44" s="11">
-        <f t="shared" ref="D44" si="3">C44+D43</f>
+        <f>IFERROR(C44+D43,Tabela3[[#This Row],[Valor]])</f>
         <v>19.319999999999997</v>
       </c>
       <c r="E44" s="13">
-        <f>IFERROR(Tabela3[[#This Row],[Saldo disponível para saque]]*VLOOKUP(Tabela3[[#This Row],[Data]],Tabela25[],6),Tabela3[[#This Row],[Saldo disponível para saque]]*Cotação!I25)</f>
+        <f>IFERROR(Tabela3[[#This Row],[Saldo disponível para saque]]*VLOOKUP(Tabela3[[#This Row],[Data]],Tabela25[],6),Tabela3[[#This Row],[Saldo disponível para saque]]*Cotação!J25)</f>
         <v>71.412515999999982</v>
       </c>
       <c r="F44" s="93">
@@ -24850,11 +25033,11 @@
         <v>0</v>
       </c>
       <c r="D45" s="11">
-        <f t="shared" ref="D45:D47" si="4">C45+D44</f>
+        <f>IFERROR(C45+D44,Tabela3[[#This Row],[Valor]])</f>
         <v>19.319999999999997</v>
       </c>
       <c r="E45" s="13">
-        <f>IFERROR(Tabela3[[#This Row],[Saldo disponível para saque]]*VLOOKUP(Tabela3[[#This Row],[Data]],Tabela25[],6),Tabela3[[#This Row],[Saldo disponível para saque]]*Cotação!I26)</f>
+        <f>IFERROR(Tabela3[[#This Row],[Saldo disponível para saque]]*VLOOKUP(Tabela3[[#This Row],[Data]],Tabela25[],6),Tabela3[[#This Row],[Saldo disponível para saque]]*Cotação!J26)</f>
         <v>72.440339999999978</v>
       </c>
       <c r="F45" s="93">
@@ -24876,11 +25059,11 @@
         <v>0.84</v>
       </c>
       <c r="D46" s="11">
-        <f t="shared" si="4"/>
+        <f>IFERROR(C46+D45,Tabela3[[#This Row],[Valor]])</f>
         <v>20.159999999999997</v>
       </c>
       <c r="E46" s="13">
-        <f>IFERROR(Tabela3[[#This Row],[Saldo disponível para saque]]*VLOOKUP(Tabela3[[#This Row],[Data]],Tabela25[],6),Tabela3[[#This Row],[Saldo disponível para saque]]*Cotação!I27)</f>
+        <f>IFERROR(Tabela3[[#This Row],[Saldo disponível para saque]]*VLOOKUP(Tabela3[[#This Row],[Data]],Tabela25[],6),Tabela3[[#This Row],[Saldo disponível para saque]]*Cotação!J27)</f>
         <v>75.325823999999997</v>
       </c>
       <c r="F46" s="93">
@@ -24902,11 +25085,11 @@
         <v>0.85</v>
       </c>
       <c r="D47" s="11">
-        <f t="shared" si="4"/>
+        <f>IFERROR(C47+D46,Tabela3[[#This Row],[Valor]])</f>
         <v>21.009999999999998</v>
       </c>
       <c r="E47" s="13">
-        <f>IFERROR(Tabela3[[#This Row],[Saldo disponível para saque]]*VLOOKUP(Tabela3[[#This Row],[Data]],Tabela25[],6),Tabela3[[#This Row],[Saldo disponível para saque]]*Cotação!I28)</f>
+        <f>IFERROR(Tabela3[[#This Row],[Saldo disponível para saque]]*VLOOKUP(Tabela3[[#This Row],[Data]],Tabela25[],6),Tabela3[[#This Row],[Saldo disponível para saque]]*Cotação!J28)</f>
         <v>78.501763999999994</v>
       </c>
       <c r="F47" s="93">
@@ -24928,11 +25111,11 @@
         <v>0.83</v>
       </c>
       <c r="D48" s="11">
-        <f t="shared" ref="D48" si="5">C48+D47</f>
+        <f>IFERROR(C48+D47,Tabela3[[#This Row],[Valor]])</f>
         <v>21.839999999999996</v>
       </c>
       <c r="E48" s="13">
-        <f>IFERROR(Tabela3[[#This Row],[Saldo disponível para saque]]*VLOOKUP(Tabela3[[#This Row],[Data]],Tabela25[],6),Tabela3[[#This Row],[Saldo disponível para saque]]*Cotação!I29)</f>
+        <f>IFERROR(Tabela3[[#This Row],[Saldo disponível para saque]]*VLOOKUP(Tabela3[[#This Row],[Data]],Tabela25[],6),Tabela3[[#This Row],[Saldo disponível para saque]]*Cotação!J29)</f>
         <v>81.602975999999984</v>
       </c>
       <c r="F48" s="93">
@@ -24954,11 +25137,11 @@
         <v>0.84</v>
       </c>
       <c r="D49" s="11">
-        <f t="shared" ref="D49" si="6">C49+D48</f>
+        <f>IFERROR(C49+D48,Tabela3[[#This Row],[Valor]])</f>
         <v>22.679999999999996</v>
       </c>
       <c r="E49" s="13">
-        <f>IFERROR(Tabela3[[#This Row],[Saldo disponível para saque]]*VLOOKUP(Tabela3[[#This Row],[Data]],Tabela25[],6),Tabela3[[#This Row],[Saldo disponível para saque]]*Cotação!I30)</f>
+        <f>IFERROR(Tabela3[[#This Row],[Saldo disponível para saque]]*VLOOKUP(Tabela3[[#This Row],[Data]],Tabela25[],6),Tabela3[[#This Row],[Saldo disponível para saque]]*Cotação!J30)</f>
         <v>82.716227999999987</v>
       </c>
       <c r="F49" s="93">
@@ -24980,17 +25163,43 @@
         <v>0.85</v>
       </c>
       <c r="D50" s="11">
-        <f t="shared" ref="D50" si="7">C50+D49</f>
+        <f>IFERROR(C50+D49,Tabela3[[#This Row],[Valor]])</f>
         <v>23.529999999999998</v>
       </c>
       <c r="E50" s="13">
-        <f>IFERROR(Tabela3[[#This Row],[Saldo disponível para saque]]*VLOOKUP(Tabela3[[#This Row],[Data]],Tabela25[],6),Tabela3[[#This Row],[Saldo disponível para saque]]*Cotação!I31)</f>
+        <f>IFERROR(Tabela3[[#This Row],[Saldo disponível para saque]]*VLOOKUP(Tabela3[[#This Row],[Data]],Tabela25[],6),Tabela3[[#This Row],[Saldo disponível para saque]]*Cotação!J31)</f>
         <v>85.816262999999992</v>
       </c>
       <c r="F50" s="93">
         <v>0.4</v>
       </c>
       <c r="G50" s="57" t="str">
+        <f>IF(Tabela3[[#This Row],[Saldo disponível para saque]]&gt;=40,"Comprar","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="8">
+        <v>43243.899236111109</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C51" s="11">
+        <v>0.83</v>
+      </c>
+      <c r="D51" s="11">
+        <f>IFERROR(C51+D50,Tabela3[[#This Row],[Valor]])</f>
+        <v>24.359999999999996</v>
+      </c>
+      <c r="E51" s="13">
+        <f>IFERROR(Tabela3[[#This Row],[Saldo disponível para saque]]*VLOOKUP(Tabela3[[#This Row],[Data]],Tabela25[],6),Tabela3[[#This Row],[Saldo disponível para saque]]*Cotação!J32)</f>
+        <v>88.356155999999984</v>
+      </c>
+      <c r="F51" s="93">
+        <v>0.4</v>
+      </c>
+      <c r="G51" s="57" t="str">
         <f>IF(Tabela3[[#This Row],[Saldo disponível para saque]]&gt;=40,"Comprar","")</f>
         <v/>
       </c>
@@ -25009,9 +25218,6 @@
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="D21:D22" calculatedColumn="1"/>
-  </ignoredErrors>
   <drawing r:id="rId2"/>
   <tableParts count="1">
     <tablePart r:id="rId3"/>

--- a/Controle BTC.xlsx
+++ b/Controle BTC.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T-800\Desktop\inestBTC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fjunger\OneDrive\inestBTC\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="105">
   <si>
     <t>Tipo</t>
   </si>
@@ -337,21 +337,30 @@
   <si>
     <t>Mining Bonus - Mining contract #27569 - 0.400 CMP - 2018-05-23</t>
   </si>
+  <si>
+    <t>Mining Bonus - Mining contract #27569 - 0.400 CMP - 2018-05-24</t>
+  </si>
+  <si>
+    <t>Mining Bonus - Mining contract #27569 - 0.400 CMP - 2018-05-25</t>
+  </si>
+  <si>
+    <t>Contratos Ativos:</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="9">
-    <numFmt numFmtId="8" formatCode="&quot;R$&quot;#,##0.00;[Red]\-&quot;R$&quot;#,##0.00"/>
-    <numFmt numFmtId="164" formatCode="[$$-409]#,##0.00"/>
-    <numFmt numFmtId="165" formatCode="&quot;R$&quot;#,##0.00"/>
-    <numFmt numFmtId="166" formatCode="[$$-540A]#,##0.00"/>
-    <numFmt numFmtId="167" formatCode="0.00000000"/>
-    <numFmt numFmtId="168" formatCode="mm/yyyy"/>
-    <numFmt numFmtId="169" formatCode="#,##0.0"/>
-    <numFmt numFmtId="170" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
-    <numFmt numFmtId="171" formatCode="&quot;R$&quot;#,##0.00000000000000000000"/>
+    <numFmt numFmtId="164" formatCode="&quot;R$&quot;#,##0.00;[Red]\-&quot;R$&quot;#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00"/>
+    <numFmt numFmtId="166" formatCode="&quot;R$&quot;#,##0.00"/>
+    <numFmt numFmtId="167" formatCode="[$$-540A]#,##0.00"/>
+    <numFmt numFmtId="168" formatCode="0.00000000"/>
+    <numFmt numFmtId="169" formatCode="mm/yyyy"/>
+    <numFmt numFmtId="170" formatCode="#,##0.0"/>
+    <numFmt numFmtId="171" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
+    <numFmt numFmtId="172" formatCode="&quot;R$&quot;#,##0.00000000000000000000"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -978,16 +987,16 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -999,11 +1008,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1046,59 +1055,59 @@
     <xf numFmtId="10" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1129,7 +1138,7 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1138,69 +1147,69 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="26" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="26" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1209,19 +1218,19 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1229,46 +1238,46 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="3" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="3" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="3" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="31" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="32" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="31" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="32" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="12" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="12" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="8" fontId="12" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="16" fillId="6" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="16" fillId="6" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="166" fontId="16" fillId="6" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1277,10 +1286,10 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1298,7 +1307,7 @@
     <xf numFmtId="14" fontId="7" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="7" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1325,28 +1334,28 @@
     <xf numFmtId="14" fontId="8" fillId="2" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="8" fillId="2" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="8" fillId="2" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="8" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="8" fillId="2" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="8" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="8" fillId="2" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1361,7 +1370,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="8" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1387,10 +1396,10 @@
     </xf>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="Bom" xfId="4" builtinId="26"/>
+    <cellStyle name="Good" xfId="4" builtinId="26"/>
+    <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
+    <cellStyle name="Heading 4" xfId="2" builtinId="19"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Título 1" xfId="1" builtinId="16"/>
-    <cellStyle name="Título 4" xfId="2" builtinId="19"/>
     <cellStyle name="Total" xfId="3" builtinId="25"/>
   </cellStyles>
   <dxfs count="51">
@@ -1428,17 +1437,17 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="169" formatCode="#,##0.0"/>
+      <numFmt numFmtId="170" formatCode="#,##0.0"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;R$&quot;#,##0.00"/>
+      <numFmt numFmtId="166" formatCode="&quot;R$&quot;#,##0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="[$$-409]#,##0.00"/>
+      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="[$$-409]#,##0.00"/>
+      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
@@ -1485,7 +1494,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="[$$-409]#,##0.00"/>
+      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1504,7 +1513,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="165" formatCode="&quot;R$&quot;#,##0.00"/>
+      <numFmt numFmtId="166" formatCode="&quot;R$&quot;#,##0.00"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1523,11 +1532,11 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="165" formatCode="&quot;R$&quot;#,##0.00"/>
+      <numFmt numFmtId="166" formatCode="&quot;R$&quot;#,##0.00"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="[$$-540A]#,##0.00"/>
+      <numFmt numFmtId="167" formatCode="[$$-540A]#,##0.00"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1595,7 +1604,7 @@
       <font>
         <b val="0"/>
       </font>
-      <numFmt numFmtId="165" formatCode="&quot;R$&quot;#,##0.00"/>
+      <numFmt numFmtId="166" formatCode="&quot;R$&quot;#,##0.00"/>
       <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1633,28 +1642,28 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="165" formatCode="&quot;R$&quot;#,##0.00"/>
+      <numFmt numFmtId="166" formatCode="&quot;R$&quot;#,##0.00"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
         <b val="0"/>
       </font>
-      <numFmt numFmtId="165" formatCode="&quot;R$&quot;#,##0.00"/>
+      <numFmt numFmtId="166" formatCode="&quot;R$&quot;#,##0.00"/>
       <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
         <b val="0"/>
       </font>
-      <numFmt numFmtId="165" formatCode="&quot;R$&quot;#,##0.00"/>
+      <numFmt numFmtId="166" formatCode="&quot;R$&quot;#,##0.00"/>
       <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
         <b val="0"/>
       </font>
-      <numFmt numFmtId="168" formatCode="mm/yyyy"/>
+      <numFmt numFmtId="169" formatCode="mm/yyyy"/>
       <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1699,23 +1708,23 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;R$&quot;#,##0.00"/>
+      <numFmt numFmtId="166" formatCode="&quot;R$&quot;#,##0.00"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;R$&quot;#,##0.00"/>
+      <numFmt numFmtId="166" formatCode="&quot;R$&quot;#,##0.00"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;R$&quot;#,##0.00"/>
+      <numFmt numFmtId="166" formatCode="&quot;R$&quot;#,##0.00"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;R$&quot;#,##0.00"/>
+      <numFmt numFmtId="166" formatCode="&quot;R$&quot;#,##0.00"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;R$&quot;#,##0.00"/>
+      <numFmt numFmtId="166" formatCode="&quot;R$&quot;#,##0.00"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1754,27 +1763,27 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;R$&quot;#,##0.00"/>
+      <numFmt numFmtId="166" formatCode="&quot;R$&quot;#,##0.00"/>
       <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;R$&quot;#,##0.00"/>
+      <numFmt numFmtId="166" formatCode="&quot;R$&quot;#,##0.00"/>
       <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;R$&quot;#,##0.00"/>
+      <numFmt numFmtId="166" formatCode="&quot;R$&quot;#,##0.00"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;R$&quot;#,##0.00"/>
+      <numFmt numFmtId="166" formatCode="&quot;R$&quot;#,##0.00"/>
       <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="[$$-409]#,##0.00"/>
+      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="[$$-409]#,##0.00"/>
+      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00"/>
       <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1803,7 +1812,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1929,10 +1938,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Atlas!$A$33:$A$60</c:f>
+              <c:f>Atlas!$A$33:$A$62</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43216.500694444447</c:v>
                 </c:pt>
@@ -2016,16 +2025,22 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>43244.419444444444</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43245.420138888891</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43246.420138888891</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Atlas!$F$33:$F$60</c:f>
+              <c:f>Atlas!$F$33:$F$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>2E-3</c:v>
                 </c:pt>
@@ -2109,6 +2124,12 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>2.0725000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.07653E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.0799899999999999E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2124,11 +2145,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1244493648"/>
-        <c:axId val="1244482768"/>
+        <c:axId val="1013629856"/>
+        <c:axId val="1013627680"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="1244493648"/>
+        <c:axId val="1013629856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2170,14 +2191,14 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1244482768"/>
+        <c:crossAx val="1013627680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="1244482768"/>
+        <c:axId val="1013627680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2227,7 +2248,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1244493648"/>
+        <c:crossAx val="1013629856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2290,7 +2311,7 @@
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2302,7 +2323,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2513,11 +2533,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1244487120"/>
-        <c:axId val="1244492016"/>
+        <c:axId val="1013640192"/>
+        <c:axId val="1013626592"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="1244487120"/>
+        <c:axId val="1013640192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2560,14 +2580,14 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1244492016"/>
+        <c:crossAx val="1013626592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="1244492016"/>
+        <c:axId val="1013626592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2618,7 +2638,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1244487120"/>
+        <c:crossAx val="1013640192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2670,7 +2690,7 @@
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2682,7 +2702,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2893,11 +2912,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1244490384"/>
-        <c:axId val="1244491472"/>
+        <c:axId val="1013636928"/>
+        <c:axId val="1013640736"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="1244490384"/>
+        <c:axId val="1013636928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2940,14 +2959,14 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1244491472"/>
+        <c:crossAx val="1013640736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="1244491472"/>
+        <c:axId val="1013640736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2998,7 +3017,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1244490384"/>
+        <c:crossAx val="1013636928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3050,7 +3069,7 @@
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3126,10 +3145,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Atlas!$A$33:$A$60</c:f>
+              <c:f>Atlas!$A$33:$A$62</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43216.500694444447</c:v>
                 </c:pt>
@@ -3213,16 +3232,22 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>43244.419444444444</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43245.420138888891</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43246.420138888891</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Atlas!$F$33:$F$60</c:f>
+              <c:f>Atlas!$F$33:$F$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>2E-3</c:v>
                 </c:pt>
@@ -3306,6 +3331,12 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>2.0725000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.07653E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.0799899999999999E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3321,11 +3352,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1267230128"/>
-        <c:axId val="1267237200"/>
+        <c:axId val="1013637472"/>
+        <c:axId val="1013638016"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="1267230128"/>
+        <c:axId val="1013637472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3368,14 +3399,14 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1267237200"/>
+        <c:crossAx val="1013638016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="1267237200"/>
+        <c:axId val="1013638016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3426,7 +3457,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1267230128"/>
+        <c:crossAx val="1013637472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3478,7 +3509,7 @@
 <file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3567,7 +3598,7 @@
                   <c:v>0.24225165700000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.37925577300000002</c:v>
+                  <c:v>0.435330367</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -3667,7 +3698,7 @@
                   <c:v>0.859536144</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.4081716499999999</c:v>
+                  <c:v>1.6173924099999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -3704,11 +3735,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1267231760"/>
-        <c:axId val="1267238288"/>
+        <c:axId val="950945296"/>
+        <c:axId val="950945840"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1267231760"/>
+        <c:axId val="950945296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3751,7 +3782,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1267238288"/>
+        <c:crossAx val="950945840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3759,7 +3790,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1267238288"/>
+        <c:axId val="950945840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3810,7 +3841,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1267231760"/>
+        <c:crossAx val="950945296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3862,7 +3893,7 @@
 <file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3938,10 +3969,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Atlas!$A$33:$A$60</c:f>
+              <c:f>Atlas!$A$33:$A$62</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43216.500694444447</c:v>
                 </c:pt>
@@ -4025,16 +4056,22 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>43244.419444444444</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43245.420138888891</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43246.420138888891</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Atlas!$L$33:$L$60</c:f>
+              <c:f>Atlas!$L$33:$L$62</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4118,6 +4155,12 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>1.711004562678834E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.9445114595898674E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.6662412775158557E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4133,11 +4176,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1267235024"/>
-        <c:axId val="1267230672"/>
+        <c:axId val="1174094128"/>
+        <c:axId val="1306029984"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="1267235024"/>
+        <c:axId val="1174094128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4180,14 +4223,14 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1267230672"/>
+        <c:crossAx val="1306029984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="1267230672"/>
+        <c:axId val="1306029984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4238,7 +4281,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1267235024"/>
+        <c:crossAx val="1174094128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4290,7 +4333,7 @@
 <file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4343,7 +4386,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>AWS!$D$20</c:f>
+              <c:f>AWS!$D$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4366,10 +4409,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>AWS!$A$21:$A$51</c:f>
+              <c:f>AWS!$A$22:$A$54</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>43215.853043981479</c:v>
                 </c:pt>
@@ -4462,16 +4505,22 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>43243.899236111109</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43244.978206018517</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43245.878553240742</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>AWS!$D$21:$D$51</c:f>
+              <c:f>AWS!$D$22:$D$54</c:f>
               <c:numCache>
                 <c:formatCode>[$$-409]#,##0.00</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0.84</c:v>
                 </c:pt>
@@ -4564,6 +4613,12 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>24.359999999999996</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>25.199999999999996</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>26.049999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4579,11 +4634,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1267225232"/>
-        <c:axId val="1267231216"/>
+        <c:axId val="1306035968"/>
+        <c:axId val="1306033248"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="1267225232"/>
+        <c:axId val="1306035968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4626,14 +4681,14 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1267231216"/>
+        <c:crossAx val="1306033248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="1267231216"/>
+        <c:axId val="1306033248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4684,7 +4739,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1267225232"/>
+        <c:crossAx val="1306035968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4736,7 +4791,7 @@
 <file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4789,7 +4844,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>AWS!$C$20</c:f>
+              <c:f>AWS!$C$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4812,10 +4867,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>AWS!$A$21:$A$51</c:f>
+              <c:f>AWS!$A$22:$A$54</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>43215.853043981479</c:v>
                 </c:pt>
@@ -4908,16 +4963,22 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>43243.899236111109</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43244.978206018517</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43245.878553240742</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>AWS!$C$21:$C$51</c:f>
+              <c:f>AWS!$C$22:$C$54</c:f>
               <c:numCache>
                 <c:formatCode>[$$-409]#,##0.00</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0.84</c:v>
                 </c:pt>
@@ -5010,6 +5071,12 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.85</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5025,11 +5092,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1267228496"/>
-        <c:axId val="1267225776"/>
+        <c:axId val="1306039776"/>
+        <c:axId val="1306035424"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="1267228496"/>
+        <c:axId val="1306039776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5072,14 +5139,14 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1267225776"/>
+        <c:crossAx val="1306035424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="1267225776"/>
+        <c:axId val="1306035424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5130,7 +5197,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1267228496"/>
+        <c:crossAx val="1306039776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5182,7 +5249,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5225,7 +5292,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5272,7 +5338,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>AWS!$D$20</c:f>
+              <c:f>AWS!$D$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5301,10 +5367,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>AWS!$A$21:$A$51</c:f>
+              <c:f>AWS!$A$22:$A$54</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>43215.853043981479</c:v>
                 </c:pt>
@@ -5397,16 +5463,22 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>43243.899236111109</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43244.978206018517</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43245.878553240742</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>AWS!$D$21:$D$51</c:f>
+              <c:f>AWS!$D$22:$D$54</c:f>
               <c:numCache>
                 <c:formatCode>[$$-409]#,##0.00</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0.84</c:v>
                 </c:pt>
@@ -5499,6 +5571,12 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>24.359999999999996</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>25.199999999999996</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>26.049999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5514,11 +5592,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1244483856"/>
-        <c:axId val="1244480048"/>
+        <c:axId val="1013630944"/>
+        <c:axId val="1013627136"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="1244483856"/>
+        <c:axId val="1013630944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5560,14 +5638,14 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1244480048"/>
+        <c:crossAx val="1013627136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="1244480048"/>
+        <c:axId val="1013627136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5617,7 +5695,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1244483856"/>
+        <c:crossAx val="1013630944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5680,7 +5758,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5732,7 +5810,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5955,11 +6032,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1244484400"/>
-        <c:axId val="1244494192"/>
+        <c:axId val="1013632576"/>
+        <c:axId val="1013635840"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="1244484400"/>
+        <c:axId val="1013632576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6001,14 +6078,14 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1244494192"/>
+        <c:crossAx val="1013635840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="1244494192"/>
+        <c:axId val="1013635840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6058,7 +6135,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1244484400"/>
+        <c:crossAx val="1013632576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6121,7 +6198,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6133,7 +6210,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6209,10 +6285,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Total!$H$20:$H$49</c:f>
+              <c:f>Total!$H$20:$H$51</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>43215</c:v>
                 </c:pt>
@@ -6302,18 +6378,24 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>43244</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43245</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43246</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Total!$L$20:$L$49</c:f>
+              <c:f>Total!$L$20:$L$51</c:f>
               <c:numCache>
                 <c:formatCode>"R$"#,##0.00</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>58.615605793103448</c:v>
+                  <c:v>58.619117161290326</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>126.75359499999999</c:v>
@@ -6400,7 +6482,13 @@
                   <c:v>201.97048415999996</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>202.834431</c:v>
+                  <c:v>206.45323500000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>209.30967449999997</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>208.43155818999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6416,11 +6504,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1244494736"/>
-        <c:axId val="1244486032"/>
+        <c:axId val="1013635296"/>
+        <c:axId val="1013639104"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="1244494736"/>
+        <c:axId val="1013635296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6462,14 +6550,14 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1244486032"/>
+        <c:crossAx val="1013639104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="1244486032"/>
+        <c:axId val="1013639104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6519,7 +6607,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1244494736"/>
+        <c:crossAx val="1013635296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6582,7 +6670,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6670,10 +6758,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Cotação!$A$3:$A$31</c:f>
+              <c:f>Cotação!$A$3:$A$33</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43216</c:v>
                 </c:pt>
@@ -6760,16 +6848,22 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>43244</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43245</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43246</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Cotação!$D$3:$D$31</c:f>
+              <c:f>Cotação!$D$3:$D$33</c:f>
               <c:numCache>
                 <c:formatCode>"R$"#,##0.00</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>32640</c:v>
                 </c:pt>
@@ -6856,6 +6950,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>28390</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>28150</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>27681</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6871,11 +6971,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1244488208"/>
-        <c:axId val="1244484944"/>
+        <c:axId val="1013628224"/>
+        <c:axId val="1013625504"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="1244488208"/>
+        <c:axId val="1013628224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6917,14 +7017,14 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1244484944"/>
+        <c:crossAx val="1013625504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="1244484944"/>
+        <c:axId val="1013625504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6974,7 +7074,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1244488208"/>
+        <c:crossAx val="1013628224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7037,7 +7137,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -7125,10 +7225,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Cotação!$A$3:$A$31</c:f>
+              <c:f>Cotação!$A$3:$A$33</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43216</c:v>
                 </c:pt>
@@ -7215,16 +7315,22 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>43244</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43245</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43246</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Cotação!$F$3:$F$31</c:f>
+              <c:f>Cotação!$F$3:$F$33</c:f>
               <c:numCache>
                 <c:formatCode>"R$"#,##0.00</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>3.4754999999999998</c:v>
                 </c:pt>
@@ -7311,6 +7417,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>3.6497999999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.6551</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.6545000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7326,11 +7438,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1244485488"/>
-        <c:axId val="1244480592"/>
+        <c:axId val="1013628768"/>
+        <c:axId val="1013631488"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="1244485488"/>
+        <c:axId val="1013628768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7372,14 +7484,14 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1244480592"/>
+        <c:crossAx val="1013631488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="1244480592"/>
+        <c:axId val="1013631488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7429,7 +7541,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1244485488"/>
+        <c:crossAx val="1013628768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7492,7 +7604,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -7580,10 +7692,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Cotação!$A$3:$A$31</c:f>
+              <c:f>Cotação!$A$3:$A$33</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43216</c:v>
                 </c:pt>
@@ -7670,16 +7782,22 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>43244</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43245</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43246</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Cotação!$B$3:$B$31</c:f>
+              <c:f>Cotação!$B$3:$B$33</c:f>
               <c:numCache>
                 <c:formatCode>[$$-409]#,##0.00</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>9279.2999999999993</c:v>
                 </c:pt>
@@ -7766,6 +7884,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>7587.4</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7458</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7519.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7781,11 +7905,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1244488752"/>
-        <c:axId val="1244490928"/>
+        <c:axId val="1013633664"/>
+        <c:axId val="1013626048"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="1244488752"/>
+        <c:axId val="1013633664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7827,14 +7951,14 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1244490928"/>
+        <c:crossAx val="1013626048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="1244490928"/>
+        <c:axId val="1013626048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7884,7 +8008,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1244488752"/>
+        <c:crossAx val="1013633664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7947,7 +8071,7 @@
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -8022,10 +8146,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Total!$H$20:$H$49</c:f>
+              <c:f>Total!$H$20:$H$51</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>43215</c:v>
                 </c:pt>
@@ -8115,18 +8239,24 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>43244</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43245</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43246</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Total!$L$20:$L$49</c:f>
+              <c:f>Total!$L$20:$L$51</c:f>
               <c:numCache>
                 <c:formatCode>"R$"#,##0.00</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>58.615605793103448</c:v>
+                  <c:v>58.619117161290326</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>126.75359499999999</c:v>
@@ -8213,7 +8343,13 @@
                   <c:v>201.97048415999996</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>202.834431</c:v>
+                  <c:v>206.45323500000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>209.30967449999997</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>208.43155818999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8229,11 +8365,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1244481136"/>
-        <c:axId val="1244489296"/>
+        <c:axId val="1013639648"/>
+        <c:axId val="1013634752"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="1244481136"/>
+        <c:axId val="1013639648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8276,14 +8412,14 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1244489296"/>
+        <c:crossAx val="1013634752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="1244489296"/>
+        <c:axId val="1013634752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8334,7 +8470,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1244481136"/>
+        <c:crossAx val="1013639648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8386,7 +8522,7 @@
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -8473,10 +8609,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Total!$H$20:$H$49</c:f>
+              <c:f>Total!$H$20:$H$51</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>43215</c:v>
                 </c:pt>
@@ -8566,21 +8702,27 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>43244</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43245</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43246</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Total!$M$20:$M$49</c:f>
+              <c:f>Total!$M$20:$M$51</c:f>
               <c:numCache>
                 <c:formatCode>"R$"#,##0.00</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>68.137989206896549</c:v>
+                  <c:v>68.134477838709671</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>3.1866181360000212</c:v>
@@ -8664,7 +8806,13 @@
                   <c:v>-4.8299368400000162</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.86394684000003963</c:v>
+                  <c:v>4.4827508400000511</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.8564394999999649</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.87811630999999579</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8681,11 +8829,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1244489840"/>
-        <c:axId val="1244486576"/>
+        <c:axId val="1013634208"/>
+        <c:axId val="1013636384"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="1244489840"/>
+        <c:axId val="1013634208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8728,14 +8876,14 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1244486576"/>
+        <c:crossAx val="1013636384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="1244486576"/>
+        <c:axId val="1013636384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8786,7 +8934,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1244489840"/>
+        <c:crossAx val="1013634208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -18066,7 +18214,7 @@
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>3590925</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>90487</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -18096,7 +18244,7 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -18122,8 +18270,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabela25" displayName="Tabela25" ref="A2:G31" totalsRowShown="0" headerRowDxfId="50" dataDxfId="49">
-  <autoFilter ref="A2:G31"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabela25" displayName="Tabela25" ref="A2:G33" totalsRowShown="0" headerRowDxfId="50" dataDxfId="49">
+  <autoFilter ref="A2:G33"/>
   <tableColumns count="7">
     <tableColumn id="1" name="Data" dataDxfId="48"/>
     <tableColumn id="2" name="BTC/USD" dataDxfId="47"/>
@@ -18144,8 +18292,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabela6" displayName="Tabela6" ref="H19:N49" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40">
-  <autoFilter ref="H19:N49"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabela6" displayName="Tabela6" ref="H19:N51" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40">
+  <autoFilter ref="H19:N51"/>
   <tableColumns count="7">
     <tableColumn id="1" name="Data" dataDxfId="39"/>
     <tableColumn id="2" name="Atlas" dataDxfId="38">
@@ -18195,8 +18343,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A32:N60" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
-  <autoFilter ref="A32:N60"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A32:N62" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
+  <autoFilter ref="A32:N62"/>
   <tableColumns count="14">
     <tableColumn id="1" name="Data " dataDxfId="22"/>
     <tableColumn id="13" name="Mês" dataDxfId="21">
@@ -18234,14 +18382,14 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela3" displayName="Tabela3" ref="A20:G51" totalsRowShown="0">
-  <autoFilter ref="A20:G51"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela3" displayName="Tabela3" ref="A21:G54" totalsRowShown="0">
+  <autoFilter ref="A21:G54"/>
   <tableColumns count="7">
     <tableColumn id="1" name="Data" dataDxfId="8"/>
     <tableColumn id="2" name="Descrição"/>
     <tableColumn id="3" name="Valor" dataDxfId="7"/>
     <tableColumn id="4" name="Saldo disponível para saque" dataDxfId="6">
-      <calculatedColumnFormula>IFERROR(C21+D20,Tabela3[[#This Row],[Valor]])</calculatedColumnFormula>
+      <calculatedColumnFormula>IFERROR(C22+D21,Tabela3[[#This Row],[Valor]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" name="Saldo BRL" dataDxfId="5">
       <calculatedColumnFormula>IFERROR(Tabela3[[#This Row],[Saldo disponível para saque]]*VLOOKUP(Tabela3[[#This Row],[Data]],Tabela25[],6),Tabela3[[#This Row],[Saldo disponível para saque]]*Cotação!J2)</calculatedColumnFormula>
@@ -18256,9 +18404,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -18296,7 +18444,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -18368,7 +18516,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -18737,7 +18885,7 @@
       <c r="Q1" s="121"/>
       <c r="R1" s="120">
         <f>SUM(Atlas!A7,AWS!K1,Easy!L22)</f>
-        <v>202.834431</v>
+        <v>208.43155818999998</v>
       </c>
       <c r="S1" s="120"/>
       <c r="T1" s="120"/>
@@ -18779,7 +18927,7 @@
   <dimension ref="A1:AB33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18857,7 +19005,7 @@
       </c>
       <c r="J2" s="38">
         <f>AVERAGE(Tabela25[USD/BRL])</f>
-        <v>3.5900068965517242</v>
+        <v>3.5941870967741938</v>
       </c>
       <c r="L2" s="27"/>
       <c r="M2" s="27"/>
@@ -18908,7 +19056,7 @@
       </c>
       <c r="J3" s="117">
         <f>AVERAGE(Tabela25[BTC/BRL])</f>
-        <v>32156.11379310345</v>
+        <v>31882.525806451613</v>
       </c>
       <c r="L3" s="27"/>
       <c r="M3" s="27"/>
@@ -18959,7 +19107,7 @@
       </c>
       <c r="J4" s="118">
         <f>AVERAGE(Tabela25[BTC/USD])</f>
-        <v>8816.9448275862051</v>
+        <v>8731.2677419354841</v>
       </c>
       <c r="L4" s="27"/>
       <c r="M4" s="27"/>
@@ -19392,7 +19540,7 @@
       </c>
       <c r="J13" s="117">
         <f>SMALL(Tabela25[BTC/BRL],1)</f>
-        <v>28021</v>
+        <v>27681</v>
       </c>
       <c r="L13" s="27"/>
       <c r="M13" s="27"/>
@@ -19442,7 +19590,7 @@
       </c>
       <c r="J14" s="118">
         <f>SMALL(Tabela25[BTC/USD],1)</f>
-        <v>7494.8</v>
+        <v>7458</v>
       </c>
       <c r="L14" s="27"/>
       <c r="M14" s="27"/>
@@ -20205,6 +20353,30 @@
       <c r="AB31" s="27"/>
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A32" s="8">
+        <v>43245</v>
+      </c>
+      <c r="B32" s="4">
+        <v>7458</v>
+      </c>
+      <c r="C32" s="4" t="str">
+        <f>IF(Tabela25[[#This Row],[BTC/USD]]&lt;B31,"▼",IF(Tabela25[[#This Row],[BTC/USD]]&gt;B31,"▲","-"))</f>
+        <v>▼</v>
+      </c>
+      <c r="D32" s="5">
+        <v>28150</v>
+      </c>
+      <c r="E32" s="5" t="str">
+        <f>IF(Tabela25[[#This Row],[BTC/BRL]]&lt;D31,"▼",IF(Tabela25[[#This Row],[BTC/BRL]]&gt;D31,"▲","-"))</f>
+        <v>▼</v>
+      </c>
+      <c r="F32" s="5">
+        <v>3.6551</v>
+      </c>
+      <c r="G32" s="5" t="str">
+        <f>IF(Tabela25[[#This Row],[USD/BRL]]&lt;F31,"▼",IF(Tabela25[[#This Row],[USD/BRL]]&gt;F31,"▲","-"))</f>
+        <v>▲</v>
+      </c>
       <c r="L32" s="27"/>
       <c r="M32" s="27"/>
       <c r="N32" s="27"/>
@@ -20223,7 +20395,31 @@
       <c r="AA32" s="27"/>
       <c r="AB32" s="27"/>
     </row>
-    <row r="33" spans="12:28" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A33" s="8">
+        <v>43246</v>
+      </c>
+      <c r="B33" s="4">
+        <v>7519.9</v>
+      </c>
+      <c r="C33" s="4" t="str">
+        <f>IF(Tabela25[[#This Row],[BTC/USD]]&lt;B32,"▼",IF(Tabela25[[#This Row],[BTC/USD]]&gt;B32,"▲","-"))</f>
+        <v>▲</v>
+      </c>
+      <c r="D33" s="5">
+        <v>27681</v>
+      </c>
+      <c r="E33" s="5" t="str">
+        <f>IF(Tabela25[[#This Row],[BTC/BRL]]&lt;D32,"▼",IF(Tabela25[[#This Row],[BTC/BRL]]&gt;D32,"▲","-"))</f>
+        <v>▼</v>
+      </c>
+      <c r="F33" s="5">
+        <v>3.6545000000000001</v>
+      </c>
+      <c r="G33" s="5" t="str">
+        <f>IF(Tabela25[[#This Row],[USD/BRL]]&lt;F32,"▼",IF(Tabela25[[#This Row],[USD/BRL]]&gt;F32,"▲","-"))</f>
+        <v>▼</v>
+      </c>
       <c r="L33" s="27"/>
       <c r="M33" s="27"/>
       <c r="N33" s="27"/>
@@ -20288,10 +20484,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A18:R49"/>
+  <dimension ref="A18:R51"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="O55" sqref="O55"/>
+      <selection activeCell="N50" sqref="N50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20347,7 +20543,7 @@
       </c>
       <c r="J20" s="5">
         <f>IFERROR(VLOOKUP(Tabela6[[#This Row],[Data]]+1,Tabela3[[Data]:[Saldo BRL]],5),0)</f>
-        <v>3.0156057931034481</v>
+        <v>3.0191171612903225</v>
       </c>
       <c r="K20" s="5">
         <f>VLOOKUP(Tabela6[[#This Row],[Data]]+1,Tabela16[#All],3)</f>
@@ -20355,7 +20551,7 @@
       </c>
       <c r="L20" s="5">
         <f>SUM(Tabela6[[#This Row],[Atlas]:[Easy]])</f>
-        <v>58.615605793103448</v>
+        <v>58.619117161290326</v>
       </c>
       <c r="M20" s="5">
         <f>IFERROR(Tabela6[[#This Row],[Total]]-L19,0)</f>
@@ -20394,19 +20590,19 @@
       </c>
       <c r="M21" s="5">
         <f>IFERROR(Tabela6[[#This Row],[Total]]-L20,0)</f>
-        <v>68.137989206896549</v>
+        <v>68.134477838709671</v>
       </c>
       <c r="N21" s="3">
         <f>Tabela6[[#This Row],[Variação]]/Tabela6[[#This Row],[Total]]</f>
-        <v>0.53756257727361934</v>
+        <v>0.53753487495727181</v>
       </c>
       <c r="Q21" s="99">
         <f>AVERAGE(Tabela6[Variação %])</f>
-        <v>3.3359449331332162E-2</v>
+        <v>3.2113860740469513E-2</v>
       </c>
       <c r="R21" s="71">
         <f>AVERAGE(Tabela6[Variação])</f>
-        <v>4.8072941735632186</v>
+        <v>4.6816387821471768</v>
       </c>
     </row>
     <row r="22" spans="8:18" x14ac:dyDescent="0.25">
@@ -21202,7 +21398,7 @@
       </c>
       <c r="J49" s="5">
         <f>IFERROR(VLOOKUP(Tabela6[[#This Row],[Data]]+1,Tabela3[[Data]:[Saldo BRL]],5),0)</f>
-        <v>88.356155999999984</v>
+        <v>91.974959999999982</v>
       </c>
       <c r="K49" s="5">
         <f>VLOOKUP(Tabela6[[#This Row],[Data]]+1,Tabela16[#All],3)</f>
@@ -21210,15 +21406,73 @@
       </c>
       <c r="L49" s="5">
         <f>SUM(Tabela6[[#This Row],[Atlas]:[Easy]])</f>
-        <v>202.834431</v>
+        <v>206.45323500000001</v>
       </c>
       <c r="M49" s="5">
         <f>IFERROR(Tabela6[[#This Row],[Total]]-L48,0)</f>
-        <v>0.86394684000003963</v>
+        <v>4.4827508400000511</v>
       </c>
       <c r="N49" s="3">
         <f>Tabela6[[#This Row],[Variação]]/Tabela6[[#This Row],[Total]]</f>
-        <v>4.2593697516771188E-3</v>
+        <v>2.1713153780322458E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H50" s="90">
+        <v>43245</v>
+      </c>
+      <c r="I50" s="5">
+        <f>IFERROR(VLOOKUP(Tabela6[[#This Row],[Data]]+1,Tabela1[[Data ]:[BRL]],9),0)</f>
+        <v>58.454319500000004</v>
+      </c>
+      <c r="J50" s="5">
+        <f>IFERROR(VLOOKUP(Tabela6[[#This Row],[Data]]+1,Tabela3[[Data]:[Saldo BRL]],5),0)</f>
+        <v>95.215354999999988</v>
+      </c>
+      <c r="K50" s="5">
+        <f>VLOOKUP(Tabela6[[#This Row],[Data]]+1,Tabela16[#All],3)</f>
+        <v>55.64</v>
+      </c>
+      <c r="L50" s="5">
+        <f>SUM(Tabela6[[#This Row],[Atlas]:[Easy]])</f>
+        <v>209.30967449999997</v>
+      </c>
+      <c r="M50" s="5">
+        <f>IFERROR(Tabela6[[#This Row],[Total]]-L49,0)</f>
+        <v>2.8564394999999649</v>
+      </c>
+      <c r="N50" s="3">
+        <f>Tabela6[[#This Row],[Variação]]/Tabela6[[#This Row],[Total]]</f>
+        <v>1.3646954001641072E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H51" s="90">
+        <v>43246</v>
+      </c>
+      <c r="I51" s="5">
+        <f>IFERROR(VLOOKUP(Tabela6[[#This Row],[Data]]+1,Tabela1[[Data ]:[BRL]],9),0)</f>
+        <v>57.576203189999994</v>
+      </c>
+      <c r="J51" s="5">
+        <f>IFERROR(VLOOKUP(Tabela6[[#This Row],[Data]]+1,Tabela3[[Data]:[Saldo BRL]],5),0)</f>
+        <v>95.215354999999988</v>
+      </c>
+      <c r="K51" s="5">
+        <f>VLOOKUP(Tabela6[[#This Row],[Data]]+1,Tabela16[#All],3)</f>
+        <v>55.64</v>
+      </c>
+      <c r="L51" s="5">
+        <f>SUM(Tabela6[[#This Row],[Atlas]:[Easy]])</f>
+        <v>208.43155818999998</v>
+      </c>
+      <c r="M51" s="5">
+        <f>IFERROR(Tabela6[[#This Row],[Total]]-L50,0)</f>
+        <v>-0.87811630999999579</v>
+      </c>
+      <c r="N51" s="3">
+        <f>Tabela6[[#This Row],[Variação]]/Tabela6[[#This Row],[Total]]</f>
+        <v>-4.212971958879333E-3</v>
       </c>
     </row>
   </sheetData>
@@ -21958,10 +22212,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y60"/>
+  <dimension ref="A1:Y62"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11:E12"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22178,15 +22432,15 @@
       </c>
       <c r="J6" s="43">
         <f>IF((SUMIFS(Tabela1[Bruto USD],Tabela1[Mês],Plan4!A5,Tabela1[Ano],L$1))=0,"SR",SUMIFS(Tabela1[Bruto USD],Tabela1[Mês],Plan4!A5,Tabela1[Ano],L$1))</f>
-        <v>0.37925577300000002</v>
+        <v>0.435330367</v>
       </c>
       <c r="K6" s="38">
         <f>IF((SUMIFS(Tabela1[Bruto BRL],Tabela1[Mês],Plan4!A5,Tabela1[Ano],L$1))=0,"SR",SUMIFS(Tabela1[Bruto BRL],Tabela1[Mês],Plan4!A5,Tabela1[Ano],L$1))</f>
-        <v>1.4081716499999999</v>
+        <v>1.6173924099999999</v>
       </c>
       <c r="L6" s="39">
         <f>IF((SUMIFS(Tabela1[porcentagem],Tabela1[Mês],Plan4!A5,Tabela1[Ano],L$1))=0,"SR",SUMIFS(Tabela1[porcentagem],Tabela1[Mês],Plan4!A5,Tabela1[Ano],L$1))</f>
-        <v>2.1757865019279638E-2</v>
+        <v>2.536861775638536E-2</v>
       </c>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
@@ -22201,7 +22455,7 @@
     <row r="7" spans="1:22" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="141">
         <f>INDEX(Tabela1[BRL],MATCH(9.99999999999999+307,Tabela1[BRL]))</f>
-        <v>58.838275000000003</v>
+        <v>57.576203189999994</v>
       </c>
       <c r="B7" s="141"/>
       <c r="C7" s="141"/>
@@ -22209,11 +22463,11 @@
       <c r="E7" s="142"/>
       <c r="F7" s="60">
         <f>AVERAGE(Tabela1[porcentagem])</f>
-        <v>1.2874904018532333E-3</v>
+        <v>1.323206675418725E-3</v>
       </c>
       <c r="G7" s="61">
         <f>AVERAGE(Tabela1[Bruto BRL])</f>
-        <v>8.3989177555555558E-2</v>
+        <v>8.5411329448275869E-2</v>
       </c>
       <c r="H7" s="7"/>
       <c r="I7" s="20" t="s">
@@ -22270,10 +22524,7 @@
         <v>SR</v>
       </c>
       <c r="M8" s="3"/>
-      <c r="N8" s="5">
-        <f>INDEX(Tabela25[BTC/BRL],MATCH(999999999999999+307,Tabela25[BTC/BRL]))</f>
-        <v>28390</v>
-      </c>
+      <c r="N8" s="5"/>
       <c r="P8" s="8"/>
       <c r="Q8" s="4"/>
       <c r="R8" s="5"/>
@@ -22335,7 +22586,7 @@
       </c>
       <c r="G10" s="67">
         <f>SMALL(Tabela1[USD],1)</f>
-        <v>15.506441407999999</v>
+        <v>15.486760740000001</v>
       </c>
       <c r="H10" s="7"/>
       <c r="I10" s="21" t="s">
@@ -22366,13 +22617,13 @@
     <row r="11" spans="1:22" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="149" t="str">
         <f>SUM(Tabela1[Variação])&amp;" BTC"</f>
-        <v>0,00007058 BTC</v>
+        <v>0,00007807 BTC</v>
       </c>
       <c r="B11" s="149"/>
       <c r="C11" s="149"/>
       <c r="D11" s="148">
         <f>SUM(Tabela1[Variação])*INDEX(Tabela25[BTC/BRL],MATCH(999999999999999+307,Tabela25[BTC/BRL]))</f>
-        <v>2.0037662000000007</v>
+        <v>2.1610556700000005</v>
       </c>
       <c r="E11" s="148"/>
       <c r="F11" s="68">
@@ -24107,6 +24358,108 @@
         <v>0.61596164256438024</v>
       </c>
     </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A61" s="8">
+        <v>43245.420138888891</v>
+      </c>
+      <c r="B61" s="12">
+        <v>5</v>
+      </c>
+      <c r="C61" s="12">
+        <v>2018</v>
+      </c>
+      <c r="D61" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E61" s="6">
+        <v>2.0725000000000001E-3</v>
+      </c>
+      <c r="F61" s="6">
+        <v>2.07653E-3</v>
+      </c>
+      <c r="G61" s="6">
+        <v>4.0300000000000004E-6</v>
+      </c>
+      <c r="H61" s="72">
+        <f>Tabela1[[#This Row],[Posterior]]*VLOOKUP(Tabela1[[#This Row],[Data ]],Tabela25[],2)</f>
+        <v>15.486760740000001</v>
+      </c>
+      <c r="I61" s="80">
+        <f>Tabela1[[#This Row],[Posterior]]*VLOOKUP(Tabela1[[#This Row],[Data ]],Tabela25[],4)</f>
+        <v>58.454319500000004</v>
+      </c>
+      <c r="J61" s="80">
+        <f>IF(Tabela1[[#This Row],[Tipo]]="Depósito (BTC)","N/A",Tabela1[[#This Row],[Variação]]*VLOOKUP(Tabela1[[#This Row],[Data ]],Tabela25[],4))</f>
+        <v>0.11344450000000002</v>
+      </c>
+      <c r="K61" s="101">
+        <f>IF(Tabela1[[#This Row],[Tipo]]="Depósito (BTC)","N/A",Tabela1[[#This Row],[Variação]]*VLOOKUP(Tabela1[[#This Row],[Data ]],Tabela25[],2))</f>
+        <v>3.0055740000000004E-2</v>
+      </c>
+      <c r="L61" s="81">
+        <f t="shared" ref="L61:L62" si="9">G61/E61</f>
+        <v>1.9445114595898674E-3</v>
+      </c>
+      <c r="M61" s="3">
+        <f t="shared" ref="M61:M62" si="10">L61*30</f>
+        <v>5.8335343787696017E-2</v>
+      </c>
+      <c r="N61" s="3">
+        <f t="shared" ref="N61:N62" si="11">M61*12</f>
+        <v>0.70002412545235226</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A62" s="8">
+        <v>43246.420138888891</v>
+      </c>
+      <c r="B62" s="12">
+        <v>5</v>
+      </c>
+      <c r="C62" s="12">
+        <v>2018</v>
+      </c>
+      <c r="D62" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E62" s="6">
+        <v>2.07653E-3</v>
+      </c>
+      <c r="F62" s="6">
+        <v>2.0799899999999999E-3</v>
+      </c>
+      <c r="G62" s="6">
+        <v>3.4599999999999999E-6</v>
+      </c>
+      <c r="H62" s="72">
+        <f>Tabela1[[#This Row],[Posterior]]*VLOOKUP(Tabela1[[#This Row],[Data ]],Tabela25[],2)</f>
+        <v>15.641316800999999</v>
+      </c>
+      <c r="I62" s="80">
+        <f>Tabela1[[#This Row],[Posterior]]*VLOOKUP(Tabela1[[#This Row],[Data ]],Tabela25[],4)</f>
+        <v>57.576203189999994</v>
+      </c>
+      <c r="J62" s="80">
+        <f>IF(Tabela1[[#This Row],[Tipo]]="Depósito (BTC)","N/A",Tabela1[[#This Row],[Variação]]*VLOOKUP(Tabela1[[#This Row],[Data ]],Tabela25[],4))</f>
+        <v>9.5776260000000002E-2</v>
+      </c>
+      <c r="K62" s="101">
+        <f>IF(Tabela1[[#This Row],[Tipo]]="Depósito (BTC)","N/A",Tabela1[[#This Row],[Variação]]*VLOOKUP(Tabela1[[#This Row],[Data ]],Tabela25[],2))</f>
+        <v>2.6018853999999998E-2</v>
+      </c>
+      <c r="L62" s="81">
+        <f t="shared" si="9"/>
+        <v>1.6662412775158557E-3</v>
+      </c>
+      <c r="M62" s="3">
+        <f t="shared" si="10"/>
+        <v>4.9987238325475671E-2</v>
+      </c>
+      <c r="N62" s="3">
+        <f t="shared" si="11"/>
+        <v>0.59984685990570807</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="M31:N31"/>
@@ -24147,10 +24500,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M51"/>
+  <dimension ref="A1:M54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="M37" sqref="M37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24174,7 +24527,7 @@
       <c r="C1" s="150"/>
       <c r="D1" s="155">
         <f ca="1">TODAY()+(40-K3)/J6</f>
-        <v>43262.619047619046</v>
+        <v>43262.607142857145</v>
       </c>
       <c r="E1" s="158" t="str">
         <f>I6</f>
@@ -24186,7 +24539,7 @@
       <c r="J1" s="137"/>
       <c r="K1" s="148">
         <f>INDEX(Tabela3[Saldo BRL],MATCH(9.99999999999999+307,Tabela3[Saldo BRL]))</f>
-        <v>88.356155999999984</v>
+        <v>95.215354999999988</v>
       </c>
       <c r="L1" s="148"/>
       <c r="M1" s="148"/>
@@ -24207,7 +24560,7 @@
       <c r="C3" s="150"/>
       <c r="D3" s="157">
         <f ca="1">TODAY()+(40-K3)/J7</f>
-        <v>43263.903119868635</v>
+        <v>43263.67178502879</v>
       </c>
       <c r="E3" s="160" t="str">
         <f>I7</f>
@@ -24217,7 +24570,7 @@
       <c r="J3" s="137"/>
       <c r="K3" s="153">
         <f>INDEX(Tabela3[Saldo disponível para saque],MATCH(9.99999999999999+307,Tabela3[Saldo disponível para saque]))</f>
-        <v>24.359999999999996</v>
+        <v>26.049999999999997</v>
       </c>
       <c r="L3" s="153"/>
       <c r="M3" s="153"/>
@@ -24244,7 +24597,7 @@
       </c>
       <c r="K6" s="95">
         <f ca="1">J6*VLOOKUP(TODAY(),Tabela25[],6)</f>
-        <v>3.0658319999999999</v>
+        <v>3.0697800000000002</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
@@ -24253,11 +24606,11 @@
       </c>
       <c r="J7" s="108">
         <f>SUM(Tabela3[Valor])/COUNT(Tabela3[Valor])</f>
-        <v>0.78580645161290308</v>
+        <v>0.78939393939393931</v>
       </c>
       <c r="K7" s="96">
         <f ca="1">J7*VLOOKUP(TODAY(),Tabela25[],6)</f>
-        <v>2.8680363870967738</v>
+        <v>2.8848401515151512</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
@@ -24266,11 +24619,11 @@
       </c>
       <c r="J8" s="108">
         <f>J7*30</f>
-        <v>23.574193548387093</v>
+        <v>23.68181818181818</v>
       </c>
       <c r="K8" s="96">
         <f ca="1">J8*VLOOKUP(TODAY(),Tabela25[],6)</f>
-        <v>86.041091612903216</v>
+        <v>86.545204545454538</v>
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
@@ -24279,11 +24632,11 @@
       </c>
       <c r="J9" s="108">
         <f>J8*12</f>
-        <v>282.89032258064515</v>
+        <v>284.18181818181813</v>
       </c>
       <c r="K9" s="96">
         <f ca="1">J9*VLOOKUP(TODAY(),Tabela25[],6)</f>
-        <v>1032.4930993548387</v>
+        <v>1038.5424545454543</v>
       </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
@@ -24296,7 +24649,7 @@
       </c>
       <c r="K10" s="96">
         <f ca="1">J10*VLOOKUP(TODAY(),Tabela25[],6)</f>
-        <v>3.1388279999999997</v>
+        <v>3.1428699999999998</v>
       </c>
     </row>
     <row r="11" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -24322,123 +24675,107 @@
       </c>
       <c r="K12" s="152"/>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I13" s="104" t="s">
-        <v>89</v>
-      </c>
-      <c r="J13" s="106">
-        <v>40</v>
-      </c>
-      <c r="K13" s="95">
-        <f ca="1">J13*VLOOKUP(TODAY(),Tabela25[],6)</f>
-        <v>145.99199999999999</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="J13" s="151">
+        <f>INDEX(Tabela3[CMP],MATCH(9.99999999999999+307,Tabela3[CMP]))*10</f>
+        <v>4</v>
+      </c>
+      <c r="K13" s="152"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="I14" s="104" t="s">
+        <v>89</v>
+      </c>
+      <c r="J14" s="106">
+        <v>40</v>
+      </c>
+      <c r="K14" s="95">
+        <f ca="1">J14*VLOOKUP(TODAY(),Tabela25[],6)</f>
+        <v>146.18</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="I15" s="104" t="s">
         <v>92</v>
       </c>
-      <c r="J14" s="110">
-        <f>J12*J13</f>
+      <c r="J15" s="110">
+        <f>J12*J14</f>
         <v>160</v>
       </c>
-      <c r="K14" s="96">
-        <f ca="1">J14*VLOOKUP(TODAY(),Tabela25[],6)</f>
-        <v>583.96799999999996</v>
+      <c r="K15" s="96">
+        <f ca="1">J15*VLOOKUP(TODAY(),Tabela25[],6)</f>
+        <v>584.72</v>
       </c>
     </row>
-    <row r="15" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I15" s="105" t="s">
+    <row r="16" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I16" s="105" t="s">
         <v>90</v>
       </c>
-      <c r="J15" s="107">
+      <c r="J16" s="107">
         <f>SUM(Tabela3[Valor])</f>
-        <v>24.359999999999996</v>
-      </c>
-      <c r="K15" s="97">
-        <f ca="1">J15*VLOOKUP(TODAY(),Tabela25[],6)</f>
-        <v>88.909127999999981</v>
+        <v>26.049999999999997</v>
+      </c>
+      <c r="K16" s="97">
+        <f ca="1">J16*VLOOKUP(TODAY(),Tabela25[],6)</f>
+        <v>95.199724999999987</v>
       </c>
     </row>
-    <row r="16" spans="2:13" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I16" s="111" t="s">
+    <row r="17" spans="1:11" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I17" s="111" t="s">
         <v>91</v>
       </c>
-      <c r="J16" s="112">
-        <f>J15-J14</f>
-        <v>-135.64000000000001</v>
-      </c>
-      <c r="K16" s="113">
-        <f ca="1">J16*VLOOKUP(TODAY(),Tabela25[],6)</f>
-        <v>-495.05887200000006</v>
+      <c r="J17" s="112">
+        <f>J16-J15</f>
+        <v>-133.94999999999999</v>
+      </c>
+      <c r="K17" s="113">
+        <f ca="1">J17*VLOOKUP(TODAY(),Tabela25[],6)</f>
+        <v>-489.52027499999997</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C21" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D21" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E20" s="13" t="s">
+      <c r="E21" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="F20" s="93" t="s">
+      <c r="F21" s="93" t="s">
         <v>63</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G21" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="8">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="8">
         <v>43215.853043981479</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>76</v>
       </c>
-      <c r="C21" s="11">
+      <c r="C22" s="11">
         <v>0.84</v>
-      </c>
-      <c r="D21" s="11">
-        <f>IFERROR(C21+D20,Tabela3[[#This Row],[Valor]])</f>
-        <v>0.84</v>
-      </c>
-      <c r="E21" s="13">
-        <f>IFERROR(Tabela3[[#This Row],[Saldo disponível para saque]]*VLOOKUP(Tabela3[[#This Row],[Data]],Tabela25[],6),Tabela3[[#This Row],[Saldo disponível para saque]]*Cotação!J2)</f>
-        <v>3.0156057931034481</v>
-      </c>
-      <c r="F21" s="93">
-        <v>0.4</v>
-      </c>
-      <c r="G21" t="str">
-        <f>IF(Tabela3[[#This Row],[Saldo disponível para saque]]&gt;=40,"Comprar","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="8">
-        <v>43216.821550925924</v>
-      </c>
-      <c r="B22" t="s">
-        <v>74</v>
-      </c>
-      <c r="C22" s="11">
-        <v>0.85</v>
       </c>
       <c r="D22" s="11">
         <f>IFERROR(C22+D21,Tabela3[[#This Row],[Valor]])</f>
-        <v>1.69</v>
+        <v>0.84</v>
       </c>
       <c r="E22" s="13">
-        <f>IFERROR(Tabela3[[#This Row],[Saldo disponível para saque]]*VLOOKUP(Tabela3[[#This Row],[Data]],Tabela25[],6),Tabela3[[#This Row],[Saldo disponível para saque]]*Cotação!J3)</f>
-        <v>5.8735949999999999</v>
+        <f>IFERROR(Tabela3[[#This Row],[Saldo disponível para saque]]*VLOOKUP(Tabela3[[#This Row],[Data]],Tabela25[],6),Tabela3[[#This Row],[Saldo disponível para saque]]*Cotação!J2)</f>
+        <v>3.0191171612903225</v>
       </c>
       <c r="F22" s="93">
         <v>0.4</v>
@@ -24448,23 +24785,23 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
-        <v>43217.830381944441</v>
+        <v>43216.821550925924</v>
       </c>
       <c r="B23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C23" s="11">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="D23" s="11">
         <f>IFERROR(C23+D22,Tabela3[[#This Row],[Valor]])</f>
-        <v>2.52</v>
+        <v>1.69</v>
       </c>
       <c r="E23" s="13">
-        <f>IFERROR(Tabela3[[#This Row],[Saldo disponível para saque]]*VLOOKUP(Tabela3[[#This Row],[Data]],Tabela25[],6),Tabela3[[#This Row],[Saldo disponível para saque]]*Cotação!J4)</f>
-        <v>8.7192000000000007</v>
+        <f>IFERROR(Tabela3[[#This Row],[Saldo disponível para saque]]*VLOOKUP(Tabela3[[#This Row],[Data]],Tabela25[],6),Tabela3[[#This Row],[Saldo disponível para saque]]*Cotação!J3)</f>
+        <v>5.8735949999999999</v>
       </c>
       <c r="F23" s="93">
         <v>0.4</v>
@@ -24474,23 +24811,23 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
-        <v>43218.765462962961</v>
+        <v>43217.830381944441</v>
       </c>
       <c r="B24" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="C24" s="11">
-        <v>0.84</v>
+        <v>0.83</v>
       </c>
       <c r="D24" s="11">
         <f>IFERROR(C24+D23,Tabela3[[#This Row],[Valor]])</f>
-        <v>3.36</v>
+        <v>2.52</v>
       </c>
       <c r="E24" s="13">
-        <f>IFERROR(Tabela3[[#This Row],[Saldo disponível para saque]]*VLOOKUP(Tabela3[[#This Row],[Data]],Tabela25[],6),Tabela3[[#This Row],[Saldo disponível para saque]]*Cotação!J5)</f>
-        <v>11.616864</v>
+        <f>IFERROR(Tabela3[[#This Row],[Saldo disponível para saque]]*VLOOKUP(Tabela3[[#This Row],[Data]],Tabela25[],6),Tabela3[[#This Row],[Saldo disponível para saque]]*Cotação!J4)</f>
+        <v>8.7192000000000007</v>
       </c>
       <c r="F24" s="93">
         <v>0.4</v>
@@ -24500,23 +24837,23 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
-        <v>43219.908819444441</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>40</v>
+        <v>43218.765462962961</v>
+      </c>
+      <c r="B25" t="s">
+        <v>38</v>
       </c>
       <c r="C25" s="11">
-        <v>0.8</v>
+        <v>0.84</v>
       </c>
       <c r="D25" s="11">
         <f>IFERROR(C25+D24,Tabela3[[#This Row],[Valor]])</f>
-        <v>4.16</v>
+        <v>3.36</v>
       </c>
       <c r="E25" s="13">
-        <f>IFERROR(Tabela3[[#This Row],[Saldo disponível para saque]]*VLOOKUP(Tabela3[[#This Row],[Data]],Tabela25[],6),Tabela3[[#This Row],[Saldo disponível para saque]]*Cotação!J6)</f>
-        <v>14.382783999999999</v>
+        <f>IFERROR(Tabela3[[#This Row],[Saldo disponível para saque]]*VLOOKUP(Tabela3[[#This Row],[Data]],Tabela25[],6),Tabela3[[#This Row],[Saldo disponível para saque]]*Cotação!J5)</f>
+        <v>11.616864</v>
       </c>
       <c r="F25" s="93">
         <v>0.4</v>
@@ -24526,23 +24863,23 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
-        <v>43220.807476851849</v>
+        <v>43219.908819444441</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C26" s="11">
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
       <c r="D26" s="11">
         <f>IFERROR(C26+D25,Tabela3[[#This Row],[Valor]])</f>
-        <v>4.99</v>
+        <v>4.16</v>
       </c>
       <c r="E26" s="13">
-        <f>IFERROR(Tabela3[[#This Row],[Saldo disponível para saque]]*VLOOKUP(Tabela3[[#This Row],[Data]],Tabela25[],6),Tabela3[[#This Row],[Saldo disponível para saque]]*Cotação!J7)</f>
-        <v>17.397136000000003</v>
+        <f>IFERROR(Tabela3[[#This Row],[Saldo disponível para saque]]*VLOOKUP(Tabela3[[#This Row],[Data]],Tabela25[],6),Tabela3[[#This Row],[Saldo disponível para saque]]*Cotação!J6)</f>
+        <v>14.382783999999999</v>
       </c>
       <c r="F26" s="93">
         <v>0.4</v>
@@ -24552,23 +24889,23 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
-        <v>43221.551365740743</v>
+        <v>43220.807476851849</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C27" s="11">
-        <v>0.86</v>
+        <v>0.83</v>
       </c>
       <c r="D27" s="11">
         <f>IFERROR(C27+D26,Tabela3[[#This Row],[Valor]])</f>
-        <v>5.8500000000000005</v>
+        <v>4.99</v>
       </c>
       <c r="E27" s="13">
-        <f>IFERROR(Tabela3[[#This Row],[Saldo disponível para saque]]*VLOOKUP(Tabela3[[#This Row],[Data]],Tabela25[],6),Tabela3[[#This Row],[Saldo disponível para saque]]*Cotação!J8)</f>
-        <v>20.519460000000002</v>
+        <f>IFERROR(Tabela3[[#This Row],[Saldo disponível para saque]]*VLOOKUP(Tabela3[[#This Row],[Data]],Tabela25[],6),Tabela3[[#This Row],[Saldo disponível para saque]]*Cotação!J7)</f>
+        <v>17.397136000000003</v>
       </c>
       <c r="F27" s="93">
         <v>0.4</v>
@@ -24578,49 +24915,49 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
-        <v>43222.946527777778</v>
-      </c>
-      <c r="B28" t="s">
-        <v>47</v>
+        <v>43221.551365740743</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>42</v>
       </c>
       <c r="C28" s="11">
-        <v>0.84</v>
+        <v>0.86</v>
       </c>
       <c r="D28" s="11">
         <f>IFERROR(C28+D27,Tabela3[[#This Row],[Valor]])</f>
+        <v>5.8500000000000005</v>
+      </c>
+      <c r="E28" s="13">
+        <f>IFERROR(Tabela3[[#This Row],[Saldo disponível para saque]]*VLOOKUP(Tabela3[[#This Row],[Data]],Tabela25[],6),Tabela3[[#This Row],[Saldo disponível para saque]]*Cotação!J8)</f>
+        <v>20.519460000000002</v>
+      </c>
+      <c r="F28" s="93">
+        <v>0.4</v>
+      </c>
+      <c r="G28" t="str">
+        <f>IF(Tabela3[[#This Row],[Saldo disponível para saque]]&gt;=40,"Comprar","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="8">
+        <v>43222.946527777778</v>
+      </c>
+      <c r="B29" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" s="11">
+        <v>0.84</v>
+      </c>
+      <c r="D29" s="11">
+        <f>IFERROR(C29+D28,Tabela3[[#This Row],[Valor]])</f>
         <v>6.69</v>
       </c>
-      <c r="E28" s="13">
+      <c r="E29" s="13">
         <f>IFERROR(Tabela3[[#This Row],[Saldo disponível para saque]]*VLOOKUP(Tabela3[[#This Row],[Data]],Tabela25[],6),Tabela3[[#This Row],[Saldo disponível para saque]]*Cotação!J9)</f>
         <v>23.728092000000004</v>
-      </c>
-      <c r="F28" s="93">
-        <v>0.4</v>
-      </c>
-      <c r="G28" s="57" t="str">
-        <f>IF(Tabela3[[#This Row],[Saldo disponível para saque]]&gt;=40,"Comprar","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="8">
-        <v>43223.931134259263</v>
-      </c>
-      <c r="B29" t="s">
-        <v>55</v>
-      </c>
-      <c r="C29" s="11">
-        <v>0.85</v>
-      </c>
-      <c r="D29" s="11">
-        <f>IFERROR(C29+D28,Tabela3[[#This Row],[Valor]])</f>
-        <v>7.54</v>
-      </c>
-      <c r="E29" s="13">
-        <f>IFERROR(Tabela3[[#This Row],[Saldo disponível para saque]]*VLOOKUP(Tabela3[[#This Row],[Data]],Tabela25[],6),Tabela3[[#This Row],[Saldo disponível para saque]]*Cotação!J10)</f>
-        <v>26.829582000000002</v>
       </c>
       <c r="F29" s="93">
         <v>0.4</v>
@@ -24630,23 +24967,23 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="8">
-        <v>43224.728194444448</v>
+        <v>43223.931134259263</v>
       </c>
       <c r="B30" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C30" s="11">
         <v>0.85</v>
       </c>
       <c r="D30" s="11">
         <f>IFERROR(C30+D29,Tabela3[[#This Row],[Valor]])</f>
-        <v>8.39</v>
+        <v>7.54</v>
       </c>
       <c r="E30" s="13">
-        <f>IFERROR(Tabela3[[#This Row],[Saldo disponível para saque]]*VLOOKUP(Tabela3[[#This Row],[Data]],Tabela25[],6),Tabela3[[#This Row],[Saldo disponível para saque]]*Cotação!J11)</f>
-        <v>29.729126000000004</v>
+        <f>IFERROR(Tabela3[[#This Row],[Saldo disponível para saque]]*VLOOKUP(Tabela3[[#This Row],[Data]],Tabela25[],6),Tabela3[[#This Row],[Saldo disponível para saque]]*Cotação!J10)</f>
+        <v>26.829582000000002</v>
       </c>
       <c r="F30" s="93">
         <v>0.4</v>
@@ -24656,23 +24993,23 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="8">
-        <v>43225.890462962961</v>
+        <v>43224.728194444448</v>
       </c>
       <c r="B31" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C31" s="11">
         <v>0.85</v>
       </c>
       <c r="D31" s="11">
         <f>IFERROR(C31+D30,Tabela3[[#This Row],[Valor]])</f>
-        <v>9.24</v>
+        <v>8.39</v>
       </c>
       <c r="E31" s="13">
-        <f>IFERROR(Tabela3[[#This Row],[Saldo disponível para saque]]*VLOOKUP(Tabela3[[#This Row],[Data]],Tabela25[],6),Tabela3[[#This Row],[Saldo disponível para saque]]*Cotação!J12)</f>
-        <v>32.600568000000003</v>
+        <f>IFERROR(Tabela3[[#This Row],[Saldo disponível para saque]]*VLOOKUP(Tabela3[[#This Row],[Data]],Tabela25[],6),Tabela3[[#This Row],[Saldo disponível para saque]]*Cotação!J11)</f>
+        <v>29.729126000000004</v>
       </c>
       <c r="F31" s="93">
         <v>0.4</v>
@@ -24681,26 +25018,24 @@
         <f>IF(Tabela3[[#This Row],[Saldo disponível para saque]]&gt;=40,"Comprar","")</f>
         <v/>
       </c>
-      <c r="I31" s="92"/>
-      <c r="J31" s="92"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="8">
-        <v>43226.752245370371</v>
+        <v>43225.890462962961</v>
       </c>
       <c r="B32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C32" s="11">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="D32" s="11">
         <f>IFERROR(C32+D31,Tabela3[[#This Row],[Valor]])</f>
-        <v>10.07</v>
+        <v>9.24</v>
       </c>
       <c r="E32" s="13">
-        <f>IFERROR(Tabela3[[#This Row],[Saldo disponível para saque]]*VLOOKUP(Tabela3[[#This Row],[Data]],Tabela25[],6),Tabela3[[#This Row],[Saldo disponível para saque]]*Cotação!J13)</f>
-        <v>35.528973999999998</v>
+        <f>IFERROR(Tabela3[[#This Row],[Saldo disponível para saque]]*VLOOKUP(Tabela3[[#This Row],[Data]],Tabela25[],6),Tabela3[[#This Row],[Saldo disponível para saque]]*Cotação!J12)</f>
+        <v>32.600568000000003</v>
       </c>
       <c r="F32" s="93">
         <v>0.4</v>
@@ -24709,24 +25044,26 @@
         <f>IF(Tabela3[[#This Row],[Saldo disponível para saque]]&gt;=40,"Comprar","")</f>
         <v/>
       </c>
+      <c r="I32" s="92"/>
+      <c r="J32" s="92"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="8">
-        <v>43227.994212962964</v>
+        <v>43226.752245370371</v>
       </c>
       <c r="B33" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C33" s="11">
-        <v>0.86</v>
+        <v>0.83</v>
       </c>
       <c r="D33" s="11">
         <f>IFERROR(C33+D32,Tabela3[[#This Row],[Valor]])</f>
-        <v>10.93</v>
+        <v>10.07</v>
       </c>
       <c r="E33" s="13">
-        <f>IFERROR(Tabela3[[#This Row],[Saldo disponível para saque]]*VLOOKUP(Tabela3[[#This Row],[Data]],Tabela25[],6),Tabela3[[#This Row],[Saldo disponível para saque]]*Cotação!J14)</f>
-        <v>38.769802999999996</v>
+        <f>IFERROR(Tabela3[[#This Row],[Saldo disponível para saque]]*VLOOKUP(Tabela3[[#This Row],[Data]],Tabela25[],6),Tabela3[[#This Row],[Saldo disponível para saque]]*Cotação!J13)</f>
+        <v>35.528973999999998</v>
       </c>
       <c r="F33" s="93">
         <v>0.4</v>
@@ -24738,21 +25075,21 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="8">
-        <v>43228.971585648149</v>
+        <v>43227.994212962964</v>
       </c>
       <c r="B34" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C34" s="11">
-        <v>0.84</v>
+        <v>0.86</v>
       </c>
       <c r="D34" s="11">
         <f>IFERROR(C34+D33,Tabela3[[#This Row],[Valor]])</f>
-        <v>11.77</v>
+        <v>10.93</v>
       </c>
       <c r="E34" s="13">
-        <f>IFERROR(Tabela3[[#This Row],[Saldo disponível para saque]]*VLOOKUP(Tabela3[[#This Row],[Data]],Tabela25[],6),Tabela3[[#This Row],[Saldo disponível para saque]]*Cotação!J15)</f>
-        <v>42.101289999999999</v>
+        <f>IFERROR(Tabela3[[#This Row],[Saldo disponível para saque]]*VLOOKUP(Tabela3[[#This Row],[Data]],Tabela25[],6),Tabela3[[#This Row],[Saldo disponível para saque]]*Cotação!J14)</f>
+        <v>38.769802999999996</v>
       </c>
       <c r="F34" s="93">
         <v>0.4</v>
@@ -24764,21 +25101,21 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="8">
-        <v>43229.994560185187</v>
+        <v>43228.971585648149</v>
       </c>
       <c r="B35" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C35" s="11">
-        <v>0.86</v>
+        <v>0.84</v>
       </c>
       <c r="D35" s="11">
         <f>IFERROR(C35+D34,Tabela3[[#This Row],[Valor]])</f>
-        <v>12.629999999999999</v>
+        <v>11.77</v>
       </c>
       <c r="E35" s="13">
-        <f>IFERROR(Tabela3[[#This Row],[Saldo disponível para saque]]*VLOOKUP(Tabela3[[#This Row],[Data]],Tabela25[],6),Tabela3[[#This Row],[Saldo disponível para saque]]*Cotação!J16)</f>
-        <v>45.382115999999996</v>
+        <f>IFERROR(Tabela3[[#This Row],[Saldo disponível para saque]]*VLOOKUP(Tabela3[[#This Row],[Data]],Tabela25[],6),Tabela3[[#This Row],[Saldo disponível para saque]]*Cotação!J15)</f>
+        <v>42.101289999999999</v>
       </c>
       <c r="F35" s="93">
         <v>0.4</v>
@@ -24790,21 +25127,21 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="8">
-        <v>43230.981504629628</v>
+        <v>43229.994560185187</v>
       </c>
       <c r="B36" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C36" s="11">
-        <v>0.82</v>
+        <v>0.86</v>
       </c>
       <c r="D36" s="11">
         <f>IFERROR(C36+D35,Tabela3[[#This Row],[Valor]])</f>
-        <v>13.45</v>
+        <v>12.629999999999999</v>
       </c>
       <c r="E36" s="13">
-        <f>IFERROR(Tabela3[[#This Row],[Saldo disponível para saque]]*VLOOKUP(Tabela3[[#This Row],[Data]],Tabela25[],6),Tabela3[[#This Row],[Saldo disponível para saque]]*Cotação!J17)</f>
-        <v>47.764984999999996</v>
+        <f>IFERROR(Tabela3[[#This Row],[Saldo disponível para saque]]*VLOOKUP(Tabela3[[#This Row],[Data]],Tabela25[],6),Tabela3[[#This Row],[Saldo disponível para saque]]*Cotação!J16)</f>
+        <v>45.382115999999996</v>
       </c>
       <c r="F36" s="93">
         <v>0.4</v>
@@ -24816,21 +25153,21 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="8">
-        <v>43231.88386574074</v>
+        <v>43230.981504629628</v>
       </c>
       <c r="B37" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C37" s="11">
         <v>0.82</v>
       </c>
       <c r="D37" s="11">
         <f>IFERROR(C37+D36,Tabela3[[#This Row],[Valor]])</f>
-        <v>14.27</v>
+        <v>13.45</v>
       </c>
       <c r="E37" s="13">
-        <f>IFERROR(Tabela3[[#This Row],[Saldo disponível para saque]]*VLOOKUP(Tabela3[[#This Row],[Data]],Tabela25[],6),Tabela3[[#This Row],[Saldo disponível para saque]]*Cotação!J18)</f>
-        <v>51.362010999999995</v>
+        <f>IFERROR(Tabela3[[#This Row],[Saldo disponível para saque]]*VLOOKUP(Tabela3[[#This Row],[Data]],Tabela25[],6),Tabela3[[#This Row],[Saldo disponível para saque]]*Cotação!J17)</f>
+        <v>47.764984999999996</v>
       </c>
       <c r="F37" s="93">
         <v>0.4</v>
@@ -24842,21 +25179,21 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="8">
-        <v>43232.762465277781</v>
+        <v>43231.88386574074</v>
       </c>
       <c r="B38" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C38" s="11">
-        <v>0.83</v>
+        <v>0.82</v>
       </c>
       <c r="D38" s="11">
         <f>IFERROR(C38+D37,Tabela3[[#This Row],[Valor]])</f>
-        <v>15.1</v>
+        <v>14.27</v>
       </c>
       <c r="E38" s="13">
-        <f>IFERROR(Tabela3[[#This Row],[Saldo disponível para saque]]*VLOOKUP(Tabela3[[#This Row],[Data]],Tabela25[],6),Tabela3[[#This Row],[Saldo disponível para saque]]*Cotação!J19)</f>
-        <v>54.349429999999998</v>
+        <f>IFERROR(Tabela3[[#This Row],[Saldo disponível para saque]]*VLOOKUP(Tabela3[[#This Row],[Data]],Tabela25[],6),Tabela3[[#This Row],[Saldo disponível para saque]]*Cotação!J18)</f>
+        <v>51.362010999999995</v>
       </c>
       <c r="F38" s="93">
         <v>0.4</v>
@@ -24868,21 +25205,21 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="8">
-        <v>43233.91982638889</v>
-      </c>
-      <c r="B39" s="11" t="s">
-        <v>85</v>
+        <v>43232.762465277781</v>
+      </c>
+      <c r="B39" t="s">
+        <v>81</v>
       </c>
       <c r="C39" s="11">
         <v>0.83</v>
       </c>
       <c r="D39" s="11">
         <f>IFERROR(C39+D38,Tabela3[[#This Row],[Valor]])</f>
-        <v>15.93</v>
+        <v>15.1</v>
       </c>
       <c r="E39" s="13">
-        <f>IFERROR(Tabela3[[#This Row],[Saldo disponível para saque]]*VLOOKUP(Tabela3[[#This Row],[Data]],Tabela25[],6),Tabela3[[#This Row],[Saldo disponível para saque]]*Cotação!J20)</f>
-        <v>57.336849000000001</v>
+        <f>IFERROR(Tabela3[[#This Row],[Saldo disponível para saque]]*VLOOKUP(Tabela3[[#This Row],[Data]],Tabela25[],6),Tabela3[[#This Row],[Saldo disponível para saque]]*Cotação!J19)</f>
+        <v>54.349429999999998</v>
       </c>
       <c r="F39" s="93">
         <v>0.4</v>
@@ -24894,21 +25231,21 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="8">
-        <v>43234.9534375</v>
-      </c>
-      <c r="B40" t="s">
-        <v>87</v>
+        <v>43233.91982638889</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>85</v>
       </c>
       <c r="C40" s="11">
-        <v>0.84</v>
+        <v>0.83</v>
       </c>
       <c r="D40" s="11">
         <f>IFERROR(C40+D39,Tabela3[[#This Row],[Valor]])</f>
-        <v>16.77</v>
+        <v>15.93</v>
       </c>
       <c r="E40" s="13">
-        <f>IFERROR(Tabela3[[#This Row],[Saldo disponível para saque]]*VLOOKUP(Tabela3[[#This Row],[Data]],Tabela25[],6),Tabela3[[#This Row],[Saldo disponível para saque]]*Cotação!J21)</f>
-        <v>60.811373999999994</v>
+        <f>IFERROR(Tabela3[[#This Row],[Saldo disponível para saque]]*VLOOKUP(Tabela3[[#This Row],[Data]],Tabela25[],6),Tabela3[[#This Row],[Saldo disponível para saque]]*Cotação!J20)</f>
+        <v>57.336849000000001</v>
       </c>
       <c r="F40" s="93">
         <v>0.4</v>
@@ -24920,21 +25257,21 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="8">
-        <v>43235</v>
+        <v>43234.9534375</v>
       </c>
       <c r="B41" t="s">
-        <v>6</v>
+        <v>87</v>
       </c>
       <c r="C41" s="11">
-        <v>0</v>
+        <v>0.84</v>
       </c>
       <c r="D41" s="11">
         <f>IFERROR(C41+D40,Tabela3[[#This Row],[Valor]])</f>
         <v>16.77</v>
       </c>
       <c r="E41" s="13">
-        <f>IFERROR(Tabela3[[#This Row],[Saldo disponível para saque]]*VLOOKUP(Tabela3[[#This Row],[Data]],Tabela25[],6),Tabela3[[#This Row],[Saldo disponível para saque]]*Cotação!J22)</f>
-        <v>61.287641999999998</v>
+        <f>IFERROR(Tabela3[[#This Row],[Saldo disponível para saque]]*VLOOKUP(Tabela3[[#This Row],[Data]],Tabela25[],6),Tabela3[[#This Row],[Saldo disponível para saque]]*Cotação!J21)</f>
+        <v>60.811373999999994</v>
       </c>
       <c r="F41" s="93">
         <v>0.4</v>
@@ -24946,21 +25283,21 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="8">
-        <v>43236.422129629631</v>
-      </c>
-      <c r="B42" s="11" t="s">
-        <v>93</v>
+        <v>43235</v>
+      </c>
+      <c r="B42" t="s">
+        <v>6</v>
       </c>
       <c r="C42" s="11">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="D42" s="11">
         <f>IFERROR(C42+D41,Tabela3[[#This Row],[Valor]])</f>
-        <v>17.599999999999998</v>
+        <v>16.77</v>
       </c>
       <c r="E42" s="13">
-        <f>IFERROR(Tabela3[[#This Row],[Saldo disponível para saque]]*VLOOKUP(Tabela3[[#This Row],[Data]],Tabela25[],6),Tabela3[[#This Row],[Saldo disponível para saque]]*Cotação!J23)</f>
-        <v>64.715199999999996</v>
+        <f>IFERROR(Tabela3[[#This Row],[Saldo disponível para saque]]*VLOOKUP(Tabela3[[#This Row],[Data]],Tabela25[],6),Tabela3[[#This Row],[Saldo disponível para saque]]*Cotação!J22)</f>
+        <v>61.287641999999998</v>
       </c>
       <c r="F42" s="93">
         <v>0.4</v>
@@ -24972,21 +25309,21 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="8">
-        <v>43236.943368055552</v>
+        <v>43236.422129629631</v>
       </c>
       <c r="B43" s="11" t="s">
         <v>93</v>
       </c>
       <c r="C43" s="11">
-        <v>0.86</v>
+        <v>0.83</v>
       </c>
       <c r="D43" s="11">
         <f>IFERROR(C43+D42,Tabela3[[#This Row],[Valor]])</f>
-        <v>18.459999999999997</v>
+        <v>17.599999999999998</v>
       </c>
       <c r="E43" s="13">
-        <f>IFERROR(Tabela3[[#This Row],[Saldo disponível para saque]]*VLOOKUP(Tabela3[[#This Row],[Data]],Tabela25[],6),Tabela3[[#This Row],[Saldo disponível para saque]]*Cotação!J24)</f>
-        <v>67.877419999999987</v>
+        <f>IFERROR(Tabela3[[#This Row],[Saldo disponível para saque]]*VLOOKUP(Tabela3[[#This Row],[Data]],Tabela25[],6),Tabela3[[#This Row],[Saldo disponível para saque]]*Cotação!J23)</f>
+        <v>64.715199999999996</v>
       </c>
       <c r="F43" s="93">
         <v>0.4</v>
@@ -24998,21 +25335,21 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="8">
-        <v>43237.965092592596</v>
-      </c>
-      <c r="B44" t="s">
-        <v>94</v>
+        <v>43236.943368055552</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>93</v>
       </c>
       <c r="C44" s="11">
         <v>0.86</v>
       </c>
       <c r="D44" s="11">
         <f>IFERROR(C44+D43,Tabela3[[#This Row],[Valor]])</f>
-        <v>19.319999999999997</v>
+        <v>18.459999999999997</v>
       </c>
       <c r="E44" s="13">
-        <f>IFERROR(Tabela3[[#This Row],[Saldo disponível para saque]]*VLOOKUP(Tabela3[[#This Row],[Data]],Tabela25[],6),Tabela3[[#This Row],[Saldo disponível para saque]]*Cotação!J25)</f>
-        <v>71.412515999999982</v>
+        <f>IFERROR(Tabela3[[#This Row],[Saldo disponível para saque]]*VLOOKUP(Tabela3[[#This Row],[Data]],Tabela25[],6),Tabela3[[#This Row],[Saldo disponível para saque]]*Cotação!J24)</f>
+        <v>67.877419999999987</v>
       </c>
       <c r="F44" s="93">
         <v>0.4</v>
@@ -25024,21 +25361,21 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="8">
-        <v>43238</v>
+        <v>43237.965092592596</v>
       </c>
       <c r="B45" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
       <c r="C45" s="11">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="D45" s="11">
         <f>IFERROR(C45+D44,Tabela3[[#This Row],[Valor]])</f>
         <v>19.319999999999997</v>
       </c>
       <c r="E45" s="13">
-        <f>IFERROR(Tabela3[[#This Row],[Saldo disponível para saque]]*VLOOKUP(Tabela3[[#This Row],[Data]],Tabela25[],6),Tabela3[[#This Row],[Saldo disponível para saque]]*Cotação!J26)</f>
-        <v>72.440339999999978</v>
+        <f>IFERROR(Tabela3[[#This Row],[Saldo disponível para saque]]*VLOOKUP(Tabela3[[#This Row],[Data]],Tabela25[],6),Tabela3[[#This Row],[Saldo disponível para saque]]*Cotação!J25)</f>
+        <v>71.412515999999982</v>
       </c>
       <c r="F45" s="93">
         <v>0.4</v>
@@ -25050,21 +25387,21 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="8">
-        <v>43239.019189814811</v>
+        <v>43238</v>
       </c>
       <c r="B46" t="s">
-        <v>95</v>
+        <v>6</v>
       </c>
       <c r="C46" s="11">
-        <v>0.84</v>
+        <v>0</v>
       </c>
       <c r="D46" s="11">
         <f>IFERROR(C46+D45,Tabela3[[#This Row],[Valor]])</f>
-        <v>20.159999999999997</v>
+        <v>19.319999999999997</v>
       </c>
       <c r="E46" s="13">
-        <f>IFERROR(Tabela3[[#This Row],[Saldo disponível para saque]]*VLOOKUP(Tabela3[[#This Row],[Data]],Tabela25[],6),Tabela3[[#This Row],[Saldo disponível para saque]]*Cotação!J27)</f>
-        <v>75.325823999999997</v>
+        <f>IFERROR(Tabela3[[#This Row],[Saldo disponível para saque]]*VLOOKUP(Tabela3[[#This Row],[Data]],Tabela25[],6),Tabela3[[#This Row],[Saldo disponível para saque]]*Cotação!J26)</f>
+        <v>72.440339999999978</v>
       </c>
       <c r="F46" s="93">
         <v>0.4</v>
@@ -25076,21 +25413,21 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="8">
-        <v>43239.851203703707</v>
-      </c>
-      <c r="B47" s="11" t="s">
+        <v>43239.019189814811</v>
+      </c>
+      <c r="B47" t="s">
         <v>95</v>
       </c>
       <c r="C47" s="11">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="D47" s="11">
         <f>IFERROR(C47+D46,Tabela3[[#This Row],[Valor]])</f>
-        <v>21.009999999999998</v>
+        <v>20.159999999999997</v>
       </c>
       <c r="E47" s="13">
-        <f>IFERROR(Tabela3[[#This Row],[Saldo disponível para saque]]*VLOOKUP(Tabela3[[#This Row],[Data]],Tabela25[],6),Tabela3[[#This Row],[Saldo disponível para saque]]*Cotação!J28)</f>
-        <v>78.501763999999994</v>
+        <f>IFERROR(Tabela3[[#This Row],[Saldo disponível para saque]]*VLOOKUP(Tabela3[[#This Row],[Data]],Tabela25[],6),Tabela3[[#This Row],[Saldo disponível para saque]]*Cotação!J27)</f>
+        <v>75.325823999999997</v>
       </c>
       <c r="F47" s="93">
         <v>0.4</v>
@@ -25102,21 +25439,21 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="8">
-        <v>43240.859884259262</v>
-      </c>
-      <c r="B48" t="s">
-        <v>99</v>
+        <v>43239.851203703707</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="C48" s="11">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="D48" s="11">
         <f>IFERROR(C48+D47,Tabela3[[#This Row],[Valor]])</f>
-        <v>21.839999999999996</v>
+        <v>21.009999999999998</v>
       </c>
       <c r="E48" s="13">
-        <f>IFERROR(Tabela3[[#This Row],[Saldo disponível para saque]]*VLOOKUP(Tabela3[[#This Row],[Data]],Tabela25[],6),Tabela3[[#This Row],[Saldo disponível para saque]]*Cotação!J29)</f>
-        <v>81.602975999999984</v>
+        <f>IFERROR(Tabela3[[#This Row],[Saldo disponível para saque]]*VLOOKUP(Tabela3[[#This Row],[Data]],Tabela25[],6),Tabela3[[#This Row],[Saldo disponível para saque]]*Cotação!J28)</f>
+        <v>78.501763999999994</v>
       </c>
       <c r="F48" s="93">
         <v>0.4</v>
@@ -25128,21 +25465,21 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="8">
-        <v>43242.025092592594</v>
+        <v>43240.859884259262</v>
       </c>
       <c r="B49" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C49" s="11">
-        <v>0.84</v>
+        <v>0.83</v>
       </c>
       <c r="D49" s="11">
         <f>IFERROR(C49+D48,Tabela3[[#This Row],[Valor]])</f>
-        <v>22.679999999999996</v>
+        <v>21.839999999999996</v>
       </c>
       <c r="E49" s="13">
-        <f>IFERROR(Tabela3[[#This Row],[Saldo disponível para saque]]*VLOOKUP(Tabela3[[#This Row],[Data]],Tabela25[],6),Tabela3[[#This Row],[Saldo disponível para saque]]*Cotação!J30)</f>
-        <v>82.716227999999987</v>
+        <f>IFERROR(Tabela3[[#This Row],[Saldo disponível para saque]]*VLOOKUP(Tabela3[[#This Row],[Data]],Tabela25[],6),Tabela3[[#This Row],[Saldo disponível para saque]]*Cotação!J29)</f>
+        <v>81.602975999999984</v>
       </c>
       <c r="F49" s="93">
         <v>0.4</v>
@@ -25154,21 +25491,21 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="8">
-        <v>43242.709641203706</v>
+        <v>43242.025092592594</v>
       </c>
       <c r="B50" t="s">
         <v>100</v>
       </c>
       <c r="C50" s="11">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="D50" s="11">
         <f>IFERROR(C50+D49,Tabela3[[#This Row],[Valor]])</f>
-        <v>23.529999999999998</v>
+        <v>22.679999999999996</v>
       </c>
       <c r="E50" s="13">
-        <f>IFERROR(Tabela3[[#This Row],[Saldo disponível para saque]]*VLOOKUP(Tabela3[[#This Row],[Data]],Tabela25[],6),Tabela3[[#This Row],[Saldo disponível para saque]]*Cotação!J31)</f>
-        <v>85.816262999999992</v>
+        <f>IFERROR(Tabela3[[#This Row],[Saldo disponível para saque]]*VLOOKUP(Tabela3[[#This Row],[Data]],Tabela25[],6),Tabela3[[#This Row],[Saldo disponível para saque]]*Cotação!J30)</f>
+        <v>82.716227999999987</v>
       </c>
       <c r="F50" s="93">
         <v>0.4</v>
@@ -25180,21 +25517,21 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="8">
-        <v>43243.899236111109</v>
-      </c>
-      <c r="B51" s="11" t="s">
-        <v>101</v>
+        <v>43242.709641203706</v>
+      </c>
+      <c r="B51" t="s">
+        <v>100</v>
       </c>
       <c r="C51" s="11">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="D51" s="11">
         <f>IFERROR(C51+D50,Tabela3[[#This Row],[Valor]])</f>
-        <v>24.359999999999996</v>
+        <v>23.529999999999998</v>
       </c>
       <c r="E51" s="13">
-        <f>IFERROR(Tabela3[[#This Row],[Saldo disponível para saque]]*VLOOKUP(Tabela3[[#This Row],[Data]],Tabela25[],6),Tabela3[[#This Row],[Saldo disponível para saque]]*Cotação!J32)</f>
-        <v>88.356155999999984</v>
+        <f>IFERROR(Tabela3[[#This Row],[Saldo disponível para saque]]*VLOOKUP(Tabela3[[#This Row],[Data]],Tabela25[],6),Tabela3[[#This Row],[Saldo disponível para saque]]*Cotação!J31)</f>
+        <v>85.816262999999992</v>
       </c>
       <c r="F51" s="93">
         <v>0.4</v>
@@ -25204,8 +25541,87 @@
         <v/>
       </c>
     </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="8">
+        <v>43243.899236111109</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C52" s="11">
+        <v>0.83</v>
+      </c>
+      <c r="D52" s="11">
+        <f>IFERROR(C52+D51,Tabela3[[#This Row],[Valor]])</f>
+        <v>24.359999999999996</v>
+      </c>
+      <c r="E52" s="13">
+        <f>IFERROR(Tabela3[[#This Row],[Saldo disponível para saque]]*VLOOKUP(Tabela3[[#This Row],[Data]],Tabela25[],6),Tabela3[[#This Row],[Saldo disponível para saque]]*Cotação!J32)</f>
+        <v>88.356155999999984</v>
+      </c>
+      <c r="F52" s="93">
+        <v>0.4</v>
+      </c>
+      <c r="G52" s="57" t="str">
+        <f>IF(Tabela3[[#This Row],[Saldo disponível para saque]]&gt;=40,"Comprar","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="8">
+        <v>43244.978206018517</v>
+      </c>
+      <c r="B53" t="s">
+        <v>102</v>
+      </c>
+      <c r="C53" s="11">
+        <v>0.84</v>
+      </c>
+      <c r="D53" s="11">
+        <f>IFERROR(C53+D52,Tabela3[[#This Row],[Valor]])</f>
+        <v>25.199999999999996</v>
+      </c>
+      <c r="E53" s="13">
+        <f>IFERROR(Tabela3[[#This Row],[Saldo disponível para saque]]*VLOOKUP(Tabela3[[#This Row],[Data]],Tabela25[],6),Tabela3[[#This Row],[Saldo disponível para saque]]*Cotação!J33)</f>
+        <v>91.974959999999982</v>
+      </c>
+      <c r="F53" s="93">
+        <v>0.4</v>
+      </c>
+      <c r="G53" s="57" t="str">
+        <f>IF(Tabela3[[#This Row],[Saldo disponível para saque]]&gt;=40,"Comprar","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="8">
+        <v>43245.878553240742</v>
+      </c>
+      <c r="B54" t="s">
+        <v>103</v>
+      </c>
+      <c r="C54" s="11">
+        <v>0.85</v>
+      </c>
+      <c r="D54" s="11">
+        <f>IFERROR(C54+D53,Tabela3[[#This Row],[Valor]])</f>
+        <v>26.049999999999997</v>
+      </c>
+      <c r="E54" s="13">
+        <f>IFERROR(Tabela3[[#This Row],[Saldo disponível para saque]]*VLOOKUP(Tabela3[[#This Row],[Data]],Tabela25[],6),Tabela3[[#This Row],[Saldo disponível para saque]]*Cotação!J34)</f>
+        <v>95.215354999999988</v>
+      </c>
+      <c r="F54" s="93">
+        <v>0.4</v>
+      </c>
+      <c r="G54" s="57" t="str">
+        <f>IF(Tabela3[[#This Row],[Saldo disponível para saque]]&gt;=40,"Comprar","")</f>
+        <v/>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
+    <mergeCell ref="J13:K13"/>
     <mergeCell ref="B1:C4"/>
     <mergeCell ref="J12:K12"/>
     <mergeCell ref="K1:M2"/>

--- a/Controle BTC.xlsx
+++ b/Controle BTC.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fjunger\OneDrive\inestBTC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fjunger\Desktop\inestBTC\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195" tabRatio="601" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195" tabRatio="601" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Plan4" sheetId="11" state="hidden" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="107">
   <si>
     <t>Tipo</t>
   </si>
@@ -345,6 +345,12 @@
   </si>
   <si>
     <t>Contratos Ativos:</t>
+  </si>
+  <si>
+    <t>Mining Bonus - Mining contract #27569 - 0.400 CMP - 2018-05-26</t>
+  </si>
+  <si>
+    <t>Mining Bonus - Mining contract #27569 - 0.400 CMP - 2018-05-27</t>
   </si>
 </sst>
 </file>
@@ -1361,14 +1367,14 @@
     <xf numFmtId="14" fontId="8" fillId="2" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="8" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1938,10 +1944,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Atlas!$A$33:$A$62</c:f>
+              <c:f>Atlas!$A$33:$A$63</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43216.500694444447</c:v>
                 </c:pt>
@@ -2031,16 +2037,19 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>43246.420138888891</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43247.420138888891</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Atlas!$F$33:$F$62</c:f>
+              <c:f>Atlas!$F$33:$F$63</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>2E-3</c:v>
                 </c:pt>
@@ -2130,6 +2139,9 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>2.0799899999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.0841599999999998E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2145,11 +2157,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1013629856"/>
-        <c:axId val="1013627680"/>
+        <c:axId val="975148448"/>
+        <c:axId val="975148992"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="1013629856"/>
+        <c:axId val="975148448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2191,14 +2203,14 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1013627680"/>
+        <c:crossAx val="975148992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="1013627680"/>
+        <c:axId val="975148992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2248,7 +2260,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1013629856"/>
+        <c:crossAx val="975148448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2323,6 +2335,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2533,11 +2546,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1013640192"/>
-        <c:axId val="1013626592"/>
+        <c:axId val="778066944"/>
+        <c:axId val="976692880"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="1013640192"/>
+        <c:axId val="778066944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2580,14 +2593,14 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1013626592"/>
+        <c:crossAx val="976692880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="1013626592"/>
+        <c:axId val="976692880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2638,7 +2651,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1013640192"/>
+        <c:crossAx val="778066944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2702,6 +2715,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2912,11 +2926,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1013636928"/>
-        <c:axId val="1013640736"/>
+        <c:axId val="976695600"/>
+        <c:axId val="976694512"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="1013636928"/>
+        <c:axId val="976695600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2959,14 +2973,14 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1013640736"/>
+        <c:crossAx val="976694512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="1013640736"/>
+        <c:axId val="976694512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3017,7 +3031,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1013636928"/>
+        <c:crossAx val="976695600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3081,7 +3095,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3145,10 +3158,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Atlas!$A$33:$A$62</c:f>
+              <c:f>Atlas!$A$33:$A$63</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43216.500694444447</c:v>
                 </c:pt>
@@ -3238,16 +3251,19 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>43246.420138888891</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43247.420138888891</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Atlas!$F$33:$F$62</c:f>
+              <c:f>Atlas!$F$33:$F$63</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>2E-3</c:v>
                 </c:pt>
@@ -3337,6 +3353,9 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>2.0799899999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.0841599999999998E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3352,11 +3371,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1013637472"/>
-        <c:axId val="1013638016"/>
+        <c:axId val="976690160"/>
+        <c:axId val="976683088"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="1013637472"/>
+        <c:axId val="976690160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3399,14 +3418,14 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1013638016"/>
+        <c:crossAx val="976683088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="1013638016"/>
+        <c:axId val="976683088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3457,7 +3476,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1013637472"/>
+        <c:crossAx val="976690160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3598,7 +3617,7 @@
                   <c:v>0.24225165700000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.435330367</c:v>
+                  <c:v>0.465917317</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -3698,7 +3717,7 @@
                   <c:v>0.859536144</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.6173924099999999</c:v>
+                  <c:v>1.7324839929999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -3735,11 +3754,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="950945296"/>
-        <c:axId val="950945840"/>
+        <c:axId val="976695056"/>
+        <c:axId val="976685264"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="950945296"/>
+        <c:axId val="976695056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3782,7 +3801,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="950945840"/>
+        <c:crossAx val="976685264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3790,7 +3809,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="950945840"/>
+        <c:axId val="976685264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3841,7 +3860,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="950945296"/>
+        <c:crossAx val="976695056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3905,7 +3924,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3969,10 +3987,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Atlas!$A$33:$A$62</c:f>
+              <c:f>Atlas!$A$33:$A$63</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43216.500694444447</c:v>
                 </c:pt>
@@ -4062,16 +4080,19 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>43246.420138888891</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43247.420138888891</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Atlas!$L$33:$L$62</c:f>
+              <c:f>Atlas!$L$33:$L$63</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4161,6 +4182,9 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>1.6662412775158557E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.0048173308525523E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4176,11 +4200,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1174094128"/>
-        <c:axId val="1306029984"/>
+        <c:axId val="976684720"/>
+        <c:axId val="976685808"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="1174094128"/>
+        <c:axId val="976684720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4223,14 +4247,14 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1306029984"/>
+        <c:crossAx val="976685808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="1306029984"/>
+        <c:axId val="976685808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4281,7 +4305,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1174094128"/>
+        <c:crossAx val="976684720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4409,10 +4433,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>AWS!$A$22:$A$54</c:f>
+              <c:f>AWS!$A$22:$A$56</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>43215.853043981479</c:v>
                 </c:pt>
@@ -4511,16 +4535,22 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>43245.878553240742</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43246.769305555557</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43247.893773148149</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>AWS!$D$22:$D$54</c:f>
+              <c:f>AWS!$D$22:$D$56</c:f>
               <c:numCache>
                 <c:formatCode>[$$-409]#,##0.00</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0.84</c:v>
                 </c:pt>
@@ -4619,6 +4649,12 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>26.049999999999997</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>26.909999999999997</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>27.749999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4634,11 +4670,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1306035968"/>
-        <c:axId val="1306033248"/>
+        <c:axId val="976686352"/>
+        <c:axId val="976693424"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="1306035968"/>
+        <c:axId val="976686352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4681,14 +4717,14 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1306033248"/>
+        <c:crossAx val="976693424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="1306033248"/>
+        <c:axId val="976693424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4739,7 +4775,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1306035968"/>
+        <c:crossAx val="976686352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4867,10 +4903,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>AWS!$A$22:$A$54</c:f>
+              <c:f>AWS!$A$22:$A$56</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>43215.853043981479</c:v>
                 </c:pt>
@@ -4969,16 +5005,22 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>43245.878553240742</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43246.769305555557</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43247.893773148149</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>AWS!$C$22:$C$54</c:f>
+              <c:f>AWS!$C$22:$C$56</c:f>
               <c:numCache>
                 <c:formatCode>[$$-409]#,##0.00</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0.84</c:v>
                 </c:pt>
@@ -5077,6 +5119,12 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.84</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5092,11 +5140,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1306039776"/>
-        <c:axId val="1306035424"/>
+        <c:axId val="976680368"/>
+        <c:axId val="976691248"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="1306039776"/>
+        <c:axId val="976680368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5139,14 +5187,14 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1306035424"/>
+        <c:crossAx val="976691248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="1306035424"/>
+        <c:axId val="976691248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5197,7 +5245,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1306039776"/>
+        <c:crossAx val="976680368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5292,6 +5340,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5367,10 +5416,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>AWS!$A$22:$A$54</c:f>
+              <c:f>AWS!$A$22:$A$56</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>43215.853043981479</c:v>
                 </c:pt>
@@ -5469,16 +5518,22 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>43245.878553240742</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43246.769305555557</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43247.893773148149</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>AWS!$D$22:$D$54</c:f>
+              <c:f>AWS!$D$22:$D$56</c:f>
               <c:numCache>
                 <c:formatCode>[$$-409]#,##0.00</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0.84</c:v>
                 </c:pt>
@@ -5577,6 +5632,12 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>26.049999999999997</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>26.909999999999997</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>27.749999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5592,11 +5653,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1013630944"/>
-        <c:axId val="1013627136"/>
+        <c:axId val="975146272"/>
+        <c:axId val="975153344"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="1013630944"/>
+        <c:axId val="975146272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5638,14 +5699,14 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1013627136"/>
+        <c:crossAx val="975153344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="1013627136"/>
+        <c:axId val="975153344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5695,7 +5756,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1013630944"/>
+        <c:crossAx val="975146272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5810,6 +5871,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6032,11 +6094,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1013632576"/>
-        <c:axId val="1013635840"/>
+        <c:axId val="975146816"/>
+        <c:axId val="975147904"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="1013632576"/>
+        <c:axId val="975146816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6078,14 +6140,14 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1013635840"/>
+        <c:crossAx val="975147904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="1013635840"/>
+        <c:axId val="975147904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6135,7 +6197,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1013632576"/>
+        <c:crossAx val="975146816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6210,6 +6272,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6395,7 +6458,7 @@
                 <c:formatCode>"R$"#,##0.00</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>58.619117161290326</c:v>
+                  <c:v>58.619999499999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>126.75359499999999</c:v>
@@ -6488,7 +6551,7 @@
                   <c:v>209.30967449999997</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>208.43155818999998</c:v>
+                  <c:v>211.55879819</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6504,11 +6567,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1013635296"/>
-        <c:axId val="1013639104"/>
+        <c:axId val="975149536"/>
+        <c:axId val="975150080"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="1013635296"/>
+        <c:axId val="975149536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6550,14 +6613,14 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1013639104"/>
+        <c:crossAx val="975150080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="1013639104"/>
+        <c:axId val="975150080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6607,7 +6670,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1013635296"/>
+        <c:crossAx val="975149536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6758,10 +6821,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Cotação!$A$3:$A$33</c:f>
+              <c:f>Cotação!$A$3:$A$34</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>43216</c:v>
                 </c:pt>
@@ -6854,16 +6917,19 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>43246</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43247</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Cotação!$D$3:$D$33</c:f>
+              <c:f>Cotação!$D$3:$D$34</c:f>
               <c:numCache>
                 <c:formatCode>"R$"#,##0.00</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>32640</c:v>
                 </c:pt>
@@ -6956,6 +7022,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>27681</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>27599.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6971,11 +7040,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1013628224"/>
-        <c:axId val="1013625504"/>
+        <c:axId val="975152800"/>
+        <c:axId val="975150624"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="1013628224"/>
+        <c:axId val="975152800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7017,14 +7086,14 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1013625504"/>
+        <c:crossAx val="975150624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="1013625504"/>
+        <c:axId val="975150624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7074,7 +7143,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1013628224"/>
+        <c:crossAx val="975152800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7225,10 +7294,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Cotação!$A$3:$A$33</c:f>
+              <c:f>Cotação!$A$3:$A$34</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>43216</c:v>
                 </c:pt>
@@ -7321,16 +7390,19 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>43246</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43247</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Cotação!$F$3:$F$33</c:f>
+              <c:f>Cotação!$F$3:$F$34</c:f>
               <c:numCache>
                 <c:formatCode>"R$"#,##0.00</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>3.4754999999999998</c:v>
                 </c:pt>
@@ -7423,6 +7495,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>3.6545000000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.6278000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7438,11 +7513,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1013628768"/>
-        <c:axId val="1013631488"/>
+        <c:axId val="975151168"/>
+        <c:axId val="975151712"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="1013628768"/>
+        <c:axId val="975151168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7484,14 +7559,14 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1013631488"/>
+        <c:crossAx val="975151712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="1013631488"/>
+        <c:axId val="975151712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7541,7 +7616,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1013628768"/>
+        <c:crossAx val="975151168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7692,10 +7767,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Cotação!$A$3:$A$33</c:f>
+              <c:f>Cotação!$A$3:$A$34</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>43216</c:v>
                 </c:pt>
@@ -7788,16 +7863,19 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>43246</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43247</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Cotação!$B$3:$B$33</c:f>
+              <c:f>Cotação!$B$3:$B$34</c:f>
               <c:numCache>
                 <c:formatCode>[$$-409]#,##0.00</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>9279.2999999999993</c:v>
                 </c:pt>
@@ -7890,6 +7968,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>7519.9</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7335</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7905,11 +7986,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1013633664"/>
-        <c:axId val="1013626048"/>
+        <c:axId val="975152256"/>
+        <c:axId val="944592864"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="1013633664"/>
+        <c:axId val="975152256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7951,14 +8032,14 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1013626048"/>
+        <c:crossAx val="944592864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="1013626048"/>
+        <c:axId val="944592864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8008,7 +8089,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1013633664"/>
+        <c:crossAx val="975152256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8256,7 +8337,7 @@
                 <c:formatCode>"R$"#,##0.00</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>58.619117161290326</c:v>
+                  <c:v>58.619999499999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>126.75359499999999</c:v>
@@ -8349,7 +8430,7 @@
                   <c:v>209.30967449999997</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>208.43155818999998</c:v>
+                  <c:v>211.55879819</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8365,11 +8446,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1013639648"/>
-        <c:axId val="1013634752"/>
+        <c:axId val="944598304"/>
+        <c:axId val="944599936"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="1013639648"/>
+        <c:axId val="944598304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8412,14 +8493,14 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1013634752"/>
+        <c:crossAx val="944599936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="1013634752"/>
+        <c:axId val="944599936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8470,7 +8551,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1013639648"/>
+        <c:crossAx val="944598304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8722,7 +8803,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>68.134477838709671</c:v>
+                  <c:v>68.133595499999984</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>3.1866181360000212</c:v>
@@ -8812,7 +8893,7 @@
                   <c:v>2.8564394999999649</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-0.87811630999999579</c:v>
+                  <c:v>2.2491236900000331</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8829,11 +8910,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1013634208"/>
-        <c:axId val="1013636384"/>
+        <c:axId val="944601568"/>
+        <c:axId val="778065312"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="1013634208"/>
+        <c:axId val="944601568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8876,14 +8957,14 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1013636384"/>
+        <c:crossAx val="778065312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="1013636384"/>
+        <c:axId val="778065312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8934,7 +9015,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1013634208"/>
+        <c:crossAx val="944601568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -18270,8 +18351,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabela25" displayName="Tabela25" ref="A2:G33" totalsRowShown="0" headerRowDxfId="50" dataDxfId="49">
-  <autoFilter ref="A2:G33"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabela25" displayName="Tabela25" ref="A2:G34" totalsRowShown="0" headerRowDxfId="50" dataDxfId="49">
+  <autoFilter ref="A2:G34"/>
   <tableColumns count="7">
     <tableColumn id="1" name="Data" dataDxfId="48"/>
     <tableColumn id="2" name="BTC/USD" dataDxfId="47"/>
@@ -18343,8 +18424,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A32:N62" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
-  <autoFilter ref="A32:N62"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A32:N63" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
+  <autoFilter ref="A32:N63"/>
   <tableColumns count="14">
     <tableColumn id="1" name="Data " dataDxfId="22"/>
     <tableColumn id="13" name="Mês" dataDxfId="21">
@@ -18382,8 +18463,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela3" displayName="Tabela3" ref="A21:G54" totalsRowShown="0">
-  <autoFilter ref="A21:G54"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela3" displayName="Tabela3" ref="A21:G56" totalsRowShown="0">
+  <autoFilter ref="A21:G56"/>
   <tableColumns count="7">
     <tableColumn id="1" name="Data" dataDxfId="8"/>
     <tableColumn id="2" name="Descrição"/>
@@ -18867,7 +18948,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="N1:U3"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="O39" sqref="O39"/>
     </sheetView>
   </sheetViews>
@@ -18885,7 +18966,7 @@
       <c r="Q1" s="121"/>
       <c r="R1" s="120">
         <f>SUM(Atlas!A7,AWS!K1,Easy!L22)</f>
-        <v>208.43155818999998</v>
+        <v>213.83405758399999</v>
       </c>
       <c r="S1" s="120"/>
       <c r="T1" s="120"/>
@@ -18924,10 +19005,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB33"/>
+  <dimension ref="A1:AB34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19005,7 +19086,7 @@
       </c>
       <c r="J2" s="38">
         <f>AVERAGE(Tabela25[USD/BRL])</f>
-        <v>3.5941870967741938</v>
+        <v>3.5952375000000001</v>
       </c>
       <c r="L2" s="27"/>
       <c r="M2" s="27"/>
@@ -19056,7 +19137,7 @@
       </c>
       <c r="J3" s="117">
         <f>AVERAGE(Tabela25[BTC/BRL])</f>
-        <v>31882.525806451613</v>
+        <v>31748.693750000002</v>
       </c>
       <c r="L3" s="27"/>
       <c r="M3" s="27"/>
@@ -19107,7 +19188,7 @@
       </c>
       <c r="J4" s="118">
         <f>AVERAGE(Tabela25[BTC/USD])</f>
-        <v>8731.2677419354841</v>
+        <v>8687.6343749999996</v>
       </c>
       <c r="L4" s="27"/>
       <c r="M4" s="27"/>
@@ -19540,7 +19621,7 @@
       </c>
       <c r="J13" s="117">
         <f>SMALL(Tabela25[BTC/BRL],1)</f>
-        <v>27681</v>
+        <v>27599.9</v>
       </c>
       <c r="L13" s="27"/>
       <c r="M13" s="27"/>
@@ -19590,7 +19671,7 @@
       </c>
       <c r="J14" s="118">
         <f>SMALL(Tabela25[BTC/USD],1)</f>
-        <v>7458</v>
+        <v>7335</v>
       </c>
       <c r="L14" s="27"/>
       <c r="M14" s="27"/>
@@ -20437,6 +20518,32 @@
       <c r="Z33" s="27"/>
       <c r="AA33" s="27"/>
       <c r="AB33" s="27"/>
+    </row>
+    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A34" s="8">
+        <v>43247</v>
+      </c>
+      <c r="B34" s="4">
+        <v>7335</v>
+      </c>
+      <c r="C34" s="4" t="str">
+        <f>IF(Tabela25[[#This Row],[BTC/USD]]&lt;B33,"▼",IF(Tabela25[[#This Row],[BTC/USD]]&gt;B33,"▲","-"))</f>
+        <v>▼</v>
+      </c>
+      <c r="D34" s="5">
+        <v>27599.9</v>
+      </c>
+      <c r="E34" s="5" t="str">
+        <f>IF(Tabela25[[#This Row],[BTC/BRL]]&lt;D33,"▼",IF(Tabela25[[#This Row],[BTC/BRL]]&gt;D33,"▲","-"))</f>
+        <v>▼</v>
+      </c>
+      <c r="F34" s="5">
+        <v>3.6278000000000001</v>
+      </c>
+      <c r="G34" s="5" t="str">
+        <f>IF(Tabela25[[#This Row],[USD/BRL]]&lt;F33,"▼",IF(Tabela25[[#This Row],[USD/BRL]]&gt;F33,"▲","-"))</f>
+        <v>▼</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -20486,8 +20593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A18:R51"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="N50" sqref="N50"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="L51" sqref="L51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20543,7 +20650,7 @@
       </c>
       <c r="J20" s="5">
         <f>IFERROR(VLOOKUP(Tabela6[[#This Row],[Data]]+1,Tabela3[[Data]:[Saldo BRL]],5),0)</f>
-        <v>3.0191171612903225</v>
+        <v>3.0199994999999999</v>
       </c>
       <c r="K20" s="5">
         <f>VLOOKUP(Tabela6[[#This Row],[Data]]+1,Tabela16[#All],3)</f>
@@ -20551,7 +20658,7 @@
       </c>
       <c r="L20" s="5">
         <f>SUM(Tabela6[[#This Row],[Atlas]:[Easy]])</f>
-        <v>58.619117161290326</v>
+        <v>58.619999499999999</v>
       </c>
       <c r="M20" s="5">
         <f>IFERROR(Tabela6[[#This Row],[Total]]-L19,0)</f>
@@ -20590,19 +20697,19 @@
       </c>
       <c r="M21" s="5">
         <f>IFERROR(Tabela6[[#This Row],[Total]]-L20,0)</f>
-        <v>68.134477838709671</v>
+        <v>68.133595499999984</v>
       </c>
       <c r="N21" s="3">
         <f>Tabela6[[#This Row],[Variação]]/Tabela6[[#This Row],[Total]]</f>
-        <v>0.53753487495727181</v>
+        <v>0.53752791390256027</v>
       </c>
       <c r="Q21" s="99">
         <f>AVERAGE(Tabela6[Variação %])</f>
-        <v>3.2113860740469513E-2</v>
+        <v>3.2577523550896686E-2</v>
       </c>
       <c r="R21" s="71">
         <f>AVERAGE(Tabela6[Variação])</f>
-        <v>4.6816387821471768</v>
+        <v>4.7793374590625</v>
       </c>
     </row>
     <row r="22" spans="8:18" x14ac:dyDescent="0.25">
@@ -21456,7 +21563,7 @@
       </c>
       <c r="J51" s="5">
         <f>IFERROR(VLOOKUP(Tabela6[[#This Row],[Data]]+1,Tabela3[[Data]:[Saldo BRL]],5),0)</f>
-        <v>95.215354999999988</v>
+        <v>98.342594999999989</v>
       </c>
       <c r="K51" s="5">
         <f>VLOOKUP(Tabela6[[#This Row],[Data]]+1,Tabela16[#All],3)</f>
@@ -21464,15 +21571,15 @@
       </c>
       <c r="L51" s="5">
         <f>SUM(Tabela6[[#This Row],[Atlas]:[Easy]])</f>
-        <v>208.43155818999998</v>
+        <v>211.55879819</v>
       </c>
       <c r="M51" s="5">
         <f>IFERROR(Tabela6[[#This Row],[Total]]-L50,0)</f>
-        <v>-0.87811630999999579</v>
+        <v>2.2491236900000331</v>
       </c>
       <c r="N51" s="3">
         <f>Tabela6[[#This Row],[Variação]]/Tabela6[[#This Row],[Total]]</f>
-        <v>-4.212971958879333E-3</v>
+        <v>1.0631199029501506E-2</v>
       </c>
     </row>
   </sheetData>
@@ -22212,10 +22319,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y62"/>
+  <dimension ref="A1:Y63"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="I65" sqref="I65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22432,15 +22539,15 @@
       </c>
       <c r="J6" s="43">
         <f>IF((SUMIFS(Tabela1[Bruto USD],Tabela1[Mês],Plan4!A5,Tabela1[Ano],L$1))=0,"SR",SUMIFS(Tabela1[Bruto USD],Tabela1[Mês],Plan4!A5,Tabela1[Ano],L$1))</f>
-        <v>0.435330367</v>
+        <v>0.465917317</v>
       </c>
       <c r="K6" s="38">
         <f>IF((SUMIFS(Tabela1[Bruto BRL],Tabela1[Mês],Plan4!A5,Tabela1[Ano],L$1))=0,"SR",SUMIFS(Tabela1[Bruto BRL],Tabela1[Mês],Plan4!A5,Tabela1[Ano],L$1))</f>
-        <v>1.6173924099999999</v>
+        <v>1.7324839929999998</v>
       </c>
       <c r="L6" s="39">
         <f>IF((SUMIFS(Tabela1[porcentagem],Tabela1[Mês],Plan4!A5,Tabela1[Ano],L$1))=0,"SR",SUMIFS(Tabela1[porcentagem],Tabela1[Mês],Plan4!A5,Tabela1[Ano],L$1))</f>
-        <v>2.536861775638536E-2</v>
+        <v>2.7373435087237913E-2</v>
       </c>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
@@ -22455,7 +22562,7 @@
     <row r="7" spans="1:22" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="141">
         <f>INDEX(Tabela1[BRL],MATCH(9.99999999999999+307,Tabela1[BRL]))</f>
-        <v>57.576203189999994</v>
+        <v>57.522607583999999</v>
       </c>
       <c r="B7" s="141"/>
       <c r="C7" s="141"/>
@@ -22463,11 +22570,11 @@
       <c r="E7" s="142"/>
       <c r="F7" s="60">
         <f>AVERAGE(Tabela1[porcentagem])</f>
-        <v>1.323206675418725E-3</v>
+        <v>1.3459270305998525E-3</v>
       </c>
       <c r="G7" s="61">
         <f>AVERAGE(Tabela1[Bruto BRL])</f>
-        <v>8.5411329448275869E-2</v>
+        <v>8.6400671233333337E-2</v>
       </c>
       <c r="H7" s="7"/>
       <c r="I7" s="20" t="s">
@@ -22586,7 +22693,7 @@
       </c>
       <c r="G10" s="67">
         <f>SMALL(Tabela1[USD],1)</f>
-        <v>15.486760740000001</v>
+        <v>15.287313599999999</v>
       </c>
       <c r="H10" s="7"/>
       <c r="I10" s="21" t="s">
@@ -22617,13 +22724,13 @@
     <row r="11" spans="1:22" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="149" t="str">
         <f>SUM(Tabela1[Variação])&amp;" BTC"</f>
-        <v>0,00007807 BTC</v>
+        <v>0,00008224 BTC</v>
       </c>
       <c r="B11" s="149"/>
       <c r="C11" s="149"/>
       <c r="D11" s="148">
         <f>SUM(Tabela1[Variação])*INDEX(Tabela25[BTC/BRL],MATCH(999999999999999+307,Tabela25[BTC/BRL]))</f>
-        <v>2.1610556700000005</v>
+        <v>2.2698157760000006</v>
       </c>
       <c r="E11" s="148"/>
       <c r="F11" s="68">
@@ -24460,6 +24567,57 @@
         <v>0.59984685990570807</v>
       </c>
     </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A63" s="8">
+        <v>43247.420138888891</v>
+      </c>
+      <c r="B63" s="12">
+        <v>5</v>
+      </c>
+      <c r="C63" s="12">
+        <v>2018</v>
+      </c>
+      <c r="D63" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E63" s="6">
+        <v>2.0799899999999999E-3</v>
+      </c>
+      <c r="F63" s="6">
+        <v>2.0841599999999998E-3</v>
+      </c>
+      <c r="G63" s="6">
+        <v>4.1699999999999999E-6</v>
+      </c>
+      <c r="H63" s="72">
+        <f>Tabela1[[#This Row],[Posterior]]*VLOOKUP(Tabela1[[#This Row],[Data ]],Tabela25[],2)</f>
+        <v>15.287313599999999</v>
+      </c>
+      <c r="I63" s="80">
+        <f>Tabela1[[#This Row],[Posterior]]*VLOOKUP(Tabela1[[#This Row],[Data ]],Tabela25[],4)</f>
+        <v>57.522607583999999</v>
+      </c>
+      <c r="J63" s="80">
+        <f>IF(Tabela1[[#This Row],[Tipo]]="Depósito (BTC)","N/A",Tabela1[[#This Row],[Variação]]*VLOOKUP(Tabela1[[#This Row],[Data ]],Tabela25[],4))</f>
+        <v>0.115091583</v>
+      </c>
+      <c r="K63" s="101">
+        <f>IF(Tabela1[[#This Row],[Tipo]]="Depósito (BTC)","N/A",Tabela1[[#This Row],[Variação]]*VLOOKUP(Tabela1[[#This Row],[Data ]],Tabela25[],2))</f>
+        <v>3.0586949999999998E-2</v>
+      </c>
+      <c r="L63" s="81">
+        <f t="shared" ref="L63" si="12">G63/E63</f>
+        <v>2.0048173308525523E-3</v>
+      </c>
+      <c r="M63" s="3">
+        <f t="shared" ref="M63" si="13">L63*30</f>
+        <v>6.0144519925576567E-2</v>
+      </c>
+      <c r="N63" s="3">
+        <f t="shared" ref="N63" si="14">M63*12</f>
+        <v>0.72173423910691881</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="M31:N31"/>
@@ -24500,10 +24658,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M54"/>
+  <dimension ref="A1:M56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M37" sqref="M37"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24521,13 +24679,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="150" t="s">
+      <c r="B1" s="152" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="150"/>
+      <c r="C1" s="152"/>
       <c r="D1" s="155">
         <f ca="1">TODAY()+(40-K3)/J6</f>
-        <v>43262.607142857145</v>
+        <v>43262.583333333336</v>
       </c>
       <c r="E1" s="158" t="str">
         <f>I6</f>
@@ -24539,14 +24697,14 @@
       <c r="J1" s="137"/>
       <c r="K1" s="148">
         <f>INDEX(Tabela3[Saldo BRL],MATCH(9.99999999999999+307,Tabela3[Saldo BRL]))</f>
-        <v>95.215354999999988</v>
+        <v>100.67144999999999</v>
       </c>
       <c r="L1" s="148"/>
       <c r="M1" s="148"/>
     </row>
     <row r="2" spans="2:13" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="150"/>
-      <c r="C2" s="150"/>
+      <c r="B2" s="152"/>
+      <c r="C2" s="152"/>
       <c r="D2" s="156"/>
       <c r="E2" s="159"/>
       <c r="I2" s="137"/>
@@ -24556,11 +24714,11 @@
       <c r="M2" s="148"/>
     </row>
     <row r="3" spans="2:13" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="150"/>
-      <c r="C3" s="150"/>
+      <c r="B3" s="152"/>
+      <c r="C3" s="152"/>
       <c r="D3" s="157">
         <f ca="1">TODAY()+(40-K3)/J7</f>
-        <v>43263.67178502879</v>
+        <v>43263.450450450451</v>
       </c>
       <c r="E3" s="160" t="str">
         <f>I7</f>
@@ -24570,14 +24728,14 @@
       <c r="J3" s="137"/>
       <c r="K3" s="153">
         <f>INDEX(Tabela3[Saldo disponível para saque],MATCH(9.99999999999999+307,Tabela3[Saldo disponível para saque]))</f>
-        <v>26.049999999999997</v>
+        <v>27.749999999999996</v>
       </c>
       <c r="L3" s="153"/>
       <c r="M3" s="153"/>
     </row>
     <row r="4" spans="2:13" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="150"/>
-      <c r="C4" s="150"/>
+      <c r="B4" s="152"/>
+      <c r="C4" s="152"/>
       <c r="D4" s="156"/>
       <c r="E4" s="159"/>
       <c r="I4" s="154"/>
@@ -24597,7 +24755,7 @@
       </c>
       <c r="K6" s="95">
         <f ca="1">J6*VLOOKUP(TODAY(),Tabela25[],6)</f>
-        <v>3.0697800000000002</v>
+        <v>3.0473520000000001</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
@@ -24606,11 +24764,11 @@
       </c>
       <c r="J7" s="108">
         <f>SUM(Tabela3[Valor])/COUNT(Tabela3[Valor])</f>
-        <v>0.78939393939393931</v>
+        <v>0.7928571428571427</v>
       </c>
       <c r="K7" s="96">
         <f ca="1">J7*VLOOKUP(TODAY(),Tabela25[],6)</f>
-        <v>2.8848401515151512</v>
+        <v>2.8763271428571424</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
@@ -24619,11 +24777,11 @@
       </c>
       <c r="J8" s="108">
         <f>J7*30</f>
-        <v>23.68181818181818</v>
+        <v>23.785714285714281</v>
       </c>
       <c r="K8" s="96">
         <f ca="1">J8*VLOOKUP(TODAY(),Tabela25[],6)</f>
-        <v>86.545204545454538</v>
+        <v>86.289814285714272</v>
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
@@ -24632,11 +24790,11 @@
       </c>
       <c r="J9" s="108">
         <f>J8*12</f>
-        <v>284.18181818181813</v>
+        <v>285.42857142857139</v>
       </c>
       <c r="K9" s="96">
         <f ca="1">J9*VLOOKUP(TODAY(),Tabela25[],6)</f>
-        <v>1038.5424545454543</v>
+        <v>1035.4777714285713</v>
       </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
@@ -24649,7 +24807,7 @@
       </c>
       <c r="K10" s="96">
         <f ca="1">J10*VLOOKUP(TODAY(),Tabela25[],6)</f>
-        <v>3.1428699999999998</v>
+        <v>3.1199080000000001</v>
       </c>
     </row>
     <row r="11" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -24669,21 +24827,21 @@
       <c r="I12" s="104" t="s">
         <v>88</v>
       </c>
-      <c r="J12" s="151">
+      <c r="J12" s="150">
         <f>COUNTIF(Tabela3[Ação],"Comprar")+4</f>
         <v>4</v>
       </c>
-      <c r="K12" s="152"/>
+      <c r="K12" s="151"/>
     </row>
     <row r="13" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I13" s="104" t="s">
         <v>104</v>
       </c>
-      <c r="J13" s="151">
+      <c r="J13" s="150">
         <f>INDEX(Tabela3[CMP],MATCH(9.99999999999999+307,Tabela3[CMP]))*10</f>
         <v>4</v>
       </c>
-      <c r="K13" s="152"/>
+      <c r="K13" s="151"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="I14" s="104" t="s">
@@ -24694,7 +24852,7 @@
       </c>
       <c r="K14" s="95">
         <f ca="1">J14*VLOOKUP(TODAY(),Tabela25[],6)</f>
-        <v>146.18</v>
+        <v>145.11199999999999</v>
       </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
@@ -24707,7 +24865,7 @@
       </c>
       <c r="K15" s="96">
         <f ca="1">J15*VLOOKUP(TODAY(),Tabela25[],6)</f>
-        <v>584.72</v>
+        <v>580.44799999999998</v>
       </c>
     </row>
     <row r="16" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -24716,11 +24874,11 @@
       </c>
       <c r="J16" s="107">
         <f>SUM(Tabela3[Valor])</f>
-        <v>26.049999999999997</v>
+        <v>27.749999999999996</v>
       </c>
       <c r="K16" s="97">
         <f ca="1">J16*VLOOKUP(TODAY(),Tabela25[],6)</f>
-        <v>95.199724999999987</v>
+        <v>100.67144999999999</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -24729,11 +24887,11 @@
       </c>
       <c r="J17" s="112">
         <f>J16-J15</f>
-        <v>-133.94999999999999</v>
+        <v>-132.25</v>
       </c>
       <c r="K17" s="113">
         <f ca="1">J17*VLOOKUP(TODAY(),Tabela25[],6)</f>
-        <v>-489.52027499999997</v>
+        <v>-479.77655000000004</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -24775,7 +24933,7 @@
       </c>
       <c r="E22" s="13">
         <f>IFERROR(Tabela3[[#This Row],[Saldo disponível para saque]]*VLOOKUP(Tabela3[[#This Row],[Data]],Tabela25[],6),Tabela3[[#This Row],[Saldo disponível para saque]]*Cotação!J2)</f>
-        <v>3.0191171612903225</v>
+        <v>3.0199994999999999</v>
       </c>
       <c r="F22" s="93">
         <v>0.4</v>
@@ -25615,6 +25773,58 @@
         <v>0.4</v>
       </c>
       <c r="G54" s="57" t="str">
+        <f>IF(Tabela3[[#This Row],[Saldo disponível para saque]]&gt;=40,"Comprar","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="8">
+        <v>43246.769305555557</v>
+      </c>
+      <c r="B55" t="s">
+        <v>105</v>
+      </c>
+      <c r="C55" s="11">
+        <v>0.86</v>
+      </c>
+      <c r="D55" s="11">
+        <f>IFERROR(C55+D54,Tabela3[[#This Row],[Valor]])</f>
+        <v>26.909999999999997</v>
+      </c>
+      <c r="E55" s="13">
+        <f>IFERROR(Tabela3[[#This Row],[Saldo disponível para saque]]*VLOOKUP(Tabela3[[#This Row],[Data]],Tabela25[],6),Tabela3[[#This Row],[Saldo disponível para saque]]*Cotação!J35)</f>
+        <v>98.342594999999989</v>
+      </c>
+      <c r="F55" s="93">
+        <v>0.4</v>
+      </c>
+      <c r="G55" s="57" t="str">
+        <f>IF(Tabela3[[#This Row],[Saldo disponível para saque]]&gt;=40,"Comprar","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="8">
+        <v>43247.893773148149</v>
+      </c>
+      <c r="B56" t="s">
+        <v>106</v>
+      </c>
+      <c r="C56" s="11">
+        <v>0.84</v>
+      </c>
+      <c r="D56" s="11">
+        <f>IFERROR(C56+D55,Tabela3[[#This Row],[Valor]])</f>
+        <v>27.749999999999996</v>
+      </c>
+      <c r="E56" s="13">
+        <f>IFERROR(Tabela3[[#This Row],[Saldo disponível para saque]]*VLOOKUP(Tabela3[[#This Row],[Data]],Tabela25[],6),Tabela3[[#This Row],[Saldo disponível para saque]]*Cotação!J36)</f>
+        <v>100.67144999999999</v>
+      </c>
+      <c r="F56" s="93">
+        <v>0.4</v>
+      </c>
+      <c r="G56" s="57" t="str">
         <f>IF(Tabela3[[#This Row],[Saldo disponível para saque]]&gt;=40,"Comprar","")</f>
         <v/>
       </c>

--- a/Controle BTC.xlsx
+++ b/Controle BTC.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fjunger\Desktop\inestBTC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fjunger\Desktop\inestBTC\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195" tabRatio="601" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195" tabRatio="601" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Plan4" sheetId="11" state="hidden" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="113">
   <si>
     <t>Tipo</t>
   </si>
@@ -352,21 +352,39 @@
   <si>
     <t>Mining Bonus - Mining contract #27569 - 0.400 CMP - 2018-05-27</t>
   </si>
+  <si>
+    <t>Mining Bonus - Mining contract #27569 - 0.400 CMP - 2018-05-28</t>
+  </si>
+  <si>
+    <t>Mining Bonus - Mining contract #27569 - 0.400 CMP - 2018-05-29</t>
+  </si>
+  <si>
+    <t>Mining Bonus - Mining contract #27569 - 0.400 CMP - 2018-06-02</t>
+  </si>
+  <si>
+    <t>Mining Bonus - Mining contract #27569 - 0.400 CMP - 2018-06-01</t>
+  </si>
+  <si>
+    <t>Mining Bonus - Mining contract #27569 - 0.400 CMP - 2018-05-31</t>
+  </si>
+  <si>
+    <t>Mining Bonus - Mining contract #27569 - 0.400 CMP - 2018-05-30</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="9">
-    <numFmt numFmtId="164" formatCode="&quot;R$&quot;#,##0.00;[Red]\-&quot;R$&quot;#,##0.00"/>
-    <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00"/>
-    <numFmt numFmtId="166" formatCode="&quot;R$&quot;#,##0.00"/>
-    <numFmt numFmtId="167" formatCode="[$$-540A]#,##0.00"/>
-    <numFmt numFmtId="168" formatCode="0.00000000"/>
-    <numFmt numFmtId="169" formatCode="mm/yyyy"/>
-    <numFmt numFmtId="170" formatCode="#,##0.0"/>
-    <numFmt numFmtId="171" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
-    <numFmt numFmtId="172" formatCode="&quot;R$&quot;#,##0.00000000000000000000"/>
+    <numFmt numFmtId="8" formatCode="&quot;R$&quot;#,##0.00;[Red]\-&quot;R$&quot;#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="[$$-409]#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="&quot;R$&quot;#,##0.00"/>
+    <numFmt numFmtId="166" formatCode="[$$-540A]#,##0.00"/>
+    <numFmt numFmtId="167" formatCode="0.00000000"/>
+    <numFmt numFmtId="168" formatCode="mm/yyyy"/>
+    <numFmt numFmtId="169" formatCode="#,##0.0"/>
+    <numFmt numFmtId="170" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
+    <numFmt numFmtId="171" formatCode="&quot;R$&quot;#,##0.00000000000000000000"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -984,7 +1002,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="161">
+  <cellXfs count="165">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -993,16 +1011,16 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1014,11 +1032,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1061,59 +1079,59 @@
     <xf numFmtId="10" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1144,7 +1162,7 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1153,69 +1171,69 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="26" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="26" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1224,19 +1242,19 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1244,46 +1262,46 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="3" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="3" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="3" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="31" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="32" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="31" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="32" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="12" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="12" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="12" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="16" fillId="6" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="165" fontId="16" fillId="6" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="16" fillId="6" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1292,10 +1310,10 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1313,7 +1331,7 @@
     <xf numFmtId="14" fontId="7" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1340,28 +1358,28 @@
     <xf numFmtId="14" fontId="8" fillId="2" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="2" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="2" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="2" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="2" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="2" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="2" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="8" fillId="2" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1376,7 +1394,7 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="8" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1399,6 +1417,12 @@
     </xf>
     <xf numFmtId="14" fontId="14" fillId="2" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1443,17 +1467,17 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="170" formatCode="#,##0.0"/>
+      <numFmt numFmtId="169" formatCode="#,##0.0"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;R$&quot;#,##0.00"/>
+      <numFmt numFmtId="165" formatCode="&quot;R$&quot;#,##0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00"/>
+      <numFmt numFmtId="164" formatCode="[$$-409]#,##0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00"/>
+      <numFmt numFmtId="164" formatCode="[$$-409]#,##0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
@@ -1500,7 +1524,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00"/>
+      <numFmt numFmtId="164" formatCode="[$$-409]#,##0.00"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1519,7 +1543,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="166" formatCode="&quot;R$&quot;#,##0.00"/>
+      <numFmt numFmtId="165" formatCode="&quot;R$&quot;#,##0.00"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1538,11 +1562,11 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="166" formatCode="&quot;R$&quot;#,##0.00"/>
+      <numFmt numFmtId="165" formatCode="&quot;R$&quot;#,##0.00"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="[$$-540A]#,##0.00"/>
+      <numFmt numFmtId="166" formatCode="[$$-540A]#,##0.00"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1610,7 +1634,7 @@
       <font>
         <b val="0"/>
       </font>
-      <numFmt numFmtId="166" formatCode="&quot;R$&quot;#,##0.00"/>
+      <numFmt numFmtId="165" formatCode="&quot;R$&quot;#,##0.00"/>
       <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1648,28 +1672,28 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="166" formatCode="&quot;R$&quot;#,##0.00"/>
+      <numFmt numFmtId="165" formatCode="&quot;R$&quot;#,##0.00"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
         <b val="0"/>
       </font>
-      <numFmt numFmtId="166" formatCode="&quot;R$&quot;#,##0.00"/>
+      <numFmt numFmtId="165" formatCode="&quot;R$&quot;#,##0.00"/>
       <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
         <b val="0"/>
       </font>
-      <numFmt numFmtId="166" formatCode="&quot;R$&quot;#,##0.00"/>
+      <numFmt numFmtId="165" formatCode="&quot;R$&quot;#,##0.00"/>
       <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
         <b val="0"/>
       </font>
-      <numFmt numFmtId="169" formatCode="mm/yyyy"/>
+      <numFmt numFmtId="168" formatCode="mm/yyyy"/>
       <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1714,23 +1738,23 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;R$&quot;#,##0.00"/>
+      <numFmt numFmtId="165" formatCode="&quot;R$&quot;#,##0.00"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;R$&quot;#,##0.00"/>
+      <numFmt numFmtId="165" formatCode="&quot;R$&quot;#,##0.00"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;R$&quot;#,##0.00"/>
+      <numFmt numFmtId="165" formatCode="&quot;R$&quot;#,##0.00"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;R$&quot;#,##0.00"/>
+      <numFmt numFmtId="165" formatCode="&quot;R$&quot;#,##0.00"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;R$&quot;#,##0.00"/>
+      <numFmt numFmtId="165" formatCode="&quot;R$&quot;#,##0.00"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1769,27 +1793,27 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;R$&quot;#,##0.00"/>
+      <numFmt numFmtId="165" formatCode="&quot;R$&quot;#,##0.00"/>
       <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;R$&quot;#,##0.00"/>
+      <numFmt numFmtId="165" formatCode="&quot;R$&quot;#,##0.00"/>
       <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;R$&quot;#,##0.00"/>
+      <numFmt numFmtId="165" formatCode="&quot;R$&quot;#,##0.00"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;R$&quot;#,##0.00"/>
+      <numFmt numFmtId="165" formatCode="&quot;R$&quot;#,##0.00"/>
       <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00"/>
+      <numFmt numFmtId="164" formatCode="[$$-409]#,##0.00"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00"/>
+      <numFmt numFmtId="164" formatCode="[$$-409]#,##0.00"/>
       <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1944,10 +1968,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Atlas!$A$33:$A$63</c:f>
+              <c:f>Atlas!$A$33:$A$70</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>43216.500694444447</c:v>
                 </c:pt>
@@ -2040,16 +2064,37 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>43247.420138888891</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43248.420138888891</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43249.420138888891</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43250.420138888891</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43251.420138888891</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43252.420138888891</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43253.420138888891</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43254.420138888891</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Atlas!$F$33:$F$63</c:f>
+              <c:f>Atlas!$F$33:$F$70</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>2E-3</c:v>
                 </c:pt>
@@ -2142,6 +2187,27 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>2.0841599999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.0881699999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.0917800000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.0956299999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.0993600000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.1032099999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.1070099999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.1112000000000001E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2157,11 +2223,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="975148448"/>
-        <c:axId val="975148992"/>
+        <c:axId val="1556222720"/>
+        <c:axId val="1556220000"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="975148448"/>
+        <c:axId val="1556222720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2203,14 +2269,14 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="975148992"/>
+        <c:crossAx val="1556220000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="975148992"/>
+        <c:axId val="1556220000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2260,7 +2326,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="975148448"/>
+        <c:crossAx val="1556222720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2399,10 +2465,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Easy!$A$17:$A$36</c:f>
+              <c:f>Easy!$A$17:$A$37</c:f>
               <c:numCache>
                 <c:formatCode>mm/yyyy</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>42644</c:v>
                 </c:pt>
@@ -2462,16 +2528,19 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>43221</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43252</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Easy!$C$17:$C$36</c:f>
+              <c:f>Easy!$C$17:$C$37</c:f>
               <c:numCache>
                 <c:formatCode>"R$"#,##0.00</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>47.37</c:v>
                 </c:pt>
@@ -2531,6 +2600,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>55.64</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>55.73</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2546,11 +2618,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="778066944"/>
-        <c:axId val="976692880"/>
+        <c:axId val="1609064640"/>
+        <c:axId val="1611418656"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="778066944"/>
+        <c:axId val="1609064640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2593,14 +2665,14 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="976692880"/>
+        <c:crossAx val="1611418656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="976692880"/>
+        <c:axId val="1611418656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2651,7 +2723,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="778066944"/>
+        <c:crossAx val="1609064640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2779,10 +2851,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Easy!$A$17:$A$36</c:f>
+              <c:f>Easy!$A$17:$A$37</c:f>
               <c:numCache>
                 <c:formatCode>mm/yyyy</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>42644</c:v>
                 </c:pt>
@@ -2842,16 +2914,19 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>43221</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43252</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Easy!$E$17:$E$36</c:f>
+              <c:f>Easy!$E$17:$E$37</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2911,6 +2986,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>7.194244604316393E-4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.6175413371674391E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2926,11 +3004,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="976695600"/>
-        <c:axId val="976694512"/>
+        <c:axId val="1611414848"/>
+        <c:axId val="1611412672"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="976695600"/>
+        <c:axId val="1611414848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2973,14 +3051,14 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="976694512"/>
+        <c:crossAx val="1611412672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="976694512"/>
+        <c:axId val="1611412672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3031,7 +3109,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="976695600"/>
+        <c:crossAx val="1611414848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3095,6 +3173,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3158,10 +3237,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Atlas!$A$33:$A$63</c:f>
+              <c:f>Atlas!$A$33:$A$70</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>43216.500694444447</c:v>
                 </c:pt>
@@ -3254,16 +3333,37 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>43247.420138888891</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43248.420138888891</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43249.420138888891</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43250.420138888891</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43251.420138888891</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43252.420138888891</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43253.420138888891</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43254.420138888891</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Atlas!$F$33:$F$63</c:f>
+              <c:f>Atlas!$F$33:$F$70</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>2E-3</c:v>
                 </c:pt>
@@ -3356,6 +3456,27 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>2.0841599999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.0881699999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.0917800000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.0956299999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.0993600000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.1032099999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.1070099999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.1112000000000001E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3371,11 +3492,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="976690160"/>
-        <c:axId val="976683088"/>
+        <c:axId val="1611417568"/>
+        <c:axId val="1611418112"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="976690160"/>
+        <c:axId val="1611417568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3418,14 +3539,14 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="976683088"/>
+        <c:crossAx val="1611418112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="976683088"/>
+        <c:axId val="1611418112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3476,7 +3597,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="976690160"/>
+        <c:crossAx val="1611417568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3617,10 +3738,10 @@
                   <c:v>0.24225165700000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.465917317</c:v>
+                  <c:v>0.57762666500000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>9.0315278999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -3717,10 +3838,10 @@
                   <c:v>0.859536144</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.7324839929999998</c:v>
+                  <c:v>2.1565160630000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.34158356000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -3754,11 +3875,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="976695056"/>
-        <c:axId val="976685264"/>
+        <c:axId val="1611413760"/>
+        <c:axId val="1611415936"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="976695056"/>
+        <c:axId val="1611413760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3801,7 +3922,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="976685264"/>
+        <c:crossAx val="1611415936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3809,7 +3930,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="976685264"/>
+        <c:axId val="1611415936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3860,7 +3981,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="976695056"/>
+        <c:crossAx val="1611413760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3924,6 +4045,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3987,10 +4109,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Atlas!$A$33:$A$63</c:f>
+              <c:f>Atlas!$A$33:$A$70</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>43216.500694444447</c:v>
                 </c:pt>
@@ -4083,16 +4205,37 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>43247.420138888891</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43248.420138888891</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43249.420138888891</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43250.420138888891</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43251.420138888891</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43252.420138888891</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43253.420138888891</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43254.420138888891</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Atlas!$L$33:$L$63</c:f>
+              <c:f>Atlas!$L$33:$L$70</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4185,6 +4328,27 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>2.0048173308525523E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.9240365423000153E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.7287864493791215E-3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.8405377238524129E-3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.7798943515792388E-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.8338922338236416E-3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.8067620446840782E-3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.9885999591838671E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4200,11 +4364,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="976684720"/>
-        <c:axId val="976685808"/>
+        <c:axId val="1612506416"/>
+        <c:axId val="1612508048"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="976684720"/>
+        <c:axId val="1612506416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4247,14 +4411,14 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="976685808"/>
+        <c:crossAx val="1612508048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="976685808"/>
+        <c:axId val="1612508048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4305,7 +4469,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="976684720"/>
+        <c:crossAx val="1612506416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4433,10 +4597,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>AWS!$A$22:$A$56</c:f>
+              <c:f>AWS!$A$22:$A$62</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>43215.853043981479</c:v>
                 </c:pt>
@@ -4541,16 +4705,34 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>43247.893773148149</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43248.829872685186</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43249.907013888886</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43250.864062499997</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43251.897314814814</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43252.871805555558</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43253.990416666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>AWS!$D$22:$D$56</c:f>
+              <c:f>AWS!$D$22:$D$62</c:f>
               <c:numCache>
                 <c:formatCode>[$$-409]#,##0.00</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0.84</c:v>
                 </c:pt>
@@ -4655,6 +4837,24 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>27.749999999999996</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>28.589999999999996</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>29.439999999999998</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>30.29</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>31.14</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>31.990000000000002</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>32.840000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4670,11 +4870,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="976686352"/>
-        <c:axId val="976693424"/>
+        <c:axId val="1612507504"/>
+        <c:axId val="1612505872"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="976686352"/>
+        <c:axId val="1612507504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4717,14 +4917,14 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="976693424"/>
+        <c:crossAx val="1612505872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="976693424"/>
+        <c:axId val="1612505872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4775,7 +4975,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="976686352"/>
+        <c:crossAx val="1612507504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4903,10 +5103,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>AWS!$A$22:$A$56</c:f>
+              <c:f>AWS!$A$22:$A$62</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>43215.853043981479</c:v>
                 </c:pt>
@@ -5011,16 +5211,34 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>43247.893773148149</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43248.829872685186</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43249.907013888886</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43250.864062499997</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43251.897314814814</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43252.871805555558</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43253.990416666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>AWS!$C$22:$C$56</c:f>
+              <c:f>AWS!$C$22:$C$62</c:f>
               <c:numCache>
                 <c:formatCode>[$$-409]#,##0.00</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0.84</c:v>
                 </c:pt>
@@ -5125,6 +5343,24 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.85</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5140,11 +5376,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="976680368"/>
-        <c:axId val="976691248"/>
+        <c:axId val="1612508592"/>
+        <c:axId val="1612509680"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="976680368"/>
+        <c:axId val="1612508592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5187,14 +5423,14 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="976691248"/>
+        <c:crossAx val="1612509680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="976691248"/>
+        <c:axId val="1612509680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5245,7 +5481,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="976680368"/>
+        <c:crossAx val="1612508592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5416,10 +5652,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>AWS!$A$22:$A$56</c:f>
+              <c:f>AWS!$A$22:$A$62</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>43215.853043981479</c:v>
                 </c:pt>
@@ -5524,16 +5760,34 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>43247.893773148149</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43248.829872685186</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43249.907013888886</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43250.864062499997</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43251.897314814814</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43252.871805555558</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43253.990416666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>AWS!$D$22:$D$56</c:f>
+              <c:f>AWS!$D$22:$D$62</c:f>
               <c:numCache>
                 <c:formatCode>[$$-409]#,##0.00</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0.84</c:v>
                 </c:pt>
@@ -5638,6 +5892,24 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>27.749999999999996</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>28.589999999999996</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>29.439999999999998</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>30.29</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>31.14</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>31.990000000000002</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>32.840000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5653,11 +5925,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="975146272"/>
-        <c:axId val="975153344"/>
+        <c:axId val="1600803600"/>
+        <c:axId val="1600802512"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="975146272"/>
+        <c:axId val="1600803600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5699,14 +5971,14 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="975153344"/>
+        <c:crossAx val="1600802512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="975153344"/>
+        <c:axId val="1600802512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5756,7 +6028,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="975146272"/>
+        <c:crossAx val="1600803600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5947,10 +6219,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Easy!$A$17:$A$36</c:f>
+              <c:f>Easy!$A$17:$A$37</c:f>
               <c:numCache>
                 <c:formatCode>mm/yyyy</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>42644</c:v>
                 </c:pt>
@@ -6010,16 +6282,19 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>43221</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43252</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Easy!$C$17:$C$36</c:f>
+              <c:f>Easy!$C$17:$C$37</c:f>
               <c:numCache>
                 <c:formatCode>"R$"#,##0.00</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>47.37</c:v>
                 </c:pt>
@@ -6079,6 +6354,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>55.64</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>55.73</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6094,11 +6372,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="975146816"/>
-        <c:axId val="975147904"/>
+        <c:axId val="1600803056"/>
+        <c:axId val="1600949824"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="975146816"/>
+        <c:axId val="1600803056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6140,14 +6418,14 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="975147904"/>
+        <c:crossAx val="1600949824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="975147904"/>
+        <c:axId val="1600949824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6197,7 +6475,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="975146816"/>
+        <c:crossAx val="1600803056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6348,10 +6626,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Total!$H$20:$H$51</c:f>
+              <c:f>Total!$H$20:$H$59</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>43215</c:v>
                 </c:pt>
@@ -6447,18 +6725,42 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>43246</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43247</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43248</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43249</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43250</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43251</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43252</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43253</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43254</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Total!$L$20:$L$51</c:f>
+              <c:f>Total!$L$20:$L$59</c:f>
               <c:numCache>
                 <c:formatCode>"R$"#,##0.00</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
-                  <c:v>58.619999499999999</c:v>
+                  <c:v>58.642240923076926</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>126.75359499999999</c:v>
@@ -6552,6 +6854,30 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>211.55879819</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>213.83405758399999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>218.80995799999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>224.722328</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>227.15835033999997</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>230.98461064</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>235.81337642999998</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>240.12371450000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>241.1503008</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6567,11 +6893,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="975149536"/>
-        <c:axId val="975150080"/>
+        <c:axId val="1600946016"/>
+        <c:axId val="1600947104"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="975149536"/>
+        <c:axId val="1600946016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6613,14 +6939,14 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="975150080"/>
+        <c:crossAx val="1600947104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="975150080"/>
+        <c:axId val="1600947104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6670,7 +6996,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="975149536"/>
+        <c:crossAx val="1600946016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6745,7 +7071,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6821,10 +7146,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Cotação!$A$3:$A$34</c:f>
+              <c:f>Cotação!$A$3:$A$41</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>43216</c:v>
                 </c:pt>
@@ -6920,16 +7245,37 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>43247</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43248</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43249</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43250</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43251</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43252</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43253</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43254</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Cotação!$D$3:$D$34</c:f>
+              <c:f>Cotação!$D$3:$D$41</c:f>
               <c:numCache>
                 <c:formatCode>"R$"#,##0.00</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>32640</c:v>
                 </c:pt>
@@ -7025,6 +7371,27 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>27599.9</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>27000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>28400</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>28018</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>28249</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>28383</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>28850</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>29279</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7040,11 +7407,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="975152800"/>
-        <c:axId val="975150624"/>
+        <c:axId val="1600946560"/>
+        <c:axId val="1600951456"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="975152800"/>
+        <c:axId val="1600946560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7086,14 +7453,14 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="975150624"/>
+        <c:crossAx val="1600951456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="975150624"/>
+        <c:axId val="1600951456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7143,7 +7510,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="975152800"/>
+        <c:crossAx val="1600946560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7294,10 +7661,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Cotação!$A$3:$A$34</c:f>
+              <c:f>Cotação!$A$3:$A$41</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>43216</c:v>
                 </c:pt>
@@ -7393,16 +7760,37 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>43247</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43248</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43249</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43250</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43251</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43252</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43253</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43254</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Cotação!$F$3:$F$34</c:f>
+              <c:f>Cotação!$F$3:$F$41</c:f>
               <c:numCache>
                 <c:formatCode>"R$"#,##0.00</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>3.4754999999999998</c:v>
                 </c:pt>
@@ -7498,6 +7886,27 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>3.6278000000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.7351999999999999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.7254</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.7241</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.7235</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.7633000000000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.7639</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.7639</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7513,11 +7922,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="975151168"/>
-        <c:axId val="975151712"/>
+        <c:axId val="1600947648"/>
+        <c:axId val="1600952000"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="975151168"/>
+        <c:axId val="1600947648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7559,14 +7968,14 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="975151712"/>
+        <c:crossAx val="1600952000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="975151712"/>
+        <c:axId val="1600952000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7616,7 +8025,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="975151168"/>
+        <c:crossAx val="1600947648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7767,10 +8176,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Cotação!$A$3:$A$34</c:f>
+              <c:f>Cotação!$A$3:$A$41</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>43216</c:v>
                 </c:pt>
@@ -7866,16 +8275,37 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>43247</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43248</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43249</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43250</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43251</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43252</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43253</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43254</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Cotação!$B$3:$B$34</c:f>
+              <c:f>Cotação!$B$3:$B$41</c:f>
               <c:numCache>
                 <c:formatCode>[$$-409]#,##0.00</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>9279.2999999999993</c:v>
                 </c:pt>
@@ -7971,6 +8401,27 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>7335</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>7097.9</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7460</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>7375.1</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7485.8</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>7521</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7638.1</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>7717.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7986,11 +8437,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="975152256"/>
-        <c:axId val="944592864"/>
+        <c:axId val="1609066816"/>
+        <c:axId val="1609063552"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="975152256"/>
+        <c:axId val="1609066816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8032,14 +8483,14 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="944592864"/>
+        <c:crossAx val="1609063552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="944592864"/>
+        <c:axId val="1609063552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8089,7 +8540,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="975152256"/>
+        <c:crossAx val="1609066816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8227,10 +8678,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Total!$H$20:$H$51</c:f>
+              <c:f>Total!$H$20:$H$59</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>43215</c:v>
                 </c:pt>
@@ -8326,18 +8777,42 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>43246</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43247</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43248</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43249</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43250</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43251</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43252</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43253</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43254</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Total!$L$20:$L$51</c:f>
+              <c:f>Total!$L$20:$L$59</c:f>
               <c:numCache>
                 <c:formatCode>"R$"#,##0.00</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
-                  <c:v>58.619999499999999</c:v>
+                  <c:v>58.642240923076926</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>126.75359499999999</c:v>
@@ -8431,6 +8906,30 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>211.55879819</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>213.83405758399999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>218.80995799999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>224.722328</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>227.15835033999997</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>230.98461064</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>235.81337642999998</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>240.12371450000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>241.1503008</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8446,11 +8945,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="944598304"/>
-        <c:axId val="944599936"/>
+        <c:axId val="1609066272"/>
+        <c:axId val="1609070624"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="944598304"/>
+        <c:axId val="1609066272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8493,14 +8992,14 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="944599936"/>
+        <c:crossAx val="1609070624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="944599936"/>
+        <c:axId val="1609070624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8551,7 +9050,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="944598304"/>
+        <c:crossAx val="1609066272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8690,10 +9189,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Total!$H$20:$H$51</c:f>
+              <c:f>Total!$H$20:$H$59</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>43215</c:v>
                 </c:pt>
@@ -8789,21 +9288,45 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>43246</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43247</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43248</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43249</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43250</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43251</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43252</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43253</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43254</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Total!$M$20:$M$51</c:f>
+              <c:f>Total!$M$20:$M$59</c:f>
               <c:numCache>
                 <c:formatCode>"R$"#,##0.00</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>68.133595499999984</c:v>
+                  <c:v>68.111354076923064</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>3.1866181360000212</c:v>
@@ -8894,6 +9417,30 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>2.2491236900000331</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.2752593939999883</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4.9759004160000018</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5.9123700000000099</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.4360223399999654</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.8262603000000297</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4.8287657899999772</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4.3103380700000287</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.0265862999999911</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8910,11 +9457,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="944601568"/>
-        <c:axId val="778065312"/>
+        <c:axId val="1609067360"/>
+        <c:axId val="1609064096"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="944601568"/>
+        <c:axId val="1609067360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8957,14 +9504,14 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="778065312"/>
+        <c:crossAx val="1609064096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="778065312"/>
+        <c:axId val="1609064096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9015,7 +9562,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="944601568"/>
+        <c:crossAx val="1609067360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -18351,8 +18898,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabela25" displayName="Tabela25" ref="A2:G34" totalsRowShown="0" headerRowDxfId="50" dataDxfId="49">
-  <autoFilter ref="A2:G34"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabela25" displayName="Tabela25" ref="A2:G41" totalsRowShown="0" headerRowDxfId="50" dataDxfId="49">
+  <autoFilter ref="A2:G41"/>
   <tableColumns count="7">
     <tableColumn id="1" name="Data" dataDxfId="48"/>
     <tableColumn id="2" name="BTC/USD" dataDxfId="47"/>
@@ -18373,8 +18920,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabela6" displayName="Tabela6" ref="H19:N51" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40">
-  <autoFilter ref="H19:N51"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabela6" displayName="Tabela6" ref="H19:N59" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40">
+  <autoFilter ref="H19:N59"/>
   <tableColumns count="7">
     <tableColumn id="1" name="Data" dataDxfId="39"/>
     <tableColumn id="2" name="Atlas" dataDxfId="38">
@@ -18401,8 +18948,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabela16" displayName="Tabela16" ref="A16:F36" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31">
-  <autoFilter ref="A16:F36"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabela16" displayName="Tabela16" ref="A16:F37" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31">
+  <autoFilter ref="A16:F37"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Data " dataDxfId="30"/>
     <tableColumn id="3" name="Anterior" dataDxfId="29">
@@ -18424,8 +18971,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A32:N63" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
-  <autoFilter ref="A32:N63"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A32:N70" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
+  <autoFilter ref="A32:N70"/>
   <tableColumns count="14">
     <tableColumn id="1" name="Data " dataDxfId="22"/>
     <tableColumn id="13" name="Mês" dataDxfId="21">
@@ -18463,8 +19010,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela3" displayName="Tabela3" ref="A21:G56" totalsRowShown="0">
-  <autoFilter ref="A21:G56"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela3" displayName="Tabela3" ref="A21:G62" totalsRowShown="0">
+  <autoFilter ref="A21:G62"/>
   <tableColumns count="7">
     <tableColumn id="1" name="Data" dataDxfId="8"/>
     <tableColumn id="2" name="Descrição"/>
@@ -18948,7 +19495,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="N1:U3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="O39" sqref="O39"/>
     </sheetView>
   </sheetViews>
@@ -18966,7 +19513,7 @@
       <c r="Q1" s="121"/>
       <c r="R1" s="120">
         <f>SUM(Atlas!A7,AWS!K1,Easy!L22)</f>
-        <v>213.83405758399999</v>
+        <v>241.1503008</v>
       </c>
       <c r="S1" s="120"/>
       <c r="T1" s="120"/>
@@ -19005,10 +19552,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB34"/>
+  <dimension ref="A1:AB41"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19086,7 +19633,7 @@
       </c>
       <c r="J2" s="38">
         <f>AVERAGE(Tabela25[USD/BRL])</f>
-        <v>3.5952375000000001</v>
+        <v>3.6217153846153849</v>
       </c>
       <c r="L2" s="27"/>
       <c r="M2" s="27"/>
@@ -19137,7 +19684,7 @@
       </c>
       <c r="J3" s="117">
         <f>AVERAGE(Tabela25[BTC/BRL])</f>
-        <v>31748.693750000002</v>
+        <v>31131.723076923081</v>
       </c>
       <c r="L3" s="27"/>
       <c r="M3" s="27"/>
@@ -19188,7 +19735,7 @@
       </c>
       <c r="J4" s="118">
         <f>AVERAGE(Tabela25[BTC/USD])</f>
-        <v>8687.6343749999996</v>
+        <v>8469.2128205128192</v>
       </c>
       <c r="L4" s="27"/>
       <c r="M4" s="27"/>
@@ -19331,7 +19878,7 @@
       </c>
       <c r="J7" s="38">
         <f>LARGE(Tabela25[USD/BRL],1)</f>
-        <v>3.7494999999999998</v>
+        <v>3.7639</v>
       </c>
       <c r="L7" s="27"/>
       <c r="M7" s="27"/>
@@ -19621,7 +20168,7 @@
       </c>
       <c r="J13" s="117">
         <f>SMALL(Tabela25[BTC/BRL],1)</f>
-        <v>27599.9</v>
+        <v>27000</v>
       </c>
       <c r="L13" s="27"/>
       <c r="M13" s="27"/>
@@ -19671,7 +20218,7 @@
       </c>
       <c r="J14" s="118">
         <f>SMALL(Tabela25[BTC/USD],1)</f>
-        <v>7335</v>
+        <v>7097.9</v>
       </c>
       <c r="L14" s="27"/>
       <c r="M14" s="27"/>
@@ -20543,6 +21090,188 @@
       <c r="G34" s="5" t="str">
         <f>IF(Tabela25[[#This Row],[USD/BRL]]&lt;F33,"▼",IF(Tabela25[[#This Row],[USD/BRL]]&gt;F33,"▲","-"))</f>
         <v>▼</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A35" s="8">
+        <v>43248</v>
+      </c>
+      <c r="B35" s="4">
+        <v>7097.9</v>
+      </c>
+      <c r="C35" s="4" t="str">
+        <f>IF(Tabela25[[#This Row],[BTC/USD]]&lt;B34,"▼",IF(Tabela25[[#This Row],[BTC/USD]]&gt;B34,"▲","-"))</f>
+        <v>▼</v>
+      </c>
+      <c r="D35" s="5">
+        <v>27000</v>
+      </c>
+      <c r="E35" s="5" t="str">
+        <f>IF(Tabela25[[#This Row],[BTC/BRL]]&lt;D34,"▼",IF(Tabela25[[#This Row],[BTC/BRL]]&gt;D34,"▲","-"))</f>
+        <v>▼</v>
+      </c>
+      <c r="F35" s="5">
+        <v>3.7351999999999999</v>
+      </c>
+      <c r="G35" s="5" t="str">
+        <f>IF(Tabela25[[#This Row],[USD/BRL]]&lt;F34,"▼",IF(Tabela25[[#This Row],[USD/BRL]]&gt;F34,"▲","-"))</f>
+        <v>▲</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A36" s="8">
+        <v>43249</v>
+      </c>
+      <c r="B36" s="4">
+        <v>7460</v>
+      </c>
+      <c r="C36" s="4" t="str">
+        <f>IF(Tabela25[[#This Row],[BTC/USD]]&lt;B35,"▼",IF(Tabela25[[#This Row],[BTC/USD]]&gt;B35,"▲","-"))</f>
+        <v>▲</v>
+      </c>
+      <c r="D36" s="5">
+        <v>28400</v>
+      </c>
+      <c r="E36" s="5" t="str">
+        <f>IF(Tabela25[[#This Row],[BTC/BRL]]&lt;D35,"▼",IF(Tabela25[[#This Row],[BTC/BRL]]&gt;D35,"▲","-"))</f>
+        <v>▲</v>
+      </c>
+      <c r="F36" s="5">
+        <v>3.7254</v>
+      </c>
+      <c r="G36" s="5" t="str">
+        <f>IF(Tabela25[[#This Row],[USD/BRL]]&lt;F35,"▼",IF(Tabela25[[#This Row],[USD/BRL]]&gt;F35,"▲","-"))</f>
+        <v>▼</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A37" s="8">
+        <v>43250</v>
+      </c>
+      <c r="B37" s="4">
+        <v>7375.1</v>
+      </c>
+      <c r="C37" s="4" t="str">
+        <f>IF(Tabela25[[#This Row],[BTC/USD]]&lt;B36,"▼",IF(Tabela25[[#This Row],[BTC/USD]]&gt;B36,"▲","-"))</f>
+        <v>▼</v>
+      </c>
+      <c r="D37" s="5">
+        <v>28018</v>
+      </c>
+      <c r="E37" s="5" t="str">
+        <f>IF(Tabela25[[#This Row],[BTC/BRL]]&lt;D36,"▼",IF(Tabela25[[#This Row],[BTC/BRL]]&gt;D36,"▲","-"))</f>
+        <v>▼</v>
+      </c>
+      <c r="F37" s="5">
+        <v>3.7241</v>
+      </c>
+      <c r="G37" s="5" t="str">
+        <f>IF(Tabela25[[#This Row],[USD/BRL]]&lt;F36,"▼",IF(Tabela25[[#This Row],[USD/BRL]]&gt;F36,"▲","-"))</f>
+        <v>▼</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A38" s="8">
+        <v>43251</v>
+      </c>
+      <c r="B38" s="4">
+        <v>7485.8</v>
+      </c>
+      <c r="C38" s="4" t="str">
+        <f>IF(Tabela25[[#This Row],[BTC/USD]]&lt;B37,"▼",IF(Tabela25[[#This Row],[BTC/USD]]&gt;B37,"▲","-"))</f>
+        <v>▲</v>
+      </c>
+      <c r="D38" s="5">
+        <v>28249</v>
+      </c>
+      <c r="E38" s="5" t="str">
+        <f>IF(Tabela25[[#This Row],[BTC/BRL]]&lt;D37,"▼",IF(Tabela25[[#This Row],[BTC/BRL]]&gt;D37,"▲","-"))</f>
+        <v>▲</v>
+      </c>
+      <c r="F38" s="5">
+        <v>3.7235</v>
+      </c>
+      <c r="G38" s="5" t="str">
+        <f>IF(Tabela25[[#This Row],[USD/BRL]]&lt;F37,"▼",IF(Tabela25[[#This Row],[USD/BRL]]&gt;F37,"▲","-"))</f>
+        <v>▼</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A39" s="8">
+        <v>43252</v>
+      </c>
+      <c r="B39" s="4">
+        <v>7521</v>
+      </c>
+      <c r="C39" s="4" t="str">
+        <f>IF(Tabela25[[#This Row],[BTC/USD]]&lt;B38,"▼",IF(Tabela25[[#This Row],[BTC/USD]]&gt;B38,"▲","-"))</f>
+        <v>▲</v>
+      </c>
+      <c r="D39" s="5">
+        <v>28383</v>
+      </c>
+      <c r="E39" s="5" t="str">
+        <f>IF(Tabela25[[#This Row],[BTC/BRL]]&lt;D38,"▼",IF(Tabela25[[#This Row],[BTC/BRL]]&gt;D38,"▲","-"))</f>
+        <v>▲</v>
+      </c>
+      <c r="F39" s="5">
+        <v>3.7633000000000001</v>
+      </c>
+      <c r="G39" s="5" t="str">
+        <f>IF(Tabela25[[#This Row],[USD/BRL]]&lt;F38,"▼",IF(Tabela25[[#This Row],[USD/BRL]]&gt;F38,"▲","-"))</f>
+        <v>▲</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A40" s="8">
+        <v>43253</v>
+      </c>
+      <c r="B40" s="4">
+        <v>7638.1</v>
+      </c>
+      <c r="C40" s="4" t="str">
+        <f>IF(Tabela25[[#This Row],[BTC/USD]]&lt;B39,"▼",IF(Tabela25[[#This Row],[BTC/USD]]&gt;B39,"▲","-"))</f>
+        <v>▲</v>
+      </c>
+      <c r="D40" s="5">
+        <v>28850</v>
+      </c>
+      <c r="E40" s="5" t="str">
+        <f>IF(Tabela25[[#This Row],[BTC/BRL]]&lt;D39,"▼",IF(Tabela25[[#This Row],[BTC/BRL]]&gt;D39,"▲","-"))</f>
+        <v>▲</v>
+      </c>
+      <c r="F40" s="5">
+        <v>3.7639</v>
+      </c>
+      <c r="G40" s="5" t="str">
+        <f>IF(Tabela25[[#This Row],[USD/BRL]]&lt;F39,"▼",IF(Tabela25[[#This Row],[USD/BRL]]&gt;F39,"▲","-"))</f>
+        <v>▲</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A41" s="8">
+        <v>43254</v>
+      </c>
+      <c r="B41" s="4">
+        <v>7717.1</v>
+      </c>
+      <c r="C41" s="4" t="str">
+        <f>IF(Tabela25[[#This Row],[BTC/USD]]&lt;B40,"▼",IF(Tabela25[[#This Row],[BTC/USD]]&gt;B40,"▲","-"))</f>
+        <v>▲</v>
+      </c>
+      <c r="D41" s="5">
+        <v>29279</v>
+      </c>
+      <c r="E41" s="5" t="str">
+        <f>IF(Tabela25[[#This Row],[BTC/BRL]]&lt;D40,"▼",IF(Tabela25[[#This Row],[BTC/BRL]]&gt;D40,"▲","-"))</f>
+        <v>▲</v>
+      </c>
+      <c r="F41" s="5">
+        <v>3.7639</v>
+      </c>
+      <c r="G41" s="5" t="str">
+        <f>IF(Tabela25[[#This Row],[USD/BRL]]&lt;F40,"▼",IF(Tabela25[[#This Row],[USD/BRL]]&gt;F40,"▲","-"))</f>
+        <v>-</v>
       </c>
     </row>
   </sheetData>
@@ -20591,10 +21320,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A18:R51"/>
+  <dimension ref="A18:R59"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="L51" sqref="L51"/>
+      <selection activeCell="N57" sqref="N57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20650,7 +21379,7 @@
       </c>
       <c r="J20" s="5">
         <f>IFERROR(VLOOKUP(Tabela6[[#This Row],[Data]]+1,Tabela3[[Data]:[Saldo BRL]],5),0)</f>
-        <v>3.0199994999999999</v>
+        <v>3.0422409230769234</v>
       </c>
       <c r="K20" s="5">
         <f>VLOOKUP(Tabela6[[#This Row],[Data]]+1,Tabela16[#All],3)</f>
@@ -20658,7 +21387,7 @@
       </c>
       <c r="L20" s="5">
         <f>SUM(Tabela6[[#This Row],[Atlas]:[Easy]])</f>
-        <v>58.619999499999999</v>
+        <v>58.642240923076926</v>
       </c>
       <c r="M20" s="5">
         <f>IFERROR(Tabela6[[#This Row],[Total]]-L19,0)</f>
@@ -20697,19 +21426,19 @@
       </c>
       <c r="M21" s="5">
         <f>IFERROR(Tabela6[[#This Row],[Total]]-L20,0)</f>
-        <v>68.133595499999984</v>
+        <v>68.111354076923064</v>
       </c>
       <c r="N21" s="3">
         <f>Tabela6[[#This Row],[Variação]]/Tabela6[[#This Row],[Total]]</f>
-        <v>0.53752791390256027</v>
+        <v>0.53735244414111549</v>
       </c>
       <c r="Q21" s="99">
         <f>AVERAGE(Tabela6[Variação %])</f>
-        <v>3.2577523550896686E-2</v>
+        <v>2.9299237150066198E-2</v>
       </c>
       <c r="R21" s="71">
         <f>AVERAGE(Tabela6[Variação])</f>
-        <v>4.7793374590625</v>
+        <v>4.5627014969230766</v>
       </c>
     </row>
     <row r="22" spans="8:18" x14ac:dyDescent="0.25">
@@ -21580,6 +22309,238 @@
       <c r="N51" s="3">
         <f>Tabela6[[#This Row],[Variação]]/Tabela6[[#This Row],[Total]]</f>
         <v>1.0631199029501506E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H52" s="90">
+        <v>43247</v>
+      </c>
+      <c r="I52" s="5">
+        <f>IFERROR(VLOOKUP(Tabela6[[#This Row],[Data]]+1,Tabela1[[Data ]:[BRL]],9),0)</f>
+        <v>57.522607583999999</v>
+      </c>
+      <c r="J52" s="5">
+        <f>IFERROR(VLOOKUP(Tabela6[[#This Row],[Data]]+1,Tabela3[[Data]:[Saldo BRL]],5),0)</f>
+        <v>100.67144999999999</v>
+      </c>
+      <c r="K52" s="5">
+        <f>VLOOKUP(Tabela6[[#This Row],[Data]]+1,Tabela16[#All],3)</f>
+        <v>55.64</v>
+      </c>
+      <c r="L52" s="5">
+        <f>SUM(Tabela6[[#This Row],[Atlas]:[Easy]])</f>
+        <v>213.83405758399999</v>
+      </c>
+      <c r="M52" s="5">
+        <f>IFERROR(Tabela6[[#This Row],[Total]]-L51,0)</f>
+        <v>2.2752593939999883</v>
+      </c>
+      <c r="N52" s="3">
+        <f>Tabela6[[#This Row],[Variação]]/Tabela6[[#This Row],[Total]]</f>
+        <v>1.0640304073667979E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H53" s="90">
+        <v>43248</v>
+      </c>
+      <c r="I53" s="5">
+        <f>IFERROR(VLOOKUP(Tabela6[[#This Row],[Data]]+1,Tabela1[[Data ]:[BRL]],9),0)</f>
+        <v>56.380589999999998</v>
+      </c>
+      <c r="J53" s="5">
+        <f>IFERROR(VLOOKUP(Tabela6[[#This Row],[Data]]+1,Tabela3[[Data]:[Saldo BRL]],5),0)</f>
+        <v>106.78936799999998</v>
+      </c>
+      <c r="K53" s="5">
+        <f>VLOOKUP(Tabela6[[#This Row],[Data]]+1,Tabela16[#All],3)</f>
+        <v>55.64</v>
+      </c>
+      <c r="L53" s="5">
+        <f>SUM(Tabela6[[#This Row],[Atlas]:[Easy]])</f>
+        <v>218.80995799999999</v>
+      </c>
+      <c r="M53" s="5">
+        <f>IFERROR(Tabela6[[#This Row],[Total]]-L52,0)</f>
+        <v>4.9759004160000018</v>
+      </c>
+      <c r="N53" s="3">
+        <f>Tabela6[[#This Row],[Variação]]/Tabela6[[#This Row],[Total]]</f>
+        <v>2.274074023632874E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H54" s="90">
+        <v>43249</v>
+      </c>
+      <c r="I54" s="5">
+        <f>IFERROR(VLOOKUP(Tabela6[[#This Row],[Data]]+1,Tabela1[[Data ]:[BRL]],9),0)</f>
+        <v>59.406552000000005</v>
+      </c>
+      <c r="J54" s="5">
+        <f>IFERROR(VLOOKUP(Tabela6[[#This Row],[Data]]+1,Tabela3[[Data]:[Saldo BRL]],5),0)</f>
+        <v>109.675776</v>
+      </c>
+      <c r="K54" s="5">
+        <f>VLOOKUP(Tabela6[[#This Row],[Data]]+1,Tabela16[#All],3)</f>
+        <v>55.64</v>
+      </c>
+      <c r="L54" s="5">
+        <f>SUM(Tabela6[[#This Row],[Atlas]:[Easy]])</f>
+        <v>224.722328</v>
+      </c>
+      <c r="M54" s="5">
+        <f>IFERROR(Tabela6[[#This Row],[Total]]-L53,0)</f>
+        <v>5.9123700000000099</v>
+      </c>
+      <c r="N54" s="3">
+        <f>Tabela6[[#This Row],[Variação]]/Tabela6[[#This Row],[Total]]</f>
+        <v>2.6309668703681326E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H55" s="90">
+        <v>43250</v>
+      </c>
+      <c r="I55" s="5">
+        <f>IFERROR(VLOOKUP(Tabela6[[#This Row],[Data]]+1,Tabela1[[Data ]:[BRL]],9),0)</f>
+        <v>58.715361339999994</v>
+      </c>
+      <c r="J55" s="5">
+        <f>IFERROR(VLOOKUP(Tabela6[[#This Row],[Data]]+1,Tabela3[[Data]:[Saldo BRL]],5),0)</f>
+        <v>112.802989</v>
+      </c>
+      <c r="K55" s="5">
+        <f>VLOOKUP(Tabela6[[#This Row],[Data]]+1,Tabela16[#All],3)</f>
+        <v>55.64</v>
+      </c>
+      <c r="L55" s="5">
+        <f>SUM(Tabela6[[#This Row],[Atlas]:[Easy]])</f>
+        <v>227.15835033999997</v>
+      </c>
+      <c r="M55" s="5">
+        <f>IFERROR(Tabela6[[#This Row],[Total]]-L54,0)</f>
+        <v>2.4360223399999654</v>
+      </c>
+      <c r="N55" s="3">
+        <f>Tabela6[[#This Row],[Variação]]/Tabela6[[#This Row],[Total]]</f>
+        <v>1.0723895187448937E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H56" s="90">
+        <v>43251</v>
+      </c>
+      <c r="I56" s="5">
+        <f>IFERROR(VLOOKUP(Tabela6[[#This Row],[Data]]+1,Tabela1[[Data ]:[BRL]],9),0)</f>
+        <v>59.304820640000003</v>
+      </c>
+      <c r="J56" s="5">
+        <f>IFERROR(VLOOKUP(Tabela6[[#This Row],[Data]]+1,Tabela3[[Data]:[Saldo BRL]],5),0)</f>
+        <v>115.94979000000001</v>
+      </c>
+      <c r="K56" s="5">
+        <f>VLOOKUP(Tabela6[[#This Row],[Data]]+1,Tabela16[#All],3)</f>
+        <v>55.73</v>
+      </c>
+      <c r="L56" s="5">
+        <f>SUM(Tabela6[[#This Row],[Atlas]:[Easy]])</f>
+        <v>230.98461064</v>
+      </c>
+      <c r="M56" s="5">
+        <f>IFERROR(Tabela6[[#This Row],[Total]]-L55,0)</f>
+        <v>3.8262603000000297</v>
+      </c>
+      <c r="N56" s="3">
+        <f>Tabela6[[#This Row],[Variação]]/Tabela6[[#This Row],[Total]]</f>
+        <v>1.6565000973001748E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H57" s="90">
+        <v>43252</v>
+      </c>
+      <c r="I57" s="5">
+        <f>IFERROR(VLOOKUP(Tabela6[[#This Row],[Data]]+1,Tabela1[[Data ]:[BRL]],9),0)</f>
+        <v>59.695409429999998</v>
+      </c>
+      <c r="J57" s="5">
+        <f>IFERROR(VLOOKUP(Tabela6[[#This Row],[Data]]+1,Tabela3[[Data]:[Saldo BRL]],5),0)</f>
+        <v>120.387967</v>
+      </c>
+      <c r="K57" s="5">
+        <f>VLOOKUP(Tabela6[[#This Row],[Data]]+1,Tabela16[#All],3)</f>
+        <v>55.73</v>
+      </c>
+      <c r="L57" s="5">
+        <f>SUM(Tabela6[[#This Row],[Atlas]:[Easy]])</f>
+        <v>235.81337642999998</v>
+      </c>
+      <c r="M57" s="5">
+        <f>IFERROR(Tabela6[[#This Row],[Total]]-L56,0)</f>
+        <v>4.8287657899999772</v>
+      </c>
+      <c r="N57" s="3">
+        <f>Tabela6[[#This Row],[Variação]]/Tabela6[[#This Row],[Total]]</f>
+        <v>2.0477064800577045E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H58" s="90">
+        <v>43253</v>
+      </c>
+      <c r="I58" s="5">
+        <f>IFERROR(VLOOKUP(Tabela6[[#This Row],[Data]]+1,Tabela1[[Data ]:[BRL]],9),0)</f>
+        <v>60.787238499999994</v>
+      </c>
+      <c r="J58" s="5">
+        <f>IFERROR(VLOOKUP(Tabela6[[#This Row],[Data]]+1,Tabela3[[Data]:[Saldo BRL]],5),0)</f>
+        <v>123.60647600000001</v>
+      </c>
+      <c r="K58" s="5">
+        <f>VLOOKUP(Tabela6[[#This Row],[Data]]+1,Tabela16[#All],3)</f>
+        <v>55.73</v>
+      </c>
+      <c r="L58" s="5">
+        <f>SUM(Tabela6[[#This Row],[Atlas]:[Easy]])</f>
+        <v>240.12371450000001</v>
+      </c>
+      <c r="M58" s="5">
+        <f>IFERROR(Tabela6[[#This Row],[Total]]-L57,0)</f>
+        <v>4.3103380700000287</v>
+      </c>
+      <c r="N58" s="3">
+        <f>Tabela6[[#This Row],[Variação]]/Tabela6[[#This Row],[Total]]</f>
+        <v>1.795048889267465E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H59" s="90">
+        <v>43254</v>
+      </c>
+      <c r="I59" s="5">
+        <f>IFERROR(VLOOKUP(Tabela6[[#This Row],[Data]]+1,Tabela1[[Data ]:[BRL]],9),0)</f>
+        <v>61.813824800000006</v>
+      </c>
+      <c r="J59" s="5">
+        <f>IFERROR(VLOOKUP(Tabela6[[#This Row],[Data]]+1,Tabela3[[Data]:[Saldo BRL]],5),0)</f>
+        <v>123.60647600000001</v>
+      </c>
+      <c r="K59" s="5">
+        <f>VLOOKUP(Tabela6[[#This Row],[Data]]+1,Tabela16[#All],3)</f>
+        <v>55.73</v>
+      </c>
+      <c r="L59" s="5">
+        <f>SUM(Tabela6[[#This Row],[Atlas]:[Easy]])</f>
+        <v>241.1503008</v>
+      </c>
+      <c r="M59" s="5">
+        <f>IFERROR(Tabela6[[#This Row],[Total]]-L58,0)</f>
+        <v>1.0265862999999911</v>
+      </c>
+      <c r="N59" s="3">
+        <f>Tabela6[[#This Row],[Variação]]/Tabela6[[#This Row],[Total]]</f>
+        <v>4.2570392680181595E-3</v>
       </c>
     </row>
   </sheetData>
@@ -21597,10 +22558,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q36"/>
+  <dimension ref="A1:Q37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q29" sqref="Q29"/>
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21767,11 +22728,11 @@
       <c r="G17" s="6"/>
       <c r="I17" s="60">
         <f>AVERAGE(Tabela16[porcentagem])</f>
-        <v>8.512678640253242E-3</v>
+        <v>8.1679217750989519E-3</v>
       </c>
       <c r="J17" s="61">
         <f>AVERAGE(Tabela16[[Bruto ]])</f>
-        <v>0.43526315789473702</v>
+        <v>0.41799999999999998</v>
       </c>
       <c r="O17" s="88"/>
     </row>
@@ -21913,7 +22874,7 @@
       <c r="K22" s="131"/>
       <c r="L22" s="132">
         <f>INDEX(Tabela16[Posterior],MATCH(9.99999999999999+307,Tabela16[Posterior]))</f>
-        <v>55.64</v>
+        <v>55.73</v>
       </c>
       <c r="M22" s="132"/>
       <c r="O22" s="89"/>
@@ -22298,6 +23259,30 @@
       <c r="F36" s="76">
         <f>IFERROR(Tabela16[[#This Row],[Bruto ]]*12,"N/A")</f>
         <v>0.47999999999998977</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A37" s="91">
+        <v>43252</v>
+      </c>
+      <c r="B37" s="76">
+        <f>C36</f>
+        <v>55.64</v>
+      </c>
+      <c r="C37" s="76">
+        <v>55.73</v>
+      </c>
+      <c r="D37" s="73">
+        <f>IF(Tabela16[[#This Row],[Anterior]]=0,"-",IFERROR(Tabela16[Posterior]-Tabela16[Anterior],"N/A"))</f>
+        <v>8.9999999999996305E-2</v>
+      </c>
+      <c r="E37" s="75">
+        <f>IFERROR(Tabela16[[Bruto ]]/Tabela16[Anterior],"N/A")</f>
+        <v>1.6175413371674391E-3</v>
+      </c>
+      <c r="F37" s="76">
+        <f>IFERROR(Tabela16[[#This Row],[Bruto ]]*12,"N/A")</f>
+        <v>1.0799999999999557</v>
       </c>
     </row>
   </sheetData>
@@ -22319,10 +23304,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y63"/>
+  <dimension ref="A1:Y70"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="I65" sqref="I65"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22539,15 +23524,15 @@
       </c>
       <c r="J6" s="43">
         <f>IF((SUMIFS(Tabela1[Bruto USD],Tabela1[Mês],Plan4!A5,Tabela1[Ano],L$1))=0,"SR",SUMIFS(Tabela1[Bruto USD],Tabela1[Mês],Plan4!A5,Tabela1[Ano],L$1))</f>
-        <v>0.465917317</v>
+        <v>0.57762666500000004</v>
       </c>
       <c r="K6" s="38">
         <f>IF((SUMIFS(Tabela1[Bruto BRL],Tabela1[Mês],Plan4!A5,Tabela1[Ano],L$1))=0,"SR",SUMIFS(Tabela1[Bruto BRL],Tabela1[Mês],Plan4!A5,Tabela1[Ano],L$1))</f>
-        <v>1.7324839929999998</v>
+        <v>2.1565160630000002</v>
       </c>
       <c r="L6" s="39">
         <f>IF((SUMIFS(Tabela1[porcentagem],Tabela1[Mês],Plan4!A5,Tabela1[Ano],L$1))=0,"SR",SUMIFS(Tabela1[porcentagem],Tabela1[Mês],Plan4!A5,Tabela1[Ano],L$1))</f>
-        <v>2.7373435087237913E-2</v>
+        <v>3.4646690154348701E-2</v>
       </c>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
@@ -22562,7 +23547,7 @@
     <row r="7" spans="1:22" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="141">
         <f>INDEX(Tabela1[BRL],MATCH(9.99999999999999+307,Tabela1[BRL]))</f>
-        <v>57.522607583999999</v>
+        <v>61.813824800000006</v>
       </c>
       <c r="B7" s="141"/>
       <c r="C7" s="141"/>
@@ -22570,27 +23555,27 @@
       <c r="E7" s="142"/>
       <c r="F7" s="60">
         <f>AVERAGE(Tabela1[porcentagem])</f>
-        <v>1.3459270305998525E-3</v>
+        <v>1.440008654670215E-3</v>
       </c>
       <c r="G7" s="61">
         <f>AVERAGE(Tabela1[Bruto BRL])</f>
-        <v>8.6400671233333337E-2</v>
+        <v>9.0746912621621628E-2</v>
       </c>
       <c r="H7" s="7"/>
       <c r="I7" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="J7" s="35" t="str">
+      <c r="J7" s="35">
         <f>IF((SUMIFS(Tabela1[Bruto USD],Tabela1[Mês],Plan4!A6,Tabela1[Ano],L$1))=0,"SR",SUMIFS(Tabela1[Bruto USD],Tabela1[Mês],Plan4!A6,Tabela1[Ano],L$1))</f>
-        <v>SR</v>
-      </c>
-      <c r="K7" s="36" t="str">
+        <v>9.0315278999999998E-2</v>
+      </c>
+      <c r="K7" s="36">
         <f>IF((SUMIFS(Tabela1[Bruto BRL],Tabela1[Mês],Plan4!A6,Tabela1[Ano],L$1))=0,"SR",SUMIFS(Tabela1[Bruto BRL],Tabela1[Mês],Plan4!A6,Tabela1[Ano],L$1))</f>
-        <v>SR</v>
-      </c>
-      <c r="L7" s="37" t="str">
+        <v>0.34158356000000001</v>
+      </c>
+      <c r="L7" s="37">
         <f>IF((SUMIFS(Tabela1[porcentagem],Tabela1[Mês],Plan4!A6,Tabela1[Ano],L$1))=0,"SR",SUMIFS(Tabela1[porcentagem],Tabela1[Mês],Plan4!A6,Tabela1[Ano],L$1))</f>
-        <v>SR</v>
+        <v>5.6292542376915871E-3</v>
       </c>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
@@ -22693,7 +23678,7 @@
       </c>
       <c r="G10" s="67">
         <f>SMALL(Tabela1[USD],1)</f>
-        <v>15.287313599999999</v>
+        <v>14.821621842999999</v>
       </c>
       <c r="H10" s="7"/>
       <c r="I10" s="21" t="s">
@@ -22724,13 +23709,13 @@
     <row r="11" spans="1:22" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="149" t="str">
         <f>SUM(Tabela1[Variação])&amp;" BTC"</f>
-        <v>0,00008224 BTC</v>
+        <v>0,00010928 BTC</v>
       </c>
       <c r="B11" s="149"/>
       <c r="C11" s="149"/>
       <c r="D11" s="148">
         <f>SUM(Tabela1[Variação])*INDEX(Tabela25[BTC/BRL],MATCH(999999999999999+307,Tabela25[BTC/BRL]))</f>
-        <v>2.2698157760000006</v>
+        <v>3.1996091200000003</v>
       </c>
       <c r="E11" s="148"/>
       <c r="F11" s="68">
@@ -24618,6 +25603,363 @@
         <v>0.72173423910691881</v>
       </c>
     </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A64" s="8">
+        <v>43248.420138888891</v>
+      </c>
+      <c r="B64" s="12">
+        <v>5</v>
+      </c>
+      <c r="C64" s="12">
+        <v>2018</v>
+      </c>
+      <c r="D64" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E64" s="6">
+        <v>2.0841599999999998E-3</v>
+      </c>
+      <c r="F64" s="6">
+        <v>2.0881699999999999E-3</v>
+      </c>
+      <c r="G64" s="6">
+        <v>4.0099999999999997E-6</v>
+      </c>
+      <c r="H64" s="72">
+        <f>Tabela1[[#This Row],[Posterior]]*VLOOKUP(Tabela1[[#This Row],[Data ]],Tabela25[],2)</f>
+        <v>14.821621842999999</v>
+      </c>
+      <c r="I64" s="80">
+        <f>Tabela1[[#This Row],[Posterior]]*VLOOKUP(Tabela1[[#This Row],[Data ]],Tabela25[],4)</f>
+        <v>56.380589999999998</v>
+      </c>
+      <c r="J64" s="80">
+        <f>IF(Tabela1[[#This Row],[Tipo]]="Depósito (BTC)","N/A",Tabela1[[#This Row],[Variação]]*VLOOKUP(Tabela1[[#This Row],[Data ]],Tabela25[],4))</f>
+        <v>0.10826999999999999</v>
+      </c>
+      <c r="K64" s="101">
+        <f>IF(Tabela1[[#This Row],[Tipo]]="Depósito (BTC)","N/A",Tabela1[[#This Row],[Variação]]*VLOOKUP(Tabela1[[#This Row],[Data ]],Tabela25[],2))</f>
+        <v>2.8462578999999998E-2</v>
+      </c>
+      <c r="L64" s="81">
+        <f t="shared" ref="L64:L70" si="15">G64/E64</f>
+        <v>1.9240365423000153E-3</v>
+      </c>
+      <c r="M64" s="3">
+        <f t="shared" ref="M64:M70" si="16">L64*30</f>
+        <v>5.772109626900046E-2</v>
+      </c>
+      <c r="N64" s="3">
+        <f t="shared" ref="N64:N70" si="17">M64*12</f>
+        <v>0.69265315522800552</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A65" s="8">
+        <v>43249.420138888891</v>
+      </c>
+      <c r="B65" s="12">
+        <v>5</v>
+      </c>
+      <c r="C65" s="12">
+        <v>2018</v>
+      </c>
+      <c r="D65" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E65" s="6">
+        <v>2.0881699999999999E-3</v>
+      </c>
+      <c r="F65" s="6">
+        <v>2.0917800000000001E-3</v>
+      </c>
+      <c r="G65" s="6">
+        <v>3.6100000000000002E-6</v>
+      </c>
+      <c r="H65" s="72">
+        <f>Tabela1[[#This Row],[Posterior]]*VLOOKUP(Tabela1[[#This Row],[Data ]],Tabela25[],2)</f>
+        <v>15.6046788</v>
+      </c>
+      <c r="I65" s="80">
+        <f>Tabela1[[#This Row],[Posterior]]*VLOOKUP(Tabela1[[#This Row],[Data ]],Tabela25[],4)</f>
+        <v>59.406552000000005</v>
+      </c>
+      <c r="J65" s="80">
+        <f>IF(Tabela1[[#This Row],[Tipo]]="Depósito (BTC)","N/A",Tabela1[[#This Row],[Variação]]*VLOOKUP(Tabela1[[#This Row],[Data ]],Tabela25[],4))</f>
+        <v>0.102524</v>
+      </c>
+      <c r="K65" s="101">
+        <f>IF(Tabela1[[#This Row],[Tipo]]="Depósito (BTC)","N/A",Tabela1[[#This Row],[Variação]]*VLOOKUP(Tabela1[[#This Row],[Data ]],Tabela25[],2))</f>
+        <v>2.6930600000000002E-2</v>
+      </c>
+      <c r="L65" s="81">
+        <f t="shared" si="15"/>
+        <v>1.7287864493791215E-3</v>
+      </c>
+      <c r="M65" s="3">
+        <f t="shared" si="16"/>
+        <v>5.1863593481373649E-2</v>
+      </c>
+      <c r="N65" s="3">
+        <f t="shared" si="17"/>
+        <v>0.62236312177648379</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A66" s="8">
+        <v>43250.420138888891</v>
+      </c>
+      <c r="B66" s="12">
+        <v>5</v>
+      </c>
+      <c r="C66" s="12">
+        <v>2018</v>
+      </c>
+      <c r="D66" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E66" s="6">
+        <v>2.0917800000000001E-3</v>
+      </c>
+      <c r="F66" s="6">
+        <v>2.0956299999999998E-3</v>
+      </c>
+      <c r="G66" s="6">
+        <v>3.8500000000000004E-6</v>
+      </c>
+      <c r="H66" s="72">
+        <f>Tabela1[[#This Row],[Posterior]]*VLOOKUP(Tabela1[[#This Row],[Data ]],Tabela25[],2)</f>
+        <v>15.455480812999999</v>
+      </c>
+      <c r="I66" s="80">
+        <f>Tabela1[[#This Row],[Posterior]]*VLOOKUP(Tabela1[[#This Row],[Data ]],Tabela25[],4)</f>
+        <v>58.715361339999994</v>
+      </c>
+      <c r="J66" s="80">
+        <f>IF(Tabela1[[#This Row],[Tipo]]="Depósito (BTC)","N/A",Tabela1[[#This Row],[Variação]]*VLOOKUP(Tabela1[[#This Row],[Data ]],Tabela25[],4))</f>
+        <v>0.10786930000000002</v>
+      </c>
+      <c r="K66" s="101">
+        <f>IF(Tabela1[[#This Row],[Tipo]]="Depósito (BTC)","N/A",Tabela1[[#This Row],[Variação]]*VLOOKUP(Tabela1[[#This Row],[Data ]],Tabela25[],2))</f>
+        <v>2.8394135000000004E-2</v>
+      </c>
+      <c r="L66" s="81">
+        <f t="shared" si="15"/>
+        <v>1.8405377238524129E-3</v>
+      </c>
+      <c r="M66" s="3">
+        <f t="shared" si="16"/>
+        <v>5.5216131715572388E-2</v>
+      </c>
+      <c r="N66" s="3">
+        <f t="shared" si="17"/>
+        <v>0.66259358058686868</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A67" s="8">
+        <v>43251.420138888891</v>
+      </c>
+      <c r="B67" s="12">
+        <v>5</v>
+      </c>
+      <c r="C67" s="12">
+        <v>2018</v>
+      </c>
+      <c r="D67" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E67" s="6">
+        <v>2.0956299999999998E-3</v>
+      </c>
+      <c r="F67" s="6">
+        <v>2.0993600000000002E-3</v>
+      </c>
+      <c r="G67" s="6">
+        <v>3.7299999999999999E-6</v>
+      </c>
+      <c r="H67" s="72">
+        <f>Tabela1[[#This Row],[Posterior]]*VLOOKUP(Tabela1[[#This Row],[Data ]],Tabela25[],2)</f>
+        <v>15.715389088000002</v>
+      </c>
+      <c r="I67" s="80">
+        <f>Tabela1[[#This Row],[Posterior]]*VLOOKUP(Tabela1[[#This Row],[Data ]],Tabela25[],4)</f>
+        <v>59.304820640000003</v>
+      </c>
+      <c r="J67" s="80">
+        <f>IF(Tabela1[[#This Row],[Tipo]]="Depósito (BTC)","N/A",Tabela1[[#This Row],[Variação]]*VLOOKUP(Tabela1[[#This Row],[Data ]],Tabela25[],4))</f>
+        <v>0.10536877</v>
+      </c>
+      <c r="K67" s="101">
+        <f>IF(Tabela1[[#This Row],[Tipo]]="Depósito (BTC)","N/A",Tabela1[[#This Row],[Variação]]*VLOOKUP(Tabela1[[#This Row],[Data ]],Tabela25[],2))</f>
+        <v>2.7922033999999998E-2</v>
+      </c>
+      <c r="L67" s="81">
+        <f t="shared" si="15"/>
+        <v>1.7798943515792388E-3</v>
+      </c>
+      <c r="M67" s="3">
+        <f t="shared" si="16"/>
+        <v>5.3396830547377164E-2</v>
+      </c>
+      <c r="N67" s="3">
+        <f t="shared" si="17"/>
+        <v>0.64076196656852602</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A68" s="8">
+        <v>43252.420138888891</v>
+      </c>
+      <c r="B68" s="12">
+        <v>6</v>
+      </c>
+      <c r="C68" s="12">
+        <v>2018</v>
+      </c>
+      <c r="D68" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E68" s="6">
+        <v>2.0993600000000002E-3</v>
+      </c>
+      <c r="F68" s="6">
+        <v>2.1032099999999999E-3</v>
+      </c>
+      <c r="G68" s="6">
+        <v>3.8500000000000004E-6</v>
+      </c>
+      <c r="H68" s="72">
+        <f>Tabela1[[#This Row],[Posterior]]*VLOOKUP(Tabela1[[#This Row],[Data ]],Tabela25[],2)</f>
+        <v>15.81824241</v>
+      </c>
+      <c r="I68" s="80">
+        <f>Tabela1[[#This Row],[Posterior]]*VLOOKUP(Tabela1[[#This Row],[Data ]],Tabela25[],4)</f>
+        <v>59.695409429999998</v>
+      </c>
+      <c r="J68" s="80">
+        <f>IF(Tabela1[[#This Row],[Tipo]]="Depósito (BTC)","N/A",Tabela1[[#This Row],[Variação]]*VLOOKUP(Tabela1[[#This Row],[Data ]],Tabela25[],4))</f>
+        <v>0.10927455000000001</v>
+      </c>
+      <c r="K68" s="101">
+        <f>IF(Tabela1[[#This Row],[Tipo]]="Depósito (BTC)","N/A",Tabela1[[#This Row],[Variação]]*VLOOKUP(Tabela1[[#This Row],[Data ]],Tabela25[],2))</f>
+        <v>2.8955850000000002E-2</v>
+      </c>
+      <c r="L68" s="81">
+        <f t="shared" si="15"/>
+        <v>1.8338922338236416E-3</v>
+      </c>
+      <c r="M68" s="3">
+        <f t="shared" si="16"/>
+        <v>5.5016767014709249E-2</v>
+      </c>
+      <c r="N68" s="3">
+        <f t="shared" si="17"/>
+        <v>0.66020120417651096</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A69" s="8">
+        <v>43253.420138888891</v>
+      </c>
+      <c r="B69" s="12">
+        <v>6</v>
+      </c>
+      <c r="C69" s="12">
+        <v>2018</v>
+      </c>
+      <c r="D69" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E69" s="6">
+        <v>2.1032099999999999E-3</v>
+      </c>
+      <c r="F69" s="6">
+        <v>2.1070099999999999E-3</v>
+      </c>
+      <c r="G69" s="6">
+        <v>3.8E-6</v>
+      </c>
+      <c r="H69" s="72">
+        <f>Tabela1[[#This Row],[Posterior]]*VLOOKUP(Tabela1[[#This Row],[Data ]],Tabela25[],2)</f>
+        <v>16.093553081</v>
+      </c>
+      <c r="I69" s="80">
+        <f>Tabela1[[#This Row],[Posterior]]*VLOOKUP(Tabela1[[#This Row],[Data ]],Tabela25[],4)</f>
+        <v>60.787238499999994</v>
+      </c>
+      <c r="J69" s="80">
+        <f>IF(Tabela1[[#This Row],[Tipo]]="Depósito (BTC)","N/A",Tabela1[[#This Row],[Variação]]*VLOOKUP(Tabela1[[#This Row],[Data ]],Tabela25[],4))</f>
+        <v>0.10963000000000001</v>
+      </c>
+      <c r="K69" s="101">
+        <f>IF(Tabela1[[#This Row],[Tipo]]="Depósito (BTC)","N/A",Tabela1[[#This Row],[Variação]]*VLOOKUP(Tabela1[[#This Row],[Data ]],Tabela25[],2))</f>
+        <v>2.902478E-2</v>
+      </c>
+      <c r="L69" s="81">
+        <f t="shared" si="15"/>
+        <v>1.8067620446840782E-3</v>
+      </c>
+      <c r="M69" s="3">
+        <f t="shared" si="16"/>
+        <v>5.4202861340522344E-2</v>
+      </c>
+      <c r="N69" s="3">
+        <f t="shared" si="17"/>
+        <v>0.65043433608626811</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A70" s="8">
+        <v>43254.420138888891</v>
+      </c>
+      <c r="B70" s="12">
+        <v>6</v>
+      </c>
+      <c r="C70" s="12">
+        <v>2018</v>
+      </c>
+      <c r="D70" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E70" s="6">
+        <v>2.1070099999999999E-3</v>
+      </c>
+      <c r="F70" s="6">
+        <v>2.1112000000000001E-3</v>
+      </c>
+      <c r="G70" s="6">
+        <v>4.1899999999999997E-6</v>
+      </c>
+      <c r="H70" s="72">
+        <f>Tabela1[[#This Row],[Posterior]]*VLOOKUP(Tabela1[[#This Row],[Data ]],Tabela25[],2)</f>
+        <v>16.292341520000001</v>
+      </c>
+      <c r="I70" s="80">
+        <f>Tabela1[[#This Row],[Posterior]]*VLOOKUP(Tabela1[[#This Row],[Data ]],Tabela25[],4)</f>
+        <v>61.813824800000006</v>
+      </c>
+      <c r="J70" s="80">
+        <f>IF(Tabela1[[#This Row],[Tipo]]="Depósito (BTC)","N/A",Tabela1[[#This Row],[Variação]]*VLOOKUP(Tabela1[[#This Row],[Data ]],Tabela25[],4))</f>
+        <v>0.12267900999999999</v>
+      </c>
+      <c r="K70" s="101">
+        <f>IF(Tabela1[[#This Row],[Tipo]]="Depósito (BTC)","N/A",Tabela1[[#This Row],[Variação]]*VLOOKUP(Tabela1[[#This Row],[Data ]],Tabela25[],2))</f>
+        <v>3.2334649E-2</v>
+      </c>
+      <c r="L70" s="81">
+        <f t="shared" si="15"/>
+        <v>1.9885999591838671E-3</v>
+      </c>
+      <c r="M70" s="3">
+        <f t="shared" si="16"/>
+        <v>5.9657998775516009E-2</v>
+      </c>
+      <c r="N70" s="3">
+        <f t="shared" si="17"/>
+        <v>0.71589598530619214</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="M31:N31"/>
@@ -24658,10 +26000,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M56"/>
+  <dimension ref="A1:M63"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24685,7 +26027,7 @@
       <c r="C1" s="152"/>
       <c r="D1" s="155">
         <f ca="1">TODAY()+(40-K3)/J6</f>
-        <v>43262.583333333336</v>
+        <v>43262.523809523809</v>
       </c>
       <c r="E1" s="158" t="str">
         <f>I6</f>
@@ -24697,7 +26039,7 @@
       <c r="J1" s="137"/>
       <c r="K1" s="148">
         <f>INDEX(Tabela3[Saldo BRL],MATCH(9.99999999999999+307,Tabela3[Saldo BRL]))</f>
-        <v>100.67144999999999</v>
+        <v>123.60647600000001</v>
       </c>
       <c r="L1" s="148"/>
       <c r="M1" s="148"/>
@@ -24718,7 +26060,7 @@
       <c r="C3" s="152"/>
       <c r="D3" s="157">
         <f ca="1">TODAY()+(40-K3)/J7</f>
-        <v>43263.450450450451</v>
+        <v>43262.939098660172</v>
       </c>
       <c r="E3" s="160" t="str">
         <f>I7</f>
@@ -24728,7 +26070,7 @@
       <c r="J3" s="137"/>
       <c r="K3" s="153">
         <f>INDEX(Tabela3[Saldo disponível para saque],MATCH(9.99999999999999+307,Tabela3[Saldo disponível para saque]))</f>
-        <v>27.749999999999996</v>
+        <v>32.840000000000003</v>
       </c>
       <c r="L3" s="153"/>
       <c r="M3" s="153"/>
@@ -24755,7 +26097,7 @@
       </c>
       <c r="K6" s="95">
         <f ca="1">J6*VLOOKUP(TODAY(),Tabela25[],6)</f>
-        <v>3.0473520000000001</v>
+        <v>3.1616759999999999</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
@@ -24764,11 +26106,11 @@
       </c>
       <c r="J7" s="108">
         <f>SUM(Tabela3[Valor])/COUNT(Tabela3[Valor])</f>
-        <v>0.7928571428571427</v>
+        <v>0.80097560975609761</v>
       </c>
       <c r="K7" s="96">
         <f ca="1">J7*VLOOKUP(TODAY(),Tabela25[],6)</f>
-        <v>2.8763271428571424</v>
+        <v>3.0147920975609757</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
@@ -24777,11 +26119,11 @@
       </c>
       <c r="J8" s="108">
         <f>J7*30</f>
-        <v>23.785714285714281</v>
+        <v>24.029268292682929</v>
       </c>
       <c r="K8" s="96">
         <f ca="1">J8*VLOOKUP(TODAY(),Tabela25[],6)</f>
-        <v>86.289814285714272</v>
+        <v>90.44376292682928</v>
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
@@ -24790,11 +26132,11 @@
       </c>
       <c r="J9" s="108">
         <f>J8*12</f>
-        <v>285.42857142857139</v>
+        <v>288.35121951219514</v>
       </c>
       <c r="K9" s="96">
         <f ca="1">J9*VLOOKUP(TODAY(),Tabela25[],6)</f>
-        <v>1035.4777714285713</v>
+        <v>1085.3251551219514</v>
       </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
@@ -24807,7 +26149,7 @@
       </c>
       <c r="K10" s="96">
         <f ca="1">J10*VLOOKUP(TODAY(),Tabela25[],6)</f>
-        <v>3.1199080000000001</v>
+        <v>3.2369539999999999</v>
       </c>
     </row>
     <row r="11" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -24852,7 +26194,7 @@
       </c>
       <c r="K14" s="95">
         <f ca="1">J14*VLOOKUP(TODAY(),Tabela25[],6)</f>
-        <v>145.11199999999999</v>
+        <v>150.55600000000001</v>
       </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
@@ -24865,7 +26207,7 @@
       </c>
       <c r="K15" s="96">
         <f ca="1">J15*VLOOKUP(TODAY(),Tabela25[],6)</f>
-        <v>580.44799999999998</v>
+        <v>602.22400000000005</v>
       </c>
     </row>
     <row r="16" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -24874,11 +26216,11 @@
       </c>
       <c r="J16" s="107">
         <f>SUM(Tabela3[Valor])</f>
-        <v>27.749999999999996</v>
+        <v>32.840000000000003</v>
       </c>
       <c r="K16" s="97">
         <f ca="1">J16*VLOOKUP(TODAY(),Tabela25[],6)</f>
-        <v>100.67144999999999</v>
+        <v>123.60647600000001</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -24887,11 +26229,11 @@
       </c>
       <c r="J17" s="112">
         <f>J16-J15</f>
-        <v>-132.25</v>
+        <v>-127.16</v>
       </c>
       <c r="K17" s="113">
         <f ca="1">J17*VLOOKUP(TODAY(),Tabela25[],6)</f>
-        <v>-479.77655000000004</v>
+        <v>-478.617524</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -24933,7 +26275,7 @@
       </c>
       <c r="E22" s="13">
         <f>IFERROR(Tabela3[[#This Row],[Saldo disponível para saque]]*VLOOKUP(Tabela3[[#This Row],[Data]],Tabela25[],6),Tabela3[[#This Row],[Saldo disponível para saque]]*Cotação!J2)</f>
-        <v>3.0199994999999999</v>
+        <v>3.0422409230769234</v>
       </c>
       <c r="F22" s="93">
         <v>0.4</v>
@@ -25828,6 +27170,167 @@
         <f>IF(Tabela3[[#This Row],[Saldo disponível para saque]]&gt;=40,"Comprar","")</f>
         <v/>
       </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="8">
+        <v>43248.829872685186</v>
+      </c>
+      <c r="B57" t="s">
+        <v>107</v>
+      </c>
+      <c r="C57" s="11">
+        <v>0.84</v>
+      </c>
+      <c r="D57" s="11">
+        <f>IFERROR(C57+D56,Tabela3[[#This Row],[Valor]])</f>
+        <v>28.589999999999996</v>
+      </c>
+      <c r="E57" s="13">
+        <f>IFERROR(Tabela3[[#This Row],[Saldo disponível para saque]]*VLOOKUP(Tabela3[[#This Row],[Data]],Tabela25[],6),Tabela3[[#This Row],[Saldo disponível para saque]]*Cotação!J37)</f>
+        <v>106.78936799999998</v>
+      </c>
+      <c r="F57" s="93">
+        <v>0.4</v>
+      </c>
+      <c r="G57" s="57" t="str">
+        <f>IF(Tabela3[[#This Row],[Saldo disponível para saque]]&gt;=40,"Comprar","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="8">
+        <v>43249.907013888886</v>
+      </c>
+      <c r="B58" t="s">
+        <v>108</v>
+      </c>
+      <c r="C58" s="11">
+        <v>0.85</v>
+      </c>
+      <c r="D58" s="11">
+        <f>IFERROR(C58+D57,Tabela3[[#This Row],[Valor]])</f>
+        <v>29.439999999999998</v>
+      </c>
+      <c r="E58" s="13">
+        <f>IFERROR(Tabela3[[#This Row],[Saldo disponível para saque]]*VLOOKUP(Tabela3[[#This Row],[Data]],Tabela25[],6),Tabela3[[#This Row],[Saldo disponível para saque]]*Cotação!J38)</f>
+        <v>109.675776</v>
+      </c>
+      <c r="F58" s="93">
+        <v>0.4</v>
+      </c>
+      <c r="G58" s="57" t="str">
+        <f>IF(Tabela3[[#This Row],[Saldo disponível para saque]]&gt;=40,"Comprar","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="8">
+        <v>43250.864062499997</v>
+      </c>
+      <c r="B59" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="C59" s="11">
+        <v>0.85</v>
+      </c>
+      <c r="D59" s="11">
+        <f>IFERROR(C59+D58,Tabela3[[#This Row],[Valor]])</f>
+        <v>30.29</v>
+      </c>
+      <c r="E59" s="13">
+        <f>IFERROR(Tabela3[[#This Row],[Saldo disponível para saque]]*VLOOKUP(Tabela3[[#This Row],[Data]],Tabela25[],6),Tabela3[[#This Row],[Saldo disponível para saque]]*Cotação!J39)</f>
+        <v>112.802989</v>
+      </c>
+      <c r="F59" s="93">
+        <v>0.4</v>
+      </c>
+      <c r="G59" s="57" t="str">
+        <f>IF(Tabela3[[#This Row],[Saldo disponível para saque]]&gt;=40,"Comprar","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="8">
+        <v>43251.897314814814</v>
+      </c>
+      <c r="B60" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C60" s="11">
+        <v>0.85</v>
+      </c>
+      <c r="D60" s="11">
+        <f>IFERROR(C60+D59,Tabela3[[#This Row],[Valor]])</f>
+        <v>31.14</v>
+      </c>
+      <c r="E60" s="13">
+        <f>IFERROR(Tabela3[[#This Row],[Saldo disponível para saque]]*VLOOKUP(Tabela3[[#This Row],[Data]],Tabela25[],6),Tabela3[[#This Row],[Saldo disponível para saque]]*Cotação!J40)</f>
+        <v>115.94979000000001</v>
+      </c>
+      <c r="F60" s="93">
+        <v>0.4</v>
+      </c>
+      <c r="G60" s="57" t="str">
+        <f>IF(Tabela3[[#This Row],[Saldo disponível para saque]]&gt;=40,"Comprar","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="90">
+        <v>43252.871805555558</v>
+      </c>
+      <c r="B61" s="162" t="s">
+        <v>110</v>
+      </c>
+      <c r="C61" s="162">
+        <v>0.85</v>
+      </c>
+      <c r="D61" s="11">
+        <f>IFERROR(C61+D60,Tabela3[[#This Row],[Valor]])</f>
+        <v>31.990000000000002</v>
+      </c>
+      <c r="E61" s="13">
+        <f>IFERROR(Tabela3[[#This Row],[Saldo disponível para saque]]*VLOOKUP(Tabela3[[#This Row],[Data]],Tabela25[],6),Tabela3[[#This Row],[Saldo disponível para saque]]*Cotação!J41)</f>
+        <v>120.387967</v>
+      </c>
+      <c r="F61" s="93">
+        <v>0.4</v>
+      </c>
+      <c r="G61" s="57" t="str">
+        <f>IF(Tabela3[[#This Row],[Saldo disponível para saque]]&gt;=40,"Comprar","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="90">
+        <v>43253.990416666667</v>
+      </c>
+      <c r="B62" s="161" t="s">
+        <v>109</v>
+      </c>
+      <c r="C62" s="162">
+        <v>0.85</v>
+      </c>
+      <c r="D62" s="11">
+        <f>IFERROR(C62+D61,Tabela3[[#This Row],[Valor]])</f>
+        <v>32.840000000000003</v>
+      </c>
+      <c r="E62" s="13">
+        <f>IFERROR(Tabela3[[#This Row],[Saldo disponível para saque]]*VLOOKUP(Tabela3[[#This Row],[Data]],Tabela25[],6),Tabela3[[#This Row],[Saldo disponível para saque]]*Cotação!J42)</f>
+        <v>123.60647600000001</v>
+      </c>
+      <c r="F62" s="93">
+        <v>0.4</v>
+      </c>
+      <c r="G62" s="57" t="str">
+        <f>IF(Tabela3[[#This Row],[Saldo disponível para saque]]&gt;=40,"Comprar","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D63" s="162"/>
+      <c r="E63" s="163"/>
+      <c r="F63" s="164"/>
     </row>
   </sheetData>
   <mergeCells count="10">
